--- a/Apple Offices - OSHA EPA Tracker v1.xlsx
+++ b/Apple Offices - OSHA EPA Tracker v1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashleygjovik/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashleygjovik/Desktop/Apple mega-spreadsheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F43CCF8-C860-2442-B7FB-EB703D27E5C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{567D5054-123B-CF43-8A6C-90C47C5F95A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="960" yWindow="3320" windowWidth="37440" windowHeight="18280" xr2:uid="{F0C7B789-DDD9-4896-9B82-39835285C9CF}"/>
+    <workbookView xWindow="1060" yWindow="6140" windowWidth="37440" windowHeight="18280" xr2:uid="{F0C7B789-DDD9-4896-9B82-39835285C9CF}"/>
   </bookViews>
   <sheets>
     <sheet name="Apple Buildings" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1198" uniqueCount="673">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1202" uniqueCount="676">
   <si>
     <t>Address</t>
   </si>
@@ -3396,6 +3396,19 @@
   </si>
   <si>
     <t>https://www.envirostor.dtsc.ca.gov/public/</t>
+  </si>
+  <si>
+    <t>2020 - C-1813557 T8 CCR § 3505(c) - Employer not notifying staff of employees who tested positive for COVID-19 and which employees might have been exposed to them.</t>
+  </si>
+  <si>
+    <t>State of California v Apple, 16CV302579 (2016)
+$450,000 settlement 
+Apple electronic waste shredding facility in Sunnyvale and a subsequent review of records. DTSC discovered that Apple had opened, operated and then closed an electronic waste shredding facility from 2011 to 2012 in Cupertino without DTSC’s knowledge and without complying with universal waste regulations, including the mismanagement of metal dust from shredder operations.
+Apple processed about 1.1 million pounds of electronic waste at the Cupertino facility before closing it in January 2013, and shifting operations to a facility in Sunnyvale. In Sunnyvale, Apple dismantled, shredded and disposed of more than 800,000 pounds of electronic waste before notifying DTSC of the plant’s existence and complying with all universal waste regulations.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+21. During some part of 2011 and throughout 2012, Apple operated a facility at 10501 Tantau Avenue in Cupertino, California, at which it dismantled, shredded and disposed of Apple brand electronic devices (hereafter, "Tantau Avenue Facility"). In January 2013, Apple ceased these operations at the Tantau Avenue Facility, and relocated equipment and operations from the Tantau Avenue Facility to 1330 Kifer Road in Sunnyvale (hereafter, "Sunnyvale Facility"). [state v Apple complaint]</t>
   </si>
 </sst>
 </file>
@@ -3515,7 +3528,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -3580,8 +3593,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3901,9 +3913,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCA3BC1E-98BA-4EBC-B487-BB5A1B32BC1F}">
   <dimension ref="A1:U156"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="95" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O14" sqref="O14"/>
+    <sheetView tabSelected="1" zoomScale="95" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3918,7 +3930,7 @@
     <col min="8" max="9" width="14.6640625" style="12" customWidth="1"/>
     <col min="10" max="10" width="18.33203125" style="11" customWidth="1"/>
     <col min="11" max="11" width="21" customWidth="1"/>
-    <col min="12" max="12" width="17.1640625" customWidth="1"/>
+    <col min="12" max="12" width="20" customWidth="1"/>
     <col min="13" max="13" width="10.1640625" style="11" customWidth="1"/>
     <col min="14" max="14" width="8.83203125" style="11" customWidth="1"/>
     <col min="15" max="15" width="72.33203125" style="11" customWidth="1"/>
@@ -4393,7 +4405,7 @@
       <c r="D11" s="9" t="s">
         <v>204</v>
       </c>
-      <c r="K11" s="29"/>
+      <c r="K11" s="22"/>
       <c r="M11" s="9"/>
       <c r="N11" s="9"/>
     </row>
@@ -4952,7 +4964,7 @@
         <v>255</v>
       </c>
       <c r="D28" s="9"/>
-      <c r="J28" s="28"/>
+      <c r="J28"/>
       <c r="K28" s="11"/>
       <c r="M28" s="9"/>
       <c r="N28" s="9"/>
@@ -4963,7 +4975,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="29" spans="1:21" ht="224" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:21" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A29" s="16" t="s">
         <v>137</v>
       </c>
@@ -4985,12 +4997,17 @@
       <c r="J29" s="9" t="s">
         <v>636</v>
       </c>
-      <c r="K29" s="28"/>
+      <c r="L29" s="28" t="s">
+        <v>674</v>
+      </c>
       <c r="M29" s="11">
         <v>3</v>
       </c>
       <c r="N29" s="11">
         <v>0</v>
+      </c>
+      <c r="O29" s="9" t="s">
+        <v>675</v>
       </c>
       <c r="Q29" s="14" t="s">
         <v>508</v>
@@ -5233,10 +5250,9 @@
       <c r="J39" s="9" t="s">
         <v>658</v>
       </c>
-      <c r="K39" s="29" t="s">
+      <c r="K39" s="22" t="s">
         <v>657</v>
       </c>
-      <c r="L39" s="28"/>
     </row>
     <row r="40" spans="1:21" ht="64" x14ac:dyDescent="0.2">
       <c r="A40" s="8" t="s">
@@ -6409,7 +6425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:20" ht="80" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:20" ht="128" x14ac:dyDescent="0.2">
       <c r="A80" s="8" t="s">
         <v>5</v>
       </c>
@@ -6434,7 +6450,9 @@
       <c r="H80" s="12">
         <v>44585</v>
       </c>
-      <c r="K80" s="11"/>
+      <c r="K80" s="9" t="s">
+        <v>673</v>
+      </c>
       <c r="L80" s="11"/>
       <c r="M80" s="11">
         <v>1</v>
@@ -8735,7 +8753,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="135" spans="1:20" ht="365" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:20" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A135" s="8" t="s">
         <v>158</v>
       </c>
@@ -8766,7 +8784,9 @@
       <c r="K135" s="9" t="s">
         <v>654</v>
       </c>
-      <c r="L135" s="11"/>
+      <c r="L135" s="9" t="s">
+        <v>674</v>
+      </c>
       <c r="M135" s="11">
         <v>16</v>
       </c>

--- a/Apple Offices - OSHA EPA Tracker v1.xlsx
+++ b/Apple Offices - OSHA EPA Tracker v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashleygjovik/Desktop/Apple mega-spreadsheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{567D5054-123B-CF43-8A6C-90C47C5F95A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{342B1927-44EE-6041-BED1-D1F6E31F14C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1060" yWindow="6140" windowWidth="37440" windowHeight="18280" xr2:uid="{F0C7B789-DDD9-4896-9B82-39835285C9CF}"/>
+    <workbookView xWindow="9460" yWindow="3680" windowWidth="37440" windowHeight="18280" xr2:uid="{F0C7B789-DDD9-4896-9B82-39835285C9CF}"/>
   </bookViews>
   <sheets>
     <sheet name="Apple Buildings" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1202" uniqueCount="676">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1203" uniqueCount="677">
   <si>
     <t>Address</t>
   </si>
@@ -3409,6 +3409,11 @@
   <si>
     <t xml:space="preserve">
 21. During some part of 2011 and throughout 2012, Apple operated a facility at 10501 Tantau Avenue in Cupertino, California, at which it dismantled, shredded and disposed of Apple brand electronic devices (hereafter, "Tantau Avenue Facility"). In January 2013, Apple ceased these operations at the Tantau Avenue Facility, and relocated equipment and operations from the Tantau Avenue Facility to 1330 Kifer Road in Sunnyvale (hereafter, "Sunnyvale Facility"). [state v Apple complaint]</t>
+  </si>
+  <si>
+    <t>2/2022- No 0950643 (Accident)
+Health inspection on 6/7/22
+$150.00 fine</t>
   </si>
 </sst>
 </file>
@@ -3914,8 +3919,8 @@
   <dimension ref="A1:U156"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="95" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J29" sqref="J29"/>
+      <pane ySplit="1" topLeftCell="A128" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K130" sqref="K130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8475,7 +8480,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="129" spans="1:20" ht="48" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:20" ht="80" x14ac:dyDescent="0.2">
       <c r="A129" s="8" t="s">
         <v>68</v>
       </c>
@@ -8500,7 +8505,9 @@
       <c r="H129" s="12">
         <v>44586</v>
       </c>
-      <c r="K129" s="11"/>
+      <c r="K129" s="9" t="s">
+        <v>676</v>
+      </c>
       <c r="L129" s="11"/>
       <c r="M129" s="11">
         <v>1</v>

--- a/Apple Offices - OSHA EPA Tracker v1.xlsx
+++ b/Apple Offices - OSHA EPA Tracker v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashleygjovik/Desktop/Apple mega-spreadsheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{342B1927-44EE-6041-BED1-D1F6E31F14C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C77467F-2A19-0A46-B1E3-3F5F880E6927}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9460" yWindow="3680" windowWidth="37440" windowHeight="18280" xr2:uid="{F0C7B789-DDD9-4896-9B82-39835285C9CF}"/>
+    <workbookView xWindow="460" yWindow="1760" windowWidth="37440" windowHeight="18280" xr2:uid="{F0C7B789-DDD9-4896-9B82-39835285C9CF}"/>
   </bookViews>
   <sheets>
     <sheet name="Apple Buildings" sheetId="1" r:id="rId1"/>
@@ -3919,8 +3919,8 @@
   <dimension ref="A1:U156"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="95" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A128" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K130" sqref="K130"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7445,7 +7445,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="106" spans="1:20" ht="80" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:20" ht="64" x14ac:dyDescent="0.2">
       <c r="A106" s="8" t="s">
         <v>110</v>
       </c>
@@ -7456,16 +7456,15 @@
         <v>246</v>
       </c>
       <c r="D106" s="9"/>
-      <c r="G106" s="17" t="s">
-        <v>111</v>
-      </c>
       <c r="H106" s="18"/>
       <c r="I106" s="18"/>
       <c r="K106" s="11"/>
       <c r="L106" s="11"/>
       <c r="M106" s="9"/>
       <c r="N106" s="9"/>
-      <c r="Q106" s="18"/>
+      <c r="Q106" s="17" t="s">
+        <v>111</v>
+      </c>
       <c r="R106" s="9" t="s">
         <v>112</v>
       </c>
@@ -9776,7 +9775,7 @@
     <sortCondition ref="B2:B156"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="G106" r:id="rId1" xr:uid="{FC63631D-77E4-4A15-B985-BDBD16CA8C9F}"/>
+    <hyperlink ref="Q106" r:id="rId1" xr:uid="{FC63631D-77E4-4A15-B985-BDBD16CA8C9F}"/>
     <hyperlink ref="Q26" r:id="rId2" display="http://geotracker.waterboards.ca.gov/profile_report.asp?global_id=T0608500147" xr:uid="{EAAD11AC-0609-8B43-A9F0-B29471909E0E}"/>
     <hyperlink ref="R42" r:id="rId3" xr:uid="{15CB8FB9-F1ED-604B-94FC-BBE82AA42BAC}"/>
   </hyperlinks>

--- a/Apple Offices - OSHA EPA Tracker v1.xlsx
+++ b/Apple Offices - OSHA EPA Tracker v1.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashleygjovik/Desktop/Apple mega-spreadsheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C77467F-2A19-0A46-B1E3-3F5F880E6927}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BDCB8B4-027B-1D43-AF74-F5949D697512}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="460" yWindow="1760" windowWidth="37440" windowHeight="18280" xr2:uid="{F0C7B789-DDD9-4896-9B82-39835285C9CF}"/>
+    <workbookView xWindow="14240" yWindow="4880" windowWidth="21100" windowHeight="18280" xr2:uid="{F0C7B789-DDD9-4896-9B82-39835285C9CF}"/>
   </bookViews>
   <sheets>
     <sheet name="Apple Buildings" sheetId="1" r:id="rId1"/>
     <sheet name="References" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Apple Buildings'!$A$1:$P$155</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Apple Buildings'!$A$1:$P$161</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1203" uniqueCount="677">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1221" uniqueCount="683">
   <si>
     <t>Address</t>
   </si>
@@ -592,10 +592,6 @@
   </si>
   <si>
     <t>APPLE-DE ANZA 2</t>
-  </si>
-  <si>
-    <t>10475 BANDLEY DR
-CUPERTINO CA 95014</t>
   </si>
   <si>
     <t>APPLE-MARIANI 3</t>
@@ -2338,9 +2334,6 @@
     <t>APPLE-VALLCO PARKWAY 1</t>
   </si>
   <si>
-    <t>19191 VALLCO PY</t>
-  </si>
-  <si>
     <t xml:space="preserve">
 CAR000188797</t>
   </si>
@@ -3414,6 +3407,30 @@
     <t>2/2022- No 0950643 (Accident)
 Health inspection on 6/7/22
 $150.00 fine</t>
+  </si>
+  <si>
+    <t>10431 N De Anza Blvd</t>
+  </si>
+  <si>
+    <t>19191 VALLCO Parkway</t>
+  </si>
+  <si>
+    <t>10627 Bandley Dr</t>
+  </si>
+  <si>
+    <t>10495 BANDLEY DR</t>
+  </si>
+  <si>
+    <t>10475 BANDLEY DR</t>
+  </si>
+  <si>
+    <t>10931 Pruneridge Ave</t>
+  </si>
+  <si>
+    <t>10450 Ridgeview Ct</t>
+  </si>
+  <si>
+    <t>10400 Ridgeview Ct</t>
   </si>
 </sst>
 </file>
@@ -3533,7 +3550,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -3598,9 +3615,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3916,7 +3937,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCA3BC1E-98BA-4EBC-B487-BB5A1B32BC1F}">
-  <dimension ref="A1:U156"/>
+  <dimension ref="A1:U162"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="95" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -3950,67 +3971,67 @@
   <sheetData>
     <row r="1" spans="1:21" s="7" customFormat="1" ht="112" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F1" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>300</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>301</v>
-      </c>
       <c r="H1" s="6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="M1" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="N1" s="4" t="s">
         <v>358</v>
       </c>
-      <c r="N1" s="4" t="s">
-        <v>359</v>
-      </c>
       <c r="O1" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="Q1" s="6" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="R1" s="4" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="S1" s="4" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="T1" s="4" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="U1" s="3" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="80" x14ac:dyDescent="0.2">
@@ -4018,16 +4039,16 @@
         <v>43</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>70</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F2" s="10">
         <v>10889488</v>
@@ -4045,13 +4066,13 @@
         <v>0</v>
       </c>
       <c r="Q2" s="9" t="s">
+        <v>499</v>
+      </c>
+      <c r="R2" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="S2" s="9" t="s">
         <v>501</v>
-      </c>
-      <c r="R2" s="9" t="s">
-        <v>502</v>
-      </c>
-      <c r="S2" s="9" t="s">
-        <v>503</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="176" x14ac:dyDescent="0.2">
@@ -4059,16 +4080,16 @@
         <v>54</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F3" s="10">
         <v>10889503</v>
@@ -4089,13 +4110,13 @@
         <v>56</v>
       </c>
       <c r="Q3" s="14" t="s">
+        <v>496</v>
+      </c>
+      <c r="R3" s="9" t="s">
         <v>498</v>
       </c>
-      <c r="R3" s="9" t="s">
-        <v>500</v>
-      </c>
       <c r="S3" s="11" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="116.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4103,16 +4124,16 @@
         <v>130</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F4" s="10">
         <v>10895731</v>
@@ -4130,27 +4151,27 @@
         <v>0</v>
       </c>
       <c r="Q4" s="14" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="R4" s="14" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="96" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="B5" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="B5" s="9" t="s">
-        <v>150</v>
-      </c>
       <c r="C5" s="9" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F5" s="10">
         <v>10616293</v>
@@ -4171,16 +4192,16 @@
         <v>0</v>
       </c>
       <c r="P5" s="11" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="Q5" s="14" t="s">
+        <v>502</v>
+      </c>
+      <c r="R5" s="9" t="s">
+        <v>503</v>
+      </c>
+      <c r="S5" s="11" t="s">
         <v>504</v>
-      </c>
-      <c r="R5" s="9" t="s">
-        <v>505</v>
-      </c>
-      <c r="S5" s="11" t="s">
-        <v>506</v>
       </c>
     </row>
     <row r="6" spans="1:21" ht="96" x14ac:dyDescent="0.2">
@@ -4188,16 +4209,16 @@
         <v>132</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F6" s="10">
         <v>10616581</v>
@@ -4215,13 +4236,13 @@
         <v>0</v>
       </c>
       <c r="Q6" s="14" t="s">
+        <v>502</v>
+      </c>
+      <c r="R6" s="9" t="s">
+        <v>503</v>
+      </c>
+      <c r="S6" s="11" t="s">
         <v>504</v>
-      </c>
-      <c r="R6" s="9" t="s">
-        <v>505</v>
-      </c>
-      <c r="S6" s="11" t="s">
-        <v>506</v>
       </c>
     </row>
     <row r="7" spans="1:21" ht="409.6" x14ac:dyDescent="0.2">
@@ -4229,14 +4250,14 @@
         <v>117</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D7" s="9"/>
       <c r="E7" s="13" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F7" s="10">
         <v>10807354</v>
@@ -4251,7 +4272,7 @@
         <v>43621</v>
       </c>
       <c r="K7" s="22" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="M7" s="9">
         <v>5</v>
@@ -4260,43 +4281,43 @@
         <v>15</v>
       </c>
       <c r="O7" s="9" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="P7" s="11" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="Q7" s="14" t="s">
+        <v>506</v>
+      </c>
+      <c r="R7" s="9" t="s">
+        <v>507</v>
+      </c>
+      <c r="S7" s="9" t="s">
         <v>508</v>
       </c>
-      <c r="R7" s="9" t="s">
-        <v>509</v>
-      </c>
-      <c r="S7" s="9" t="s">
-        <v>510</v>
-      </c>
       <c r="T7" s="9" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="8" spans="1:21" ht="216" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="16" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D8" s="9"/>
       <c r="E8" s="9" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F8" s="10">
         <v>10343605</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="H8" s="12">
         <v>41465</v>
@@ -4305,10 +4326,10 @@
         <v>41465</v>
       </c>
       <c r="J8" s="9" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="K8" s="22" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="M8" s="9">
         <v>13</v>
@@ -4317,13 +4338,13 @@
         <v>4</v>
       </c>
       <c r="O8" s="9" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="P8" s="11" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="T8" s="9" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="9" spans="1:21" ht="216" customHeight="1" x14ac:dyDescent="0.2">
@@ -4334,13 +4355,13 @@
         <v>41</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D9" s="9" t="s">
         <v>70</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F9" s="10">
         <v>10870288</v>
@@ -4358,7 +4379,7 @@
         <v>0</v>
       </c>
       <c r="Q9" s="14" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="10" spans="1:21" ht="216" customHeight="1" x14ac:dyDescent="0.2">
@@ -4369,13 +4390,13 @@
         <v>41</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D10" s="9" t="s">
         <v>70</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F10" s="10">
         <v>10870288</v>
@@ -4394,21 +4415,21 @@
         <v>0</v>
       </c>
       <c r="Q10" s="14" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="11" spans="1:21" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="K11" s="22"/>
       <c r="M11" s="9"/>
@@ -4416,16 +4437,16 @@
     </row>
     <row r="12" spans="1:21" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="K12" s="22"/>
       <c r="M12" s="9"/>
@@ -4436,16 +4457,16 @@
         <v>78</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D13" s="9" t="s">
         <v>70</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F13" s="10">
         <v>10343848</v>
@@ -4466,54 +4487,54 @@
         <v>3</v>
       </c>
       <c r="O13" s="9" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="P13" s="11" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="14" spans="1:21" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D14" s="9"/>
       <c r="M14" s="9"/>
       <c r="N14" s="9"/>
       <c r="Q14" s="14" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="R14" s="9" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="S14" s="9"/>
     </row>
-    <row r="15" spans="1:21" ht="97" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
         <v>141</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D15" s="9" t="s">
         <v>70</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F15" s="10">
         <v>10421464</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="H15" s="12">
         <v>41465</v>
@@ -4528,30 +4549,30 @@
         <v>0</v>
       </c>
       <c r="P15" s="11" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="16" spans="1:21" ht="97" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
+        <v>346</v>
+      </c>
+      <c r="B16" s="9" t="s">
         <v>347</v>
       </c>
-      <c r="B16" s="9" t="s">
-        <v>348</v>
-      </c>
       <c r="C16" s="9" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F16" s="10">
         <v>10344022</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H16" s="12">
         <v>41465</v>
@@ -4566,10 +4587,10 @@
         <v>2</v>
       </c>
       <c r="O16" s="9" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="P16" s="11" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="S16" s="9"/>
     </row>
@@ -4578,16 +4599,16 @@
         <v>80</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D17" s="9" t="s">
         <v>70</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F17" s="10">
         <v>10344025</v>
@@ -4608,10 +4629,10 @@
         <v>0</v>
       </c>
       <c r="P17" s="11" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="T17" s="9" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="18" spans="1:21" ht="97" customHeight="1" x14ac:dyDescent="0.2">
@@ -4619,16 +4640,16 @@
         <v>72</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D18" s="9" t="s">
         <v>70</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F18" s="10">
         <v>10740961</v>
@@ -4649,13 +4670,13 @@
         <v>0</v>
       </c>
       <c r="P18" s="11" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="Q18" s="14" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="R18" s="9" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
     <row r="19" spans="1:21" ht="97" customHeight="1" x14ac:dyDescent="0.2">
@@ -4663,16 +4684,16 @@
         <v>83</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D19" s="9" t="s">
         <v>70</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F19" s="10">
         <v>10808923</v>
@@ -4687,7 +4708,7 @@
         <v>43634</v>
       </c>
       <c r="K19" s="22" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="M19" s="9">
         <v>0</v>
@@ -4696,18 +4717,18 @@
         <v>0</v>
       </c>
       <c r="P19" s="11" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="20" spans="1:21" ht="97" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="8" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D20" s="9"/>
       <c r="H20" s="14"/>
@@ -4715,30 +4736,30 @@
       <c r="M20" s="9"/>
       <c r="N20" s="9"/>
       <c r="U20" s="9" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
     </row>
     <row r="21" spans="1:21" ht="97" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F21" s="10">
         <v>10421464</v>
       </c>
       <c r="G21" s="11" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="H21" s="12">
         <v>41465</v>
@@ -4753,1108 +4774,999 @@
         <v>0</v>
       </c>
       <c r="P21" s="11" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="R21" s="9" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="22" spans="1:21" ht="97" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="B22" s="9" t="s">
-        <v>453</v>
+        <v>105</v>
+      </c>
+      <c r="B22" s="29" t="s">
+        <v>682</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>255</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>393</v>
-      </c>
-      <c r="E22" s="9" t="s">
-        <v>251</v>
-      </c>
-      <c r="F22" s="10">
-        <v>10626694</v>
-      </c>
-      <c r="G22" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="H22" s="12">
-        <v>42114</v>
-      </c>
-      <c r="I22" s="12">
-        <v>42114</v>
-      </c>
-      <c r="M22" s="11">
-        <v>3</v>
-      </c>
-      <c r="N22" s="11">
-        <v>4</v>
-      </c>
-      <c r="O22" s="9" t="s">
-        <v>454</v>
-      </c>
-      <c r="P22" s="11" t="s">
-        <v>298</v>
-      </c>
-      <c r="Q22" s="14" t="s">
-        <v>518</v>
-      </c>
-      <c r="R22" s="9" t="s">
-        <v>519</v>
-      </c>
-      <c r="S22" s="11" t="s">
-        <v>520</v>
-      </c>
+        <v>254</v>
+      </c>
+      <c r="D22" s="9"/>
+      <c r="O22" s="9"/>
     </row>
     <row r="23" spans="1:21" ht="97" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="8" t="s">
-        <v>100</v>
+        <v>185</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>330</v>
+        <v>452</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>255</v>
-      </c>
-      <c r="D23" s="9"/>
+        <v>254</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>392</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="F23" s="10">
+        <v>10626694</v>
+      </c>
+      <c r="G23" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="H23" s="12">
+        <v>42114</v>
+      </c>
+      <c r="I23" s="12">
+        <v>42114</v>
+      </c>
+      <c r="M23" s="11">
+        <v>3</v>
+      </c>
+      <c r="N23" s="11">
+        <v>4</v>
+      </c>
+      <c r="O23" s="9" t="s">
+        <v>453</v>
+      </c>
+      <c r="P23" s="11" t="s">
+        <v>297</v>
+      </c>
       <c r="Q23" s="14" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="R23" s="9" t="s">
-        <v>515</v>
-      </c>
-      <c r="S23" s="9"/>
+        <v>517</v>
+      </c>
+      <c r="S23" s="11" t="s">
+        <v>518</v>
+      </c>
     </row>
     <row r="24" spans="1:21" ht="97" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="B24" s="11" t="s">
-        <v>478</v>
-      </c>
-      <c r="C24" s="15" t="s">
-        <v>255</v>
-      </c>
-      <c r="D24" s="15" t="s">
-        <v>479</v>
-      </c>
-      <c r="E24" s="10" t="s">
-        <v>251</v>
-      </c>
-      <c r="F24" s="10">
-        <v>10811437</v>
-      </c>
-      <c r="I24" s="12">
-        <v>43664</v>
-      </c>
-      <c r="M24" s="11">
-        <v>0</v>
-      </c>
-      <c r="N24" s="11">
-        <v>0</v>
-      </c>
-      <c r="P24" s="11" t="s">
-        <v>298</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>675</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="D24" s="9"/>
+      <c r="K24" s="22"/>
+      <c r="M24" s="9"/>
+      <c r="N24" s="9"/>
     </row>
     <row r="25" spans="1:21" ht="97" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="24" t="s">
-        <v>170</v>
+      <c r="A25" s="8" t="s">
+        <v>100</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>142</v>
+        <v>329</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>255</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>452</v>
-      </c>
-      <c r="E25" s="9" t="s">
-        <v>251</v>
-      </c>
-      <c r="F25" s="10">
-        <v>10344163</v>
-      </c>
-      <c r="G25" s="11" t="s">
-        <v>451</v>
-      </c>
-      <c r="H25" s="12">
-        <v>41465</v>
-      </c>
-      <c r="I25" s="12">
-        <v>41465</v>
-      </c>
-      <c r="J25" s="9" t="s">
-        <v>660</v>
-      </c>
-      <c r="M25" s="11">
-        <v>10</v>
-      </c>
-      <c r="N25" s="11">
-        <v>0</v>
-      </c>
-      <c r="P25" s="11" t="s">
-        <v>298</v>
-      </c>
+        <v>254</v>
+      </c>
+      <c r="D25" s="9"/>
+      <c r="Q25" s="14" t="s">
+        <v>512</v>
+      </c>
+      <c r="R25" s="9" t="s">
+        <v>513</v>
+      </c>
+      <c r="S25" s="9"/>
     </row>
     <row r="26" spans="1:21" ht="97" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="B26" s="9" t="s">
-        <v>329</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>255</v>
-      </c>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9" t="s">
-        <v>251</v>
-      </c>
-      <c r="K26" s="22" t="s">
-        <v>648</v>
-      </c>
-      <c r="Q26" s="17" t="s">
-        <v>516</v>
-      </c>
-      <c r="R26" s="11" t="s">
-        <v>517</v>
-      </c>
-      <c r="S26" s="17"/>
-    </row>
-    <row r="27" spans="1:21" ht="64" x14ac:dyDescent="0.2">
+        <v>191</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>476</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>254</v>
+      </c>
+      <c r="D26" s="15" t="s">
+        <v>477</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="F26" s="10">
+        <v>10811437</v>
+      </c>
+      <c r="I26" s="12">
+        <v>43664</v>
+      </c>
+      <c r="M26" s="11">
+        <v>0</v>
+      </c>
+      <c r="N26" s="11">
+        <v>0</v>
+      </c>
+      <c r="P26" s="11" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" ht="97" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="B27" s="29" t="s">
+        <v>681</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="D27" s="9"/>
+      <c r="O27" s="9"/>
+    </row>
+    <row r="28" spans="1:21" ht="97" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>679</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>451</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="F28" s="10">
+        <v>10344163</v>
+      </c>
+      <c r="G28" s="11" t="s">
+        <v>450</v>
+      </c>
+      <c r="H28" s="12">
+        <v>41465</v>
+      </c>
+      <c r="I28" s="12">
+        <v>41465</v>
+      </c>
+      <c r="J28" s="9" t="s">
+        <v>658</v>
+      </c>
+      <c r="M28" s="11">
+        <v>10</v>
+      </c>
+      <c r="N28" s="11">
+        <v>0</v>
+      </c>
+      <c r="P28" s="11" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" ht="97" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>678</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="D29" s="9"/>
+      <c r="J29" s="9"/>
+    </row>
+    <row r="30" spans="1:21" ht="97" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="28" t="s">
+        <v>184</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>328</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="K30" s="22" t="s">
+        <v>646</v>
+      </c>
+      <c r="Q30" s="17" t="s">
+        <v>514</v>
+      </c>
+      <c r="R30" s="11" t="s">
+        <v>515</v>
+      </c>
+      <c r="S30" s="17"/>
+    </row>
+    <row r="31" spans="1:21" ht="97" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="28" t="s">
         <v>90</v>
       </c>
-      <c r="B27" s="9" t="s">
-        <v>311</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>255</v>
-      </c>
-      <c r="D27" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="E27" s="13" t="s">
-        <v>251</v>
-      </c>
-      <c r="F27" s="10">
-        <v>10810135</v>
-      </c>
-      <c r="I27" s="14">
-        <v>43649</v>
-      </c>
-      <c r="M27" s="9">
-        <v>0</v>
-      </c>
-      <c r="N27" s="9">
-        <v>0</v>
-      </c>
-      <c r="P27" s="11" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="28" spans="1:21" ht="96" x14ac:dyDescent="0.2">
-      <c r="A28" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="B28" s="9" t="s">
-        <v>352</v>
-      </c>
-      <c r="C28" s="9" t="s">
-        <v>255</v>
-      </c>
-      <c r="D28" s="9"/>
-      <c r="J28"/>
-      <c r="K28" s="11"/>
-      <c r="M28" s="9"/>
-      <c r="N28" s="9"/>
-      <c r="Q28" s="14" t="s">
-        <v>514</v>
-      </c>
-      <c r="R28" s="9" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="29" spans="1:21" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A29" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="B29" s="9" t="s">
-        <v>324</v>
-      </c>
-      <c r="C29" s="9" t="s">
-        <v>255</v>
-      </c>
-      <c r="D29" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="F29" s="10">
-        <v>10768192</v>
-      </c>
-      <c r="I29" s="14">
-        <v>43298</v>
-      </c>
-      <c r="J29" s="9" t="s">
-        <v>636</v>
-      </c>
-      <c r="L29" s="28" t="s">
-        <v>674</v>
-      </c>
-      <c r="M29" s="11">
-        <v>3</v>
-      </c>
-      <c r="N29" s="11">
-        <v>0</v>
-      </c>
-      <c r="O29" s="9" t="s">
-        <v>675</v>
-      </c>
-      <c r="Q29" s="14" t="s">
-        <v>508</v>
-      </c>
-      <c r="R29" s="9" t="s">
-        <v>509</v>
-      </c>
-      <c r="S29" s="9" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="30" spans="1:21" ht="96" x14ac:dyDescent="0.2">
-      <c r="A30" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="B30" s="9" t="s">
+      <c r="B31" s="9" t="s">
         <v>310</v>
       </c>
-      <c r="C30" s="9" t="s">
-        <v>255</v>
-      </c>
-      <c r="D30" s="9" t="s">
-        <v>393</v>
-      </c>
-      <c r="E30" s="9" t="s">
-        <v>251</v>
-      </c>
-      <c r="F30" s="10">
-        <v>10344238</v>
-      </c>
-      <c r="I30" s="14">
-        <v>41465</v>
-      </c>
-      <c r="K30" s="22" t="s">
-        <v>633</v>
-      </c>
-      <c r="M30" s="9">
-        <v>0</v>
-      </c>
-      <c r="N30" s="9">
-        <v>0</v>
-      </c>
-      <c r="P30" s="11" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="31" spans="1:21" ht="64" x14ac:dyDescent="0.2">
-      <c r="A31" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="B31" s="9" t="s">
-        <v>256</v>
-      </c>
       <c r="C31" s="9" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D31" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="E31" s="9" t="s">
-        <v>251</v>
+      <c r="E31" s="13" t="s">
+        <v>250</v>
       </c>
       <c r="F31" s="10">
-        <v>10870324</v>
-      </c>
-      <c r="G31" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="H31" s="12">
-        <v>44302</v>
-      </c>
-      <c r="M31" s="11">
-        <v>0</v>
-      </c>
-      <c r="N31" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:21" ht="32" x14ac:dyDescent="0.2">
+        <v>10810135</v>
+      </c>
+      <c r="I31" s="14">
+        <v>43649</v>
+      </c>
+      <c r="M31" s="9">
+        <v>0</v>
+      </c>
+      <c r="N31" s="9">
+        <v>0</v>
+      </c>
+      <c r="P31" s="11" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" ht="97" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="8" t="s">
         <v>100</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D32" s="9"/>
+      <c r="K32" s="30"/>
       <c r="M32" s="9"/>
       <c r="N32" s="9"/>
-      <c r="Q32" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="S32" s="9"/>
-    </row>
-    <row r="33" spans="1:21" ht="48" x14ac:dyDescent="0.2">
-      <c r="A33" s="8" t="s">
-        <v>617</v>
-      </c>
-      <c r="B33" s="11" t="s">
-        <v>626</v>
+      <c r="Q32" s="14" t="s">
+        <v>512</v>
+      </c>
+      <c r="R32" s="9" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A33" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>323</v>
       </c>
       <c r="C33" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="F33" s="10">
+        <v>10768192</v>
+      </c>
+      <c r="I33" s="14">
+        <v>43298</v>
+      </c>
+      <c r="J33" s="9" t="s">
+        <v>634</v>
+      </c>
+      <c r="L33" s="31" t="s">
+        <v>672</v>
+      </c>
+      <c r="M33" s="11">
+        <v>3</v>
+      </c>
+      <c r="N33" s="11">
+        <v>0</v>
+      </c>
+      <c r="O33" s="9" t="s">
+        <v>673</v>
+      </c>
+      <c r="Q33" s="14" t="s">
+        <v>506</v>
+      </c>
+      <c r="R33" s="9" t="s">
+        <v>507</v>
+      </c>
+      <c r="S33" s="9" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" ht="96" x14ac:dyDescent="0.2">
+      <c r="A34" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>309</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>392</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="F34" s="10">
+        <v>10344238</v>
+      </c>
+      <c r="I34" s="14">
+        <v>41465</v>
+      </c>
+      <c r="J34" s="30"/>
+      <c r="K34" s="9" t="s">
+        <v>631</v>
+      </c>
+      <c r="M34" s="9">
+        <v>0</v>
+      </c>
+      <c r="N34" s="9">
+        <v>0</v>
+      </c>
+      <c r="P34" s="11" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" ht="64" x14ac:dyDescent="0.2">
+      <c r="A35" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B35" s="9" t="s">
         <v>255</v>
       </c>
-      <c r="D33" s="9" t="s">
-        <v>204</v>
-      </c>
-      <c r="J33" s="9" t="s">
-        <v>661</v>
-      </c>
-      <c r="M33" s="9"/>
-      <c r="N33" s="9"/>
-    </row>
-    <row r="34" spans="1:21" ht="16" x14ac:dyDescent="0.2">
-      <c r="A34" s="8" t="s">
-        <v>618</v>
-      </c>
-      <c r="B34" s="11" t="s">
-        <v>627</v>
-      </c>
-      <c r="C34" s="9" t="s">
-        <v>255</v>
-      </c>
-      <c r="D34" s="9" t="s">
-        <v>204</v>
-      </c>
-      <c r="K34" s="22"/>
-      <c r="M34" s="9"/>
-      <c r="N34" s="9"/>
-    </row>
-    <row r="35" spans="1:21" ht="16" x14ac:dyDescent="0.2">
-      <c r="A35" s="8" t="s">
-        <v>619</v>
-      </c>
-      <c r="B35" s="11" t="s">
-        <v>628</v>
-      </c>
       <c r="C35" s="9" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>204</v>
-      </c>
-      <c r="K35" s="22"/>
-      <c r="M35" s="9"/>
-      <c r="N35" s="9"/>
-    </row>
-    <row r="36" spans="1:21" ht="48" x14ac:dyDescent="0.2">
-      <c r="A36" s="23" t="s">
-        <v>620</v>
-      </c>
-      <c r="B36" s="11" t="s">
-        <v>629</v>
+        <v>70</v>
+      </c>
+      <c r="E35" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="F35" s="10">
+        <v>10870324</v>
+      </c>
+      <c r="G35" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="H35" s="12">
+        <v>44302</v>
+      </c>
+      <c r="L35" s="32"/>
+      <c r="M35" s="11">
+        <v>0</v>
+      </c>
+      <c r="N35" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+      <c r="A36" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>677</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>255</v>
-      </c>
-      <c r="D36" s="9" t="s">
-        <v>204</v>
-      </c>
-      <c r="K36" s="22" t="s">
-        <v>639</v>
-      </c>
-      <c r="M36" s="9"/>
-      <c r="N36" s="9"/>
-    </row>
-    <row r="37" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+        <v>254</v>
+      </c>
+      <c r="D36" s="9"/>
+      <c r="J36" s="9"/>
+    </row>
+    <row r="37" spans="1:21" ht="32" x14ac:dyDescent="0.2">
       <c r="A37" s="8" t="s">
-        <v>621</v>
-      </c>
-      <c r="B37" s="11" t="s">
-        <v>630</v>
+        <v>100</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>352</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>255</v>
-      </c>
-      <c r="D37" s="9" t="s">
-        <v>204</v>
-      </c>
-      <c r="K37" s="22"/>
+        <v>254</v>
+      </c>
+      <c r="D37" s="9"/>
       <c r="M37" s="9"/>
       <c r="N37" s="9"/>
-    </row>
-    <row r="38" spans="1:21" ht="224" x14ac:dyDescent="0.2">
+      <c r="Q37" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="S37" s="9"/>
+    </row>
+    <row r="38" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="B38" s="9" t="s">
-        <v>341</v>
+        <v>105</v>
+      </c>
+      <c r="B38" s="29" t="s">
+        <v>680</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>255</v>
-      </c>
-      <c r="D38" s="9" t="s">
-        <v>455</v>
-      </c>
-      <c r="E38" s="9" t="s">
-        <v>251</v>
-      </c>
-      <c r="F38" s="10">
-        <v>10348210</v>
-      </c>
-      <c r="G38" s="11" t="s">
-        <v>456</v>
-      </c>
-      <c r="I38" s="12">
-        <v>41465</v>
-      </c>
-      <c r="M38" s="11">
-        <v>2</v>
-      </c>
-      <c r="N38" s="11">
-        <v>0</v>
-      </c>
-      <c r="O38" s="9" t="s">
-        <v>670</v>
-      </c>
-      <c r="P38" s="11" t="s">
-        <v>298</v>
-      </c>
-      <c r="Q38" s="14" t="s">
-        <v>521</v>
-      </c>
-      <c r="R38" s="9" t="s">
-        <v>522</v>
-      </c>
+        <v>254</v>
+      </c>
+      <c r="D38" s="9"/>
+      <c r="O38" s="9"/>
     </row>
     <row r="39" spans="1:21" ht="48" x14ac:dyDescent="0.2">
       <c r="A39" s="8" t="s">
-        <v>105</v>
+        <v>615</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>656</v>
-      </c>
-      <c r="C39" s="11" t="s">
-        <v>255</v>
+        <v>624</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>203</v>
       </c>
       <c r="J39" s="9" t="s">
-        <v>658</v>
-      </c>
-      <c r="K39" s="22" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="40" spans="1:21" ht="64" x14ac:dyDescent="0.2">
+        <v>659</v>
+      </c>
+      <c r="M39" s="9"/>
+      <c r="N39" s="9"/>
+    </row>
+    <row r="40" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" s="8" t="s">
-        <v>461</v>
-      </c>
-      <c r="B40" s="9" t="s">
-        <v>462</v>
+        <v>616</v>
+      </c>
+      <c r="B40" s="11" t="s">
+        <v>625</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="E40" s="9" t="s">
-        <v>251</v>
-      </c>
-      <c r="F40" s="10">
-        <v>10348375</v>
-      </c>
-      <c r="G40" s="9" t="s">
-        <v>463</v>
-      </c>
-      <c r="I40" s="12">
+        <v>203</v>
+      </c>
+      <c r="K40" s="22"/>
+      <c r="M40" s="9"/>
+      <c r="N40" s="9"/>
+    </row>
+    <row r="41" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+      <c r="A41" s="8" t="s">
+        <v>617</v>
+      </c>
+      <c r="B41" s="11" t="s">
+        <v>626</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="K41" s="22"/>
+      <c r="M41" s="9"/>
+      <c r="N41" s="9"/>
+    </row>
+    <row r="42" spans="1:21" ht="48" x14ac:dyDescent="0.2">
+      <c r="A42" s="23" t="s">
+        <v>618</v>
+      </c>
+      <c r="B42" s="11" t="s">
+        <v>627</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="D42" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="K42" s="22" t="s">
+        <v>637</v>
+      </c>
+      <c r="M42" s="9"/>
+      <c r="N42" s="9"/>
+    </row>
+    <row r="43" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+      <c r="A43" s="8" t="s">
+        <v>619</v>
+      </c>
+      <c r="B43" s="11" t="s">
+        <v>628</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="D43" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="K43" s="22"/>
+      <c r="M43" s="9"/>
+      <c r="N43" s="9"/>
+    </row>
+    <row r="44" spans="1:21" ht="224" x14ac:dyDescent="0.2">
+      <c r="A44" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="B44" s="9" t="s">
+        <v>340</v>
+      </c>
+      <c r="C44" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="D44" s="9" t="s">
+        <v>454</v>
+      </c>
+      <c r="E44" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="F44" s="10">
+        <v>10348210</v>
+      </c>
+      <c r="G44" s="11" t="s">
+        <v>455</v>
+      </c>
+      <c r="I44" s="12">
         <v>41465</v>
       </c>
-      <c r="K40" s="22" t="s">
-        <v>653</v>
-      </c>
-      <c r="M40" s="11">
-        <v>10</v>
-      </c>
-      <c r="N40" s="11">
-        <v>0</v>
-      </c>
-      <c r="P40" s="11" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="41" spans="1:21" ht="64" x14ac:dyDescent="0.2">
-      <c r="A41" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="B41" s="9" t="s">
-        <v>179</v>
-      </c>
-      <c r="C41" s="9" t="s">
-        <v>255</v>
-      </c>
-      <c r="D41" s="9" t="s">
-        <v>457</v>
-      </c>
-      <c r="E41" s="9" t="s">
-        <v>251</v>
-      </c>
-      <c r="F41" s="10">
-        <v>10656775</v>
-      </c>
-      <c r="I41" s="12">
-        <v>42395</v>
-      </c>
-      <c r="M41" s="11">
-        <v>3</v>
-      </c>
-      <c r="N41" s="11">
-        <v>0</v>
-      </c>
-      <c r="P41" s="11" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="42" spans="1:21" ht="93" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="B42" s="9" t="s">
-        <v>328</v>
-      </c>
-      <c r="C42" s="9" t="s">
-        <v>255</v>
-      </c>
-      <c r="D42" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="E42" s="9" t="s">
-        <v>251</v>
-      </c>
-      <c r="F42" s="10">
-        <v>10348441</v>
-      </c>
-      <c r="G42" s="11" t="s">
-        <v>458</v>
-      </c>
-      <c r="H42" s="12">
-        <v>41465</v>
-      </c>
-      <c r="I42" s="12">
-        <v>41465</v>
-      </c>
-      <c r="K42" s="22" t="s">
-        <v>638</v>
-      </c>
-      <c r="M42" s="11">
-        <v>12</v>
-      </c>
-      <c r="N42" s="11">
-        <v>9</v>
-      </c>
-      <c r="O42" s="9" t="s">
-        <v>459</v>
-      </c>
-      <c r="P42" s="11" t="s">
-        <v>298</v>
-      </c>
-      <c r="R42" s="17" t="s">
-        <v>460</v>
-      </c>
-      <c r="S42" s="17"/>
-      <c r="T42" s="9" t="s">
-        <v>425</v>
-      </c>
-      <c r="U42" s="9" t="s">
+      <c r="M44" s="11">
+        <v>2</v>
+      </c>
+      <c r="N44" s="11">
+        <v>0</v>
+      </c>
+      <c r="O44" s="9" t="s">
         <v>668</v>
       </c>
-    </row>
-    <row r="43" spans="1:21" ht="64" x14ac:dyDescent="0.2">
-      <c r="A43" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="B43" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="C43" s="9" t="s">
-        <v>255</v>
-      </c>
-      <c r="D43" s="9" t="s">
-        <v>457</v>
-      </c>
-      <c r="E43" s="9" t="s">
-        <v>251</v>
-      </c>
-      <c r="F43" s="10">
-        <v>10687168</v>
-      </c>
-      <c r="G43" s="11" t="s">
-        <v>464</v>
-      </c>
-      <c r="H43" s="12">
-        <v>42564</v>
-      </c>
-      <c r="I43" s="12">
-        <v>42564</v>
-      </c>
-      <c r="M43" s="11">
-        <v>1</v>
-      </c>
-      <c r="N43" s="11">
-        <v>0</v>
-      </c>
-      <c r="P43" s="11" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="44" spans="1:21" ht="64" x14ac:dyDescent="0.2">
-      <c r="A44" s="16" t="s">
-        <v>125</v>
-      </c>
-      <c r="B44" s="9" t="s">
-        <v>334</v>
-      </c>
-      <c r="C44" s="9" t="s">
-        <v>255</v>
-      </c>
-      <c r="D44" s="9"/>
-      <c r="E44" s="9" t="s">
-        <v>251</v>
-      </c>
-      <c r="F44" s="10">
-        <v>10768171</v>
-      </c>
-      <c r="I44" s="14">
-        <v>43298</v>
-      </c>
-      <c r="M44" s="9">
-        <v>2</v>
-      </c>
-      <c r="N44" s="9">
-        <v>0</v>
-      </c>
       <c r="P44" s="11" t="s">
-        <v>298</v>
+        <v>297</v>
+      </c>
+      <c r="Q44" s="14" t="s">
+        <v>519</v>
+      </c>
+      <c r="R44" s="9" t="s">
+        <v>520</v>
       </c>
     </row>
     <row r="45" spans="1:21" ht="48" x14ac:dyDescent="0.2">
       <c r="A45" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="B45" s="9" t="s">
-        <v>354</v>
-      </c>
-      <c r="C45" s="9" t="s">
-        <v>255</v>
-      </c>
-      <c r="D45" s="9"/>
+        <v>105</v>
+      </c>
+      <c r="B45" s="11" t="s">
+        <v>654</v>
+      </c>
+      <c r="C45" s="11" t="s">
+        <v>254</v>
+      </c>
+      <c r="J45" s="9" t="s">
+        <v>656</v>
+      </c>
       <c r="K45" s="22" t="s">
-        <v>647</v>
-      </c>
-      <c r="M45" s="9"/>
-      <c r="N45" s="9"/>
-      <c r="R45" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="S45" s="9"/>
+        <v>655</v>
+      </c>
     </row>
     <row r="46" spans="1:21" ht="64" x14ac:dyDescent="0.2">
       <c r="A46" s="8" t="s">
-        <v>602</v>
+        <v>460</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>607</v>
+        <v>676</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D46" s="9" t="s">
-        <v>204</v>
+        <v>70</v>
       </c>
       <c r="E46" s="9" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F46" s="10">
-        <v>10348648</v>
+        <v>10348375</v>
+      </c>
+      <c r="G46" s="9" t="s">
+        <v>461</v>
       </c>
       <c r="I46" s="12">
         <v>41465</v>
       </c>
       <c r="K46" s="22" t="s">
-        <v>640</v>
-      </c>
-      <c r="M46" s="9">
-        <v>0</v>
-      </c>
-      <c r="N46" s="9">
+        <v>651</v>
+      </c>
+      <c r="M46" s="11">
+        <v>10</v>
+      </c>
+      <c r="N46" s="11">
         <v>0</v>
       </c>
       <c r="P46" s="11" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="47" spans="1:21" ht="64" x14ac:dyDescent="0.2">
-      <c r="A47" s="24" t="s">
-        <v>85</v>
-      </c>
-      <c r="B47" s="26" t="s">
-        <v>309</v>
+      <c r="A47" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="B47" s="9" t="s">
+        <v>178</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>70</v>
+        <v>456</v>
       </c>
       <c r="E47" s="9" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F47" s="10">
-        <v>10348648</v>
-      </c>
-      <c r="I47" s="14">
-        <v>41465</v>
-      </c>
-      <c r="M47" s="9">
-        <v>0</v>
-      </c>
-      <c r="N47" s="9">
+        <v>10656775</v>
+      </c>
+      <c r="I47" s="12">
+        <v>42395</v>
+      </c>
+      <c r="M47" s="11">
+        <v>3</v>
+      </c>
+      <c r="N47" s="11">
         <v>0</v>
       </c>
       <c r="P47" s="11" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="48" spans="1:21" ht="64" x14ac:dyDescent="0.2">
-      <c r="A48" s="24" t="s">
-        <v>84</v>
-      </c>
-      <c r="B48" s="26" t="s">
-        <v>308</v>
+        <v>297</v>
+      </c>
+    </row>
+    <row r="48" spans="1:21" ht="93" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="B48" s="9" t="s">
+        <v>327</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D48" s="9" t="s">
         <v>70</v>
       </c>
       <c r="E48" s="9" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F48" s="10">
+        <v>10348441</v>
+      </c>
+      <c r="G48" s="11" t="s">
+        <v>457</v>
+      </c>
+      <c r="H48" s="12">
+        <v>41465</v>
+      </c>
+      <c r="I48" s="12">
+        <v>41465</v>
+      </c>
+      <c r="K48" s="22" t="s">
+        <v>636</v>
+      </c>
+      <c r="M48" s="11">
+        <v>12</v>
+      </c>
+      <c r="N48" s="11">
+        <v>9</v>
+      </c>
+      <c r="O48" s="9" t="s">
+        <v>458</v>
+      </c>
+      <c r="P48" s="11" t="s">
+        <v>297</v>
+      </c>
+      <c r="R48" s="17" t="s">
+        <v>459</v>
+      </c>
+      <c r="S48" s="17"/>
+      <c r="T48" s="9" t="s">
+        <v>424</v>
+      </c>
+      <c r="U48" s="9" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="49" spans="1:21" ht="64" x14ac:dyDescent="0.2">
+      <c r="A49" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="B49" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="C49" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="D49" s="9" t="s">
+        <v>456</v>
+      </c>
+      <c r="E49" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="F49" s="10">
+        <v>10687168</v>
+      </c>
+      <c r="G49" s="11" t="s">
+        <v>462</v>
+      </c>
+      <c r="H49" s="12">
+        <v>42564</v>
+      </c>
+      <c r="I49" s="12">
+        <v>42564</v>
+      </c>
+      <c r="M49" s="11">
+        <v>1</v>
+      </c>
+      <c r="N49" s="11">
+        <v>0</v>
+      </c>
+      <c r="P49" s="11" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="50" spans="1:21" ht="64" x14ac:dyDescent="0.2">
+      <c r="A50" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="B50" s="9" t="s">
+        <v>333</v>
+      </c>
+      <c r="C50" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="D50" s="9"/>
+      <c r="E50" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="F50" s="10">
+        <v>10768171</v>
+      </c>
+      <c r="I50" s="14">
+        <v>43298</v>
+      </c>
+      <c r="M50" s="9">
+        <v>2</v>
+      </c>
+      <c r="N50" s="9">
+        <v>0</v>
+      </c>
+      <c r="P50" s="11" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="51" spans="1:21" ht="48" x14ac:dyDescent="0.2">
+      <c r="A51" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="B51" s="9" t="s">
+        <v>353</v>
+      </c>
+      <c r="C51" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="D51" s="9"/>
+      <c r="K51" s="22" t="s">
+        <v>645</v>
+      </c>
+      <c r="M51" s="9"/>
+      <c r="N51" s="9"/>
+      <c r="R51" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="S51" s="9"/>
+    </row>
+    <row r="52" spans="1:21" ht="64" x14ac:dyDescent="0.2">
+      <c r="A52" s="8" t="s">
+        <v>600</v>
+      </c>
+      <c r="B52" s="9" t="s">
+        <v>605</v>
+      </c>
+      <c r="C52" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="D52" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="E52" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="F52" s="10">
+        <v>10348648</v>
+      </c>
+      <c r="I52" s="12">
+        <v>41465</v>
+      </c>
+      <c r="K52" s="22" t="s">
+        <v>638</v>
+      </c>
+      <c r="M52" s="9">
+        <v>0</v>
+      </c>
+      <c r="N52" s="9">
+        <v>0</v>
+      </c>
+      <c r="P52" s="11" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="53" spans="1:21" ht="64" x14ac:dyDescent="0.2">
+      <c r="A53" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="B53" s="26" t="s">
+        <v>308</v>
+      </c>
+      <c r="C53" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="D53" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="E53" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="F53" s="10">
+        <v>10348648</v>
+      </c>
+      <c r="I53" s="14">
+        <v>41465</v>
+      </c>
+      <c r="M53" s="9">
+        <v>0</v>
+      </c>
+      <c r="N53" s="9">
+        <v>0</v>
+      </c>
+      <c r="P53" s="11" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="54" spans="1:21" ht="64" x14ac:dyDescent="0.2">
+      <c r="A54" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="B54" s="26" t="s">
+        <v>307</v>
+      </c>
+      <c r="C54" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="D54" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="E54" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="F54" s="10">
         <v>10422223</v>
       </c>
-      <c r="I48" s="14">
+      <c r="I54" s="14">
         <v>41465</v>
       </c>
-      <c r="M48" s="9">
-        <v>0</v>
-      </c>
-      <c r="N48" s="9">
-        <v>0</v>
-      </c>
-      <c r="P48" s="11" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="49" spans="1:21" ht="64" x14ac:dyDescent="0.2">
-      <c r="A49" s="24" t="s">
+      <c r="M54" s="9">
+        <v>0</v>
+      </c>
+      <c r="N54" s="9">
+        <v>0</v>
+      </c>
+      <c r="P54" s="11" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="55" spans="1:21" ht="64" x14ac:dyDescent="0.2">
+      <c r="A55" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="B49" s="26" t="s">
-        <v>303</v>
-      </c>
-      <c r="C49" s="9" t="s">
-        <v>255</v>
-      </c>
-      <c r="D49" s="9" t="s">
+      <c r="B55" s="26" t="s">
+        <v>302</v>
+      </c>
+      <c r="C55" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="D55" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="E49" s="9" t="s">
-        <v>251</v>
-      </c>
-      <c r="F49" s="10">
+      <c r="E55" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="F55" s="10">
         <v>10348843</v>
       </c>
-      <c r="I49" s="14">
+      <c r="I55" s="14">
         <v>41465</v>
       </c>
-      <c r="M49" s="9">
+      <c r="M55" s="9">
         <v>1</v>
       </c>
-      <c r="N49" s="9">
-        <v>0</v>
-      </c>
-      <c r="P49" s="11" t="s">
-        <v>298</v>
-      </c>
-      <c r="U49" s="11" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="50" spans="1:21" ht="64" x14ac:dyDescent="0.2">
-      <c r="A50" s="24" t="s">
-        <v>143</v>
-      </c>
-      <c r="B50" s="26" t="s">
-        <v>344</v>
-      </c>
-      <c r="C50" s="9" t="s">
-        <v>255</v>
-      </c>
-      <c r="D50" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="E50" s="9" t="s">
-        <v>251</v>
-      </c>
-      <c r="F50" s="10">
-        <v>10348897</v>
-      </c>
-      <c r="G50" s="11" t="s">
-        <v>465</v>
-      </c>
-      <c r="I50" s="12">
-        <v>41465</v>
-      </c>
-      <c r="K50" s="22" t="s">
-        <v>651</v>
-      </c>
-      <c r="M50" s="11">
-        <v>2</v>
-      </c>
-      <c r="N50" s="11">
-        <v>0</v>
-      </c>
-      <c r="P50" s="11" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="51" spans="1:21" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A51" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="B51" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="C51" s="9" t="s">
-        <v>255</v>
-      </c>
-      <c r="D51" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="E51" s="9" t="s">
-        <v>251</v>
-      </c>
-      <c r="F51" s="10">
-        <v>10348993</v>
-      </c>
-      <c r="G51" s="11" t="s">
-        <v>466</v>
-      </c>
-      <c r="H51" s="12">
-        <v>41465</v>
-      </c>
-      <c r="I51" s="12">
-        <v>41465</v>
-      </c>
-      <c r="M51" s="11">
-        <v>3</v>
-      </c>
-      <c r="N51" s="11">
-        <v>3</v>
-      </c>
-      <c r="O51" s="9" t="s">
-        <v>467</v>
-      </c>
-      <c r="P51" s="11" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="52" spans="1:21" ht="32" x14ac:dyDescent="0.2">
-      <c r="A52" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="B52" s="11" t="s">
-        <v>206</v>
-      </c>
-      <c r="C52" s="9" t="s">
-        <v>255</v>
-      </c>
-      <c r="D52" s="9" t="s">
-        <v>446</v>
-      </c>
-      <c r="R52" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="S52" s="9"/>
-    </row>
-    <row r="53" spans="1:21" ht="64" x14ac:dyDescent="0.2">
-      <c r="A53" s="8" t="s">
-        <v>470</v>
-      </c>
-      <c r="B53" s="9" t="s">
+      <c r="N55" s="9">
+        <v>0</v>
+      </c>
+      <c r="P55" s="11" t="s">
+        <v>297</v>
+      </c>
+      <c r="U55" s="11" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="56" spans="1:21" ht="64" x14ac:dyDescent="0.2">
+      <c r="A56" s="24" t="s">
+        <v>142</v>
+      </c>
+      <c r="B56" s="26" t="s">
         <v>343</v>
       </c>
-      <c r="C53" s="9" t="s">
-        <v>255</v>
-      </c>
-      <c r="D53" s="9" t="s">
-        <v>468</v>
-      </c>
-      <c r="E53" s="9" t="s">
-        <v>251</v>
-      </c>
-      <c r="F53" s="10">
-        <v>10421452</v>
-      </c>
-      <c r="I53" s="12">
-        <v>41465</v>
-      </c>
-      <c r="M53" s="11">
-        <v>0</v>
-      </c>
-      <c r="N53" s="11">
-        <v>0</v>
-      </c>
-      <c r="P53" s="11" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="54" spans="1:21" ht="64" x14ac:dyDescent="0.2">
-      <c r="A54" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="B54" s="11" t="s">
-        <v>472</v>
-      </c>
-      <c r="C54" s="11" t="s">
-        <v>255</v>
-      </c>
-      <c r="D54" s="11" t="s">
-        <v>474</v>
-      </c>
-      <c r="E54" s="10" t="s">
-        <v>251</v>
-      </c>
-      <c r="F54" s="10">
-        <v>10349041</v>
-      </c>
-      <c r="G54" s="11" t="s">
-        <v>473</v>
-      </c>
-      <c r="H54" s="12">
-        <v>41465</v>
-      </c>
-      <c r="M54" s="11">
-        <v>3</v>
-      </c>
-      <c r="N54" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:21" ht="64" x14ac:dyDescent="0.2">
-      <c r="A55" s="8" t="s">
-        <v>471</v>
-      </c>
-      <c r="B55" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="C55" s="9" t="s">
-        <v>255</v>
-      </c>
-      <c r="D55" s="9" t="s">
-        <v>468</v>
-      </c>
-      <c r="E55" s="9" t="s">
-        <v>251</v>
-      </c>
-      <c r="F55" s="10">
-        <v>10421452</v>
-      </c>
-      <c r="I55" s="12">
-        <v>41465</v>
-      </c>
-      <c r="M55" s="11">
-        <v>0</v>
-      </c>
-      <c r="N55" s="11">
-        <v>0</v>
-      </c>
-      <c r="P55" s="11" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="56" spans="1:21" ht="64" x14ac:dyDescent="0.2">
-      <c r="A56" s="8" t="s">
-        <v>469</v>
-      </c>
-      <c r="B56" s="9" t="s">
-        <v>366</v>
-      </c>
       <c r="C56" s="9" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D56" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="E56" s="13" t="s">
-        <v>251</v>
+      <c r="E56" s="9" t="s">
+        <v>250</v>
       </c>
       <c r="F56" s="10">
-        <v>10501765</v>
+        <v>10348897</v>
       </c>
       <c r="G56" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="H56" s="12">
-        <v>41771</v>
+        <v>463</v>
       </c>
       <c r="I56" s="12">
-        <v>41771</v>
-      </c>
-      <c r="M56" s="9">
-        <v>0</v>
-      </c>
-      <c r="N56" s="9">
+        <v>41465</v>
+      </c>
+      <c r="K56" s="22" t="s">
+        <v>649</v>
+      </c>
+      <c r="M56" s="11">
+        <v>2</v>
+      </c>
+      <c r="N56" s="11">
         <v>0</v>
       </c>
       <c r="P56" s="11" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="57" spans="1:21" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A57" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="B57" s="11" t="s">
-        <v>476</v>
-      </c>
-      <c r="C57" s="11" t="s">
-        <v>255</v>
+        <v>175</v>
+      </c>
+      <c r="B57" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="C57" s="9" t="s">
+        <v>254</v>
       </c>
       <c r="D57" s="9" t="s">
-        <v>475</v>
-      </c>
-      <c r="E57" s="10" t="s">
-        <v>251</v>
+        <v>70</v>
+      </c>
+      <c r="E57" s="9" t="s">
+        <v>250</v>
       </c>
       <c r="F57" s="10">
-        <v>10349080</v>
+        <v>10348993</v>
+      </c>
+      <c r="G57" s="11" t="s">
+        <v>464</v>
       </c>
       <c r="H57" s="12">
         <v>41465</v>
@@ -5863,744 +5775,716 @@
         <v>41465</v>
       </c>
       <c r="M57" s="11">
+        <v>3</v>
+      </c>
+      <c r="N57" s="11">
+        <v>3</v>
+      </c>
+      <c r="O57" s="9" t="s">
+        <v>465</v>
+      </c>
+      <c r="P57" s="11" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="58" spans="1:21" ht="32" x14ac:dyDescent="0.2">
+      <c r="A58" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="B58" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="C58" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="D58" s="9" t="s">
+        <v>445</v>
+      </c>
+      <c r="R58" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="S58" s="9"/>
+    </row>
+    <row r="59" spans="1:21" ht="64" x14ac:dyDescent="0.2">
+      <c r="A59" s="8" t="s">
+        <v>468</v>
+      </c>
+      <c r="B59" s="9" t="s">
+        <v>342</v>
+      </c>
+      <c r="C59" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="D59" s="9" t="s">
+        <v>466</v>
+      </c>
+      <c r="E59" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="F59" s="10">
+        <v>10421452</v>
+      </c>
+      <c r="I59" s="12">
+        <v>41465</v>
+      </c>
+      <c r="M59" s="11">
+        <v>0</v>
+      </c>
+      <c r="N59" s="11">
+        <v>0</v>
+      </c>
+      <c r="P59" s="11" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="60" spans="1:21" ht="64" x14ac:dyDescent="0.2">
+      <c r="A60" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="B60" s="11" t="s">
+        <v>470</v>
+      </c>
+      <c r="C60" s="11" t="s">
+        <v>254</v>
+      </c>
+      <c r="D60" s="11" t="s">
+        <v>472</v>
+      </c>
+      <c r="E60" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="F60" s="10">
+        <v>10349041</v>
+      </c>
+      <c r="G60" s="11" t="s">
+        <v>471</v>
+      </c>
+      <c r="H60" s="12">
+        <v>41465</v>
+      </c>
+      <c r="M60" s="11">
+        <v>3</v>
+      </c>
+      <c r="N60" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:21" ht="64" x14ac:dyDescent="0.2">
+      <c r="A61" s="8" t="s">
+        <v>469</v>
+      </c>
+      <c r="B61" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="C61" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="D61" s="9" t="s">
+        <v>466</v>
+      </c>
+      <c r="E61" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="F61" s="10">
+        <v>10421452</v>
+      </c>
+      <c r="I61" s="12">
+        <v>41465</v>
+      </c>
+      <c r="M61" s="11">
+        <v>0</v>
+      </c>
+      <c r="N61" s="11">
+        <v>0</v>
+      </c>
+      <c r="P61" s="11" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="62" spans="1:21" ht="64" x14ac:dyDescent="0.2">
+      <c r="A62" s="8" t="s">
+        <v>467</v>
+      </c>
+      <c r="B62" s="9" t="s">
+        <v>365</v>
+      </c>
+      <c r="C62" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="D62" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="E62" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="F62" s="10">
+        <v>10501765</v>
+      </c>
+      <c r="G62" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="H62" s="12">
+        <v>41771</v>
+      </c>
+      <c r="I62" s="12">
+        <v>41771</v>
+      </c>
+      <c r="M62" s="9">
+        <v>0</v>
+      </c>
+      <c r="N62" s="9">
+        <v>0</v>
+      </c>
+      <c r="P62" s="11" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="63" spans="1:21" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A63" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="B63" s="11" t="s">
+        <v>474</v>
+      </c>
+      <c r="C63" s="11" t="s">
+        <v>254</v>
+      </c>
+      <c r="D63" s="9" t="s">
+        <v>473</v>
+      </c>
+      <c r="E63" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="F63" s="10">
+        <v>10349080</v>
+      </c>
+      <c r="H63" s="12">
+        <v>41465</v>
+      </c>
+      <c r="I63" s="12">
+        <v>41465</v>
+      </c>
+      <c r="M63" s="11">
         <v>10</v>
       </c>
-      <c r="N57" s="11">
+      <c r="N63" s="11">
         <v>6</v>
       </c>
-      <c r="O57" s="9" t="s">
-        <v>477</v>
-      </c>
-      <c r="P57" s="11" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="58" spans="1:21" ht="16" x14ac:dyDescent="0.2">
-      <c r="A58" s="16" t="s">
-        <v>204</v>
-      </c>
-      <c r="B58" s="9" t="s">
-        <v>642</v>
-      </c>
-      <c r="C58" s="9" t="s">
-        <v>255</v>
-      </c>
-      <c r="D58" s="9"/>
-      <c r="M58" s="9"/>
-      <c r="N58" s="9"/>
-      <c r="S58" s="9"/>
-    </row>
-    <row r="59" spans="1:21" ht="16" x14ac:dyDescent="0.2">
-      <c r="A59" s="8" t="s">
-        <v>603</v>
-      </c>
-      <c r="B59" s="9" t="s">
-        <v>609</v>
-      </c>
-      <c r="C59" s="9" t="s">
-        <v>255</v>
-      </c>
-      <c r="D59" s="9" t="s">
-        <v>204</v>
-      </c>
-      <c r="K59" s="22"/>
-      <c r="M59" s="9"/>
-      <c r="N59" s="9"/>
-    </row>
-    <row r="60" spans="1:21" ht="320" x14ac:dyDescent="0.2">
-      <c r="A60" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="B60" s="9" t="s">
-        <v>345</v>
-      </c>
-      <c r="C60" s="9" t="s">
-        <v>255</v>
-      </c>
-      <c r="D60" s="9" t="s">
-        <v>204</v>
-      </c>
-      <c r="E60" s="10" t="s">
-        <v>251</v>
-      </c>
-      <c r="F60" s="10">
-        <v>10761124</v>
-      </c>
-      <c r="G60" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="H60" s="14">
-        <v>43200</v>
-      </c>
-      <c r="I60" s="14">
-        <v>43200</v>
-      </c>
-      <c r="M60" s="9">
-        <v>4</v>
-      </c>
-      <c r="N60" s="9">
-        <v>1</v>
-      </c>
-      <c r="O60" s="9" t="s">
-        <v>235</v>
-      </c>
-      <c r="P60" s="11" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="61" spans="1:21" ht="16" x14ac:dyDescent="0.2">
-      <c r="A61" s="27" t="s">
-        <v>204</v>
-      </c>
-      <c r="B61" s="15" t="s">
-        <v>643</v>
-      </c>
-      <c r="C61" s="9" t="s">
-        <v>255</v>
-      </c>
-      <c r="D61" s="9"/>
-      <c r="M61" s="9"/>
-      <c r="N61" s="9"/>
-      <c r="S61" s="9"/>
-    </row>
-    <row r="62" spans="1:21" ht="16" x14ac:dyDescent="0.2">
-      <c r="A62" s="8" t="s">
-        <v>604</v>
-      </c>
-      <c r="B62" s="9" t="s">
-        <v>610</v>
-      </c>
-      <c r="C62" s="9" t="s">
-        <v>255</v>
-      </c>
-      <c r="D62" s="9" t="s">
-        <v>204</v>
-      </c>
-      <c r="K62" s="22"/>
-      <c r="M62" s="9"/>
-      <c r="N62" s="9"/>
-    </row>
-    <row r="63" spans="1:21" ht="32" x14ac:dyDescent="0.2">
-      <c r="A63" s="27" t="s">
-        <v>204</v>
-      </c>
-      <c r="B63" s="15" t="s">
-        <v>644</v>
-      </c>
-      <c r="C63" s="9" t="s">
-        <v>255</v>
-      </c>
-      <c r="D63" s="9"/>
-      <c r="K63" s="22" t="s">
-        <v>650</v>
-      </c>
-      <c r="M63" s="9"/>
-      <c r="N63" s="9"/>
-      <c r="S63" s="9"/>
+      <c r="O63" s="9" t="s">
+        <v>475</v>
+      </c>
+      <c r="P63" s="11" t="s">
+        <v>297</v>
+      </c>
     </row>
     <row r="64" spans="1:21" ht="16" x14ac:dyDescent="0.2">
-      <c r="A64" s="8" t="s">
-        <v>605</v>
+      <c r="A64" s="16" t="s">
+        <v>203</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>611</v>
+        <v>640</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>255</v>
-      </c>
-      <c r="D64" s="9" t="s">
-        <v>204</v>
-      </c>
-      <c r="K64" s="22"/>
+        <v>254</v>
+      </c>
+      <c r="D64" s="9"/>
       <c r="M64" s="9"/>
       <c r="N64" s="9"/>
-    </row>
-    <row r="65" spans="1:20" ht="152" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="16" t="s">
-        <v>635</v>
+      <c r="S64" s="9"/>
+    </row>
+    <row r="65" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+      <c r="A65" s="8" t="s">
+        <v>601</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>634</v>
+        <v>607</v>
       </c>
       <c r="C65" s="9" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D65" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="I65" s="14"/>
-      <c r="S65" s="9"/>
-    </row>
-    <row r="66" spans="1:20" ht="16" x14ac:dyDescent="0.2">
-      <c r="A66" s="27" t="s">
-        <v>204</v>
-      </c>
-      <c r="B66" s="15" t="s">
-        <v>645</v>
+        <v>203</v>
+      </c>
+      <c r="K65" s="22"/>
+      <c r="M65" s="9"/>
+      <c r="N65" s="9"/>
+    </row>
+    <row r="66" spans="1:20" ht="320" x14ac:dyDescent="0.2">
+      <c r="A66" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="B66" s="9" t="s">
+        <v>344</v>
       </c>
       <c r="C66" s="9" t="s">
-        <v>255</v>
-      </c>
-      <c r="D66" s="9"/>
-      <c r="M66" s="9"/>
-      <c r="N66" s="9"/>
-      <c r="S66" s="9"/>
-    </row>
-    <row r="67" spans="1:20" ht="32" x14ac:dyDescent="0.2">
-      <c r="A67" s="8" t="s">
-        <v>606</v>
-      </c>
-      <c r="B67" s="9" t="s">
-        <v>612</v>
+        <v>254</v>
+      </c>
+      <c r="D66" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="E66" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="F66" s="10">
+        <v>10761124</v>
+      </c>
+      <c r="G66" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="H66" s="14">
+        <v>43200</v>
+      </c>
+      <c r="I66" s="14">
+        <v>43200</v>
+      </c>
+      <c r="M66" s="9">
+        <v>4</v>
+      </c>
+      <c r="N66" s="9">
+        <v>1</v>
+      </c>
+      <c r="O66" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="P66" s="11" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="67" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+      <c r="A67" s="27" t="s">
+        <v>203</v>
+      </c>
+      <c r="B67" s="15" t="s">
+        <v>641</v>
       </c>
       <c r="C67" s="9" t="s">
-        <v>255</v>
-      </c>
-      <c r="D67" s="9" t="s">
-        <v>204</v>
-      </c>
-      <c r="K67" s="22" t="s">
-        <v>598</v>
-      </c>
+        <v>254</v>
+      </c>
+      <c r="D67" s="9"/>
       <c r="M67" s="9"/>
       <c r="N67" s="9"/>
+      <c r="S67" s="9"/>
     </row>
     <row r="68" spans="1:20" ht="16" x14ac:dyDescent="0.2">
-      <c r="A68" s="27" t="s">
-        <v>204</v>
-      </c>
-      <c r="B68" s="15" t="s">
-        <v>646</v>
+      <c r="A68" s="8" t="s">
+        <v>602</v>
+      </c>
+      <c r="B68" s="9" t="s">
+        <v>608</v>
       </c>
       <c r="C68" s="9" t="s">
-        <v>255</v>
-      </c>
-      <c r="D68" s="9"/>
+        <v>254</v>
+      </c>
+      <c r="D68" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="K68" s="22"/>
       <c r="M68" s="9"/>
       <c r="N68" s="9"/>
-      <c r="S68" s="9"/>
-    </row>
-    <row r="69" spans="1:20" ht="16" x14ac:dyDescent="0.2">
-      <c r="A69" s="8" t="s">
-        <v>613</v>
-      </c>
-      <c r="B69" s="9" t="s">
-        <v>622</v>
+    </row>
+    <row r="69" spans="1:20" ht="32" x14ac:dyDescent="0.2">
+      <c r="A69" s="27" t="s">
+        <v>203</v>
+      </c>
+      <c r="B69" s="15" t="s">
+        <v>642</v>
       </c>
       <c r="C69" s="9" t="s">
-        <v>255</v>
-      </c>
-      <c r="D69" s="9" t="s">
-        <v>204</v>
-      </c>
-      <c r="K69" s="22"/>
+        <v>254</v>
+      </c>
+      <c r="D69" s="9"/>
+      <c r="K69" s="22" t="s">
+        <v>648</v>
+      </c>
       <c r="M69" s="9"/>
       <c r="N69" s="9"/>
+      <c r="S69" s="9"/>
     </row>
     <row r="70" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A70" s="8" t="s">
-        <v>614</v>
+        <v>603</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>623</v>
+        <v>609</v>
       </c>
       <c r="C70" s="9" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D70" s="9" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="K70" s="22"/>
       <c r="M70" s="9"/>
       <c r="N70" s="9"/>
     </row>
-    <row r="71" spans="1:20" ht="16" x14ac:dyDescent="0.2">
-      <c r="A71" s="8" t="s">
-        <v>615</v>
+    <row r="71" spans="1:20" ht="152" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="16" t="s">
+        <v>633</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>624</v>
+        <v>632</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D71" s="9" t="s">
-        <v>204</v>
-      </c>
-      <c r="K71" s="9"/>
-      <c r="L71" s="11"/>
-      <c r="M71" s="9"/>
-      <c r="N71" s="9"/>
+        <v>70</v>
+      </c>
+      <c r="I71" s="14"/>
+      <c r="S71" s="9"/>
     </row>
     <row r="72" spans="1:20" ht="16" x14ac:dyDescent="0.2">
-      <c r="A72" s="8" t="s">
-        <v>600</v>
-      </c>
-      <c r="B72" s="9" t="s">
-        <v>599</v>
+      <c r="A72" s="27" t="s">
+        <v>203</v>
+      </c>
+      <c r="B72" s="15" t="s">
+        <v>643</v>
       </c>
       <c r="C72" s="9" t="s">
-        <v>255</v>
-      </c>
-      <c r="D72" s="9" t="s">
-        <v>204</v>
-      </c>
-      <c r="K72" s="11"/>
-      <c r="L72" s="11"/>
+        <v>254</v>
+      </c>
+      <c r="D72" s="9"/>
       <c r="M72" s="9"/>
       <c r="N72" s="9"/>
-    </row>
-    <row r="73" spans="1:20" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="S72" s="9"/>
+    </row>
+    <row r="73" spans="1:20" ht="32" x14ac:dyDescent="0.2">
       <c r="A73" s="8" t="s">
-        <v>126</v>
+        <v>604</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>337</v>
+        <v>610</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>335</v>
+        <v>254</v>
       </c>
       <c r="D73" s="9" t="s">
-        <v>393</v>
-      </c>
-      <c r="E73" s="13" t="s">
-        <v>394</v>
-      </c>
-      <c r="F73" s="10">
-        <v>10221460</v>
-      </c>
-      <c r="G73" s="9" t="s">
-        <v>396</v>
-      </c>
-      <c r="H73" s="12">
-        <v>41465</v>
-      </c>
-      <c r="I73" s="12">
-        <v>41465</v>
-      </c>
-      <c r="K73" s="11"/>
-      <c r="L73" s="11"/>
-      <c r="M73" s="11">
-        <v>12</v>
-      </c>
-      <c r="N73" s="11">
-        <v>6</v>
-      </c>
-      <c r="O73" s="9" t="s">
-        <v>395</v>
-      </c>
-      <c r="T73" s="9" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="74" spans="1:20" ht="96" x14ac:dyDescent="0.2">
-      <c r="A74" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="B74" s="9" t="s">
-        <v>340</v>
+        <v>203</v>
+      </c>
+      <c r="K73" s="22" t="s">
+        <v>596</v>
+      </c>
+      <c r="M73" s="9"/>
+      <c r="N73" s="9"/>
+    </row>
+    <row r="74" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+      <c r="A74" s="27" t="s">
+        <v>203</v>
+      </c>
+      <c r="B74" s="15" t="s">
+        <v>644</v>
       </c>
       <c r="C74" s="9" t="s">
-        <v>335</v>
-      </c>
-      <c r="D74" s="9" t="s">
-        <v>393</v>
-      </c>
-      <c r="E74" s="13" t="s">
-        <v>394</v>
-      </c>
-      <c r="F74" s="10">
-        <v>10228546</v>
-      </c>
-      <c r="G74" s="11" t="s">
-        <v>396</v>
-      </c>
-      <c r="H74" s="12">
-        <v>41465</v>
-      </c>
-      <c r="I74" s="12">
-        <v>41465</v>
-      </c>
-      <c r="K74" s="11"/>
-      <c r="L74" s="11"/>
-      <c r="M74" s="11">
-        <v>2</v>
-      </c>
-      <c r="N74" s="11">
-        <v>0</v>
-      </c>
-      <c r="P74" s="11" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="75" spans="1:20" ht="281" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="16" t="s">
-        <v>91</v>
+        <v>254</v>
+      </c>
+      <c r="D74" s="9"/>
+      <c r="M74" s="9"/>
+      <c r="N74" s="9"/>
+      <c r="S74" s="9"/>
+    </row>
+    <row r="75" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+      <c r="A75" s="8" t="s">
+        <v>611</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>316</v>
+        <v>620</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>315</v>
+        <v>254</v>
       </c>
       <c r="D75" s="9" t="s">
-        <v>385</v>
-      </c>
-      <c r="E75" s="13" t="s">
-        <v>317</v>
-      </c>
-      <c r="F75" s="10">
-        <v>10843495</v>
-      </c>
-      <c r="I75" s="14">
-        <v>43986</v>
-      </c>
-      <c r="K75" s="11"/>
-      <c r="L75" s="11"/>
-      <c r="M75" s="9">
-        <v>1</v>
-      </c>
-      <c r="N75" s="9">
-        <v>0</v>
-      </c>
-      <c r="O75" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q75" s="14" t="s">
-        <v>591</v>
-      </c>
-      <c r="R75" s="9" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="76" spans="1:20" ht="304" x14ac:dyDescent="0.2">
+        <v>203</v>
+      </c>
+      <c r="K75" s="22"/>
+      <c r="M75" s="9"/>
+      <c r="N75" s="9"/>
+    </row>
+    <row r="76" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A76" s="8" t="s">
-        <v>99</v>
+        <v>612</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>363</v>
+        <v>621</v>
       </c>
       <c r="C76" s="9" t="s">
-        <v>315</v>
+        <v>254</v>
       </c>
       <c r="D76" s="9" t="s">
-        <v>400</v>
-      </c>
-      <c r="E76" s="13" t="s">
-        <v>317</v>
-      </c>
-      <c r="F76" s="10">
-        <v>10881826</v>
-      </c>
-      <c r="I76" s="12">
-        <v>44452</v>
-      </c>
-      <c r="K76" s="11"/>
-      <c r="L76" s="11"/>
-      <c r="M76" s="9">
-        <v>2</v>
-      </c>
-      <c r="N76" s="9">
-        <v>1</v>
-      </c>
-      <c r="O76" s="9" t="s">
-        <v>233</v>
-      </c>
-      <c r="P76" s="11" t="s">
-        <v>298</v>
-      </c>
-      <c r="Q76" s="14" t="s">
-        <v>591</v>
-      </c>
-      <c r="R76" s="9" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="77" spans="1:20" ht="144" x14ac:dyDescent="0.2">
+        <v>203</v>
+      </c>
+      <c r="K76" s="22"/>
+      <c r="M76" s="9"/>
+      <c r="N76" s="9"/>
+    </row>
+    <row r="77" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A77" s="8" t="s">
-        <v>47</v>
+        <v>613</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>268</v>
+        <v>622</v>
       </c>
       <c r="C77" s="9" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="D77" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="E77" s="13" t="s">
-        <v>250</v>
-      </c>
-      <c r="F77" s="10">
-        <v>10870273</v>
-      </c>
-      <c r="G77" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="H77" s="12">
-        <v>44302</v>
-      </c>
-      <c r="I77" s="12">
-        <v>44302</v>
-      </c>
-      <c r="K77" s="11"/>
+        <v>203</v>
+      </c>
+      <c r="K77" s="9"/>
       <c r="L77" s="11"/>
-      <c r="M77" s="9">
-        <v>2</v>
-      </c>
-      <c r="N77" s="9">
-        <v>1</v>
-      </c>
-      <c r="O77" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="P77" s="11" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="78" spans="1:20" ht="144" x14ac:dyDescent="0.2">
+      <c r="M77" s="9"/>
+      <c r="N77" s="9"/>
+    </row>
+    <row r="78" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A78" s="8" t="s">
-        <v>13</v>
+        <v>598</v>
       </c>
       <c r="B78" s="9" t="s">
-        <v>249</v>
+        <v>597</v>
       </c>
       <c r="C78" s="9" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="D78" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="E78" s="9" t="s">
-        <v>250</v>
-      </c>
-      <c r="F78" s="10">
-        <v>10870321</v>
-      </c>
-      <c r="G78" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="H78" s="14">
-        <v>44302</v>
+        <v>203</v>
       </c>
       <c r="K78" s="11"/>
       <c r="L78" s="11"/>
-      <c r="M78" s="11">
-        <v>1</v>
-      </c>
-      <c r="N78" s="11">
-        <v>1</v>
-      </c>
-      <c r="O78" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="79" spans="1:20" ht="48" x14ac:dyDescent="0.2">
+      <c r="M78" s="9"/>
+      <c r="N78" s="9"/>
+    </row>
+    <row r="79" spans="1:20" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A79" s="8" t="s">
-        <v>52</v>
+        <v>126</v>
       </c>
       <c r="B79" s="9" t="s">
-        <v>273</v>
+        <v>336</v>
       </c>
       <c r="C79" s="9" t="s">
-        <v>217</v>
+        <v>334</v>
       </c>
       <c r="D79" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="E79" s="9" t="s">
-        <v>228</v>
+        <v>392</v>
+      </c>
+      <c r="E79" s="13" t="s">
+        <v>393</v>
       </c>
       <c r="F79" s="10">
-        <v>10888654</v>
-      </c>
-      <c r="G79" s="11" t="s">
-        <v>53</v>
+        <v>10221460</v>
+      </c>
+      <c r="G79" s="9" t="s">
+        <v>395</v>
       </c>
       <c r="H79" s="12">
-        <v>44571</v>
+        <v>41465</v>
+      </c>
+      <c r="I79" s="12">
+        <v>41465</v>
       </c>
       <c r="K79" s="11"/>
       <c r="L79" s="11"/>
-      <c r="M79" s="9">
-        <v>1</v>
-      </c>
-      <c r="N79" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:20" ht="128" x14ac:dyDescent="0.2">
+      <c r="M79" s="11">
+        <v>12</v>
+      </c>
+      <c r="N79" s="11">
+        <v>6</v>
+      </c>
+      <c r="O79" s="9" t="s">
+        <v>394</v>
+      </c>
+      <c r="T79" s="9" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="80" spans="1:20" ht="96" x14ac:dyDescent="0.2">
       <c r="A80" s="8" t="s">
-        <v>5</v>
+        <v>145</v>
       </c>
       <c r="B80" s="9" t="s">
-        <v>218</v>
+        <v>339</v>
       </c>
       <c r="C80" s="9" t="s">
-        <v>217</v>
+        <v>334</v>
       </c>
       <c r="D80" s="9" t="s">
-        <v>382</v>
-      </c>
-      <c r="E80" s="9" t="s">
-        <v>228</v>
+        <v>392</v>
+      </c>
+      <c r="E80" s="13" t="s">
+        <v>393</v>
       </c>
       <c r="F80" s="10">
-        <v>10889479</v>
+        <v>10228546</v>
       </c>
       <c r="G80" s="11" t="s">
-        <v>6</v>
+        <v>395</v>
       </c>
       <c r="H80" s="12">
-        <v>44585</v>
-      </c>
-      <c r="K80" s="9" t="s">
-        <v>673</v>
-      </c>
+        <v>41465</v>
+      </c>
+      <c r="I80" s="12">
+        <v>41465</v>
+      </c>
+      <c r="K80" s="11"/>
       <c r="L80" s="11"/>
       <c r="M80" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N80" s="11">
         <v>0</v>
       </c>
-      <c r="Q80" s="14" t="s">
-        <v>589</v>
-      </c>
-      <c r="R80" s="9" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="81" spans="1:20" ht="208" x14ac:dyDescent="0.2">
-      <c r="A81" s="8" t="s">
-        <v>37</v>
+      <c r="P80" s="11" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="81" spans="1:20" ht="281" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="16" t="s">
+        <v>91</v>
       </c>
       <c r="B81" s="9" t="s">
-        <v>263</v>
+        <v>315</v>
       </c>
       <c r="C81" s="9" t="s">
-        <v>217</v>
+        <v>314</v>
       </c>
       <c r="D81" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="E81" s="9" t="s">
-        <v>228</v>
+        <v>384</v>
+      </c>
+      <c r="E81" s="13" t="s">
+        <v>316</v>
       </c>
       <c r="F81" s="10">
-        <v>10884463</v>
-      </c>
-      <c r="G81" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="H81" s="12">
-        <v>44494</v>
+        <v>10843495</v>
+      </c>
+      <c r="I81" s="14">
+        <v>43986</v>
       </c>
       <c r="K81" s="11"/>
       <c r="L81" s="11"/>
       <c r="M81" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N81" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O81" s="9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="82" spans="1:20" ht="48" x14ac:dyDescent="0.2">
+        <v>92</v>
+      </c>
+      <c r="Q81" s="14" t="s">
+        <v>589</v>
+      </c>
+      <c r="R81" s="9" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="82" spans="1:20" ht="304" x14ac:dyDescent="0.2">
       <c r="A82" s="8" t="s">
-        <v>22</v>
+        <v>99</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>252</v>
+        <v>362</v>
       </c>
       <c r="C82" s="9" t="s">
-        <v>217</v>
+        <v>314</v>
       </c>
       <c r="D82" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="E82" s="9" t="s">
-        <v>228</v>
+        <v>399</v>
+      </c>
+      <c r="E82" s="13" t="s">
+        <v>316</v>
       </c>
       <c r="F82" s="10">
-        <v>10888651</v>
-      </c>
-      <c r="G82" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="H82" s="12">
-        <v>44571</v>
+        <v>10881826</v>
+      </c>
+      <c r="I82" s="12">
+        <v>44452</v>
       </c>
       <c r="K82" s="11"/>
       <c r="L82" s="11"/>
-      <c r="M82" s="11">
+      <c r="M82" s="9">
+        <v>2</v>
+      </c>
+      <c r="N82" s="9">
         <v>1</v>
       </c>
-      <c r="N82" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:20" ht="64" x14ac:dyDescent="0.2">
+      <c r="O82" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="P82" s="11" t="s">
+        <v>297</v>
+      </c>
+      <c r="Q82" s="14" t="s">
+        <v>589</v>
+      </c>
+      <c r="R82" s="9" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="83" spans="1:20" ht="144" x14ac:dyDescent="0.2">
       <c r="A83" s="8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B83" s="9" t="s">
         <v>267</v>
       </c>
       <c r="C83" s="9" t="s">
-        <v>266</v>
+        <v>247</v>
       </c>
       <c r="D83" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="E83" s="9" t="s">
-        <v>251</v>
+      <c r="E83" s="13" t="s">
+        <v>249</v>
       </c>
       <c r="F83" s="10">
-        <v>10870309</v>
+        <v>10870273</v>
       </c>
       <c r="G83" s="11" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H83" s="12">
+        <v>44302</v>
+      </c>
+      <c r="I83" s="12">
         <v>44302</v>
       </c>
       <c r="K83" s="11"/>
       <c r="L83" s="11"/>
       <c r="M83" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N83" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:20" ht="287" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="O83" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="P83" s="11" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="84" spans="1:20" ht="144" x14ac:dyDescent="0.2">
       <c r="A84" s="8" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="B84" s="9" t="s">
-        <v>279</v>
+        <v>248</v>
       </c>
       <c r="C84" s="9" t="s">
-        <v>278</v>
+        <v>247</v>
       </c>
       <c r="D84" s="9" t="s">
         <v>70</v>
       </c>
       <c r="E84" s="9" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="F84" s="10">
-        <v>10887010</v>
+        <v>10870321</v>
       </c>
       <c r="G84" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="H84" s="12">
-        <v>44540</v>
+        <v>14</v>
+      </c>
+      <c r="H84" s="14">
+        <v>44302</v>
       </c>
       <c r="K84" s="11"/>
       <c r="L84" s="11"/>
@@ -6608,87 +6492,74 @@
         <v>1</v>
       </c>
       <c r="N84" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O84" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q84" s="14" t="s">
-        <v>587</v>
-      </c>
-      <c r="R84" s="9" t="s">
-        <v>588</v>
-      </c>
-      <c r="S84" s="11" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="85" spans="1:20" ht="80" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="85" spans="1:20" ht="48" x14ac:dyDescent="0.2">
       <c r="A85" s="8" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="B85" s="9" t="s">
-        <v>292</v>
+        <v>272</v>
       </c>
       <c r="C85" s="9" t="s">
-        <v>291</v>
+        <v>216</v>
       </c>
       <c r="D85" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="E85" s="13" t="s">
-        <v>251</v>
+      <c r="E85" s="9" t="s">
+        <v>227</v>
       </c>
       <c r="F85" s="10">
-        <v>10842499</v>
-      </c>
-      <c r="I85" s="14">
-        <v>43972</v>
+        <v>10888654</v>
+      </c>
+      <c r="G85" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="H85" s="12">
+        <v>44571</v>
       </c>
       <c r="K85" s="11"/>
       <c r="L85" s="11"/>
-      <c r="M85" s="11">
-        <v>0</v>
-      </c>
-      <c r="N85" s="11">
-        <v>0</v>
-      </c>
-      <c r="P85" s="11" t="s">
-        <v>298</v>
-      </c>
-      <c r="Q85" s="14" t="s">
-        <v>584</v>
-      </c>
-      <c r="R85" s="9" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="86" spans="1:20" ht="272" x14ac:dyDescent="0.2">
+      <c r="M85" s="9">
+        <v>1</v>
+      </c>
+      <c r="N85" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:20" ht="128" x14ac:dyDescent="0.2">
       <c r="A86" s="8" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="B86" s="9" t="s">
-        <v>254</v>
+        <v>217</v>
       </c>
       <c r="C86" s="9" t="s">
-        <v>253</v>
+        <v>216</v>
       </c>
       <c r="D86" s="9" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="E86" s="9" t="s">
-        <v>282</v>
+        <v>227</v>
       </c>
       <c r="F86" s="10">
-        <v>10870318</v>
+        <v>10889479</v>
       </c>
       <c r="G86" s="11" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="H86" s="12">
-        <v>44302</v>
-      </c>
-      <c r="K86" s="11"/>
+        <v>44585</v>
+      </c>
+      <c r="K86" s="9" t="s">
+        <v>671</v>
+      </c>
       <c r="L86" s="11"/>
       <c r="M86" s="11">
         <v>1</v>
@@ -6696,84 +6567,71 @@
       <c r="N86" s="11">
         <v>0</v>
       </c>
-      <c r="O86" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="87" spans="1:20" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="Q86" s="14" t="s">
+        <v>587</v>
+      </c>
+      <c r="R86" s="9" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="87" spans="1:20" ht="208" x14ac:dyDescent="0.2">
       <c r="A87" s="8" t="s">
-        <v>173</v>
+        <v>37</v>
       </c>
       <c r="B87" s="9" t="s">
-        <v>437</v>
+        <v>262</v>
       </c>
       <c r="C87" s="9" t="s">
-        <v>436</v>
+        <v>216</v>
       </c>
       <c r="D87" s="9" t="s">
         <v>70</v>
       </c>
       <c r="E87" s="9" t="s">
-        <v>493</v>
+        <v>227</v>
       </c>
       <c r="F87" s="10">
-        <v>10415917</v>
+        <v>10884463</v>
       </c>
       <c r="G87" s="11" t="s">
-        <v>492</v>
+        <v>38</v>
       </c>
       <c r="H87" s="12">
-        <v>41465</v>
-      </c>
-      <c r="I87" s="12">
-        <v>41465</v>
+        <v>44494</v>
       </c>
       <c r="K87" s="11"/>
       <c r="L87" s="11"/>
-      <c r="M87" s="11">
-        <v>12</v>
-      </c>
-      <c r="N87" s="11">
-        <v>13</v>
+      <c r="M87" s="9">
+        <v>2</v>
+      </c>
+      <c r="N87" s="9">
+        <v>1</v>
       </c>
       <c r="O87" s="9" t="s">
-        <v>494</v>
-      </c>
-      <c r="P87" s="11" t="s">
-        <v>298</v>
-      </c>
-      <c r="Q87" s="14" t="s">
-        <v>583</v>
-      </c>
-      <c r="R87" s="9" t="s">
-        <v>582</v>
-      </c>
-      <c r="S87" s="9"/>
-      <c r="T87" s="9" t="s">
-        <v>240</v>
+        <v>39</v>
       </c>
     </row>
     <row r="88" spans="1:20" ht="48" x14ac:dyDescent="0.2">
       <c r="A88" s="8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B88" s="9" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="C88" s="9" t="s">
-        <v>245</v>
+        <v>216</v>
       </c>
       <c r="D88" s="9" t="s">
         <v>70</v>
       </c>
       <c r="E88" s="9" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F88" s="10">
-        <v>10888642</v>
+        <v>10888651</v>
       </c>
       <c r="G88" s="11" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H88" s="12">
         <v>44571</v>
@@ -6787,32 +6645,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:20" ht="48" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:20" ht="64" x14ac:dyDescent="0.2">
       <c r="A89" s="8" t="s">
-        <v>2</v>
+        <v>45</v>
       </c>
       <c r="B89" s="9" t="s">
-        <v>216</v>
+        <v>266</v>
       </c>
       <c r="C89" s="9" t="s">
-        <v>214</v>
+        <v>265</v>
       </c>
       <c r="D89" s="9" t="s">
-        <v>381</v>
-      </c>
-      <c r="E89" s="13" t="s">
-        <v>227</v>
+        <v>70</v>
+      </c>
+      <c r="E89" s="9" t="s">
+        <v>250</v>
       </c>
       <c r="F89" s="10">
-        <v>10870297</v>
-      </c>
-      <c r="G89" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="H89" s="14">
-        <v>44302</v>
-      </c>
-      <c r="I89" s="14">
+        <v>10870309</v>
+      </c>
+      <c r="G89" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H89" s="12">
         <v>44302</v>
       </c>
       <c r="K89" s="11"/>
@@ -6823,106 +6678,114 @@
       <c r="N89" s="9">
         <v>0</v>
       </c>
-      <c r="P89" s="11" t="s">
-        <v>298</v>
-      </c>
-      <c r="R89" s="13"/>
-      <c r="S89" s="13"/>
-      <c r="T89" s="13"/>
-    </row>
-    <row r="90" spans="1:20" ht="48" x14ac:dyDescent="0.2">
+    </row>
+    <row r="90" spans="1:20" ht="287" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="8" t="s">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="B90" s="9" t="s">
-        <v>215</v>
+        <v>278</v>
       </c>
       <c r="C90" s="9" t="s">
-        <v>214</v>
+        <v>277</v>
       </c>
       <c r="D90" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="E90" s="13" t="s">
-        <v>227</v>
+      <c r="E90" s="9" t="s">
+        <v>241</v>
       </c>
       <c r="F90" s="10">
-        <v>10870276</v>
-      </c>
-      <c r="G90" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="H90" s="14">
-        <v>44302</v>
-      </c>
-      <c r="I90" s="14">
-        <v>44302</v>
+        <v>10887010</v>
+      </c>
+      <c r="G90" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="H90" s="12">
+        <v>44540</v>
       </c>
       <c r="K90" s="11"/>
       <c r="L90" s="11"/>
-      <c r="M90" s="9">
-        <v>0</v>
-      </c>
-      <c r="N90" s="9">
-        <v>0</v>
-      </c>
-      <c r="P90" s="11" t="s">
-        <v>298</v>
-      </c>
-      <c r="R90" s="13"/>
-      <c r="S90" s="13"/>
-      <c r="T90" s="13"/>
-    </row>
-    <row r="91" spans="1:20" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="M90" s="11">
+        <v>1</v>
+      </c>
+      <c r="N90" s="11">
+        <v>2</v>
+      </c>
+      <c r="O90" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q90" s="14" t="s">
+        <v>585</v>
+      </c>
+      <c r="R90" s="9" t="s">
+        <v>586</v>
+      </c>
+      <c r="S90" s="11" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="91" spans="1:20" ht="80" x14ac:dyDescent="0.2">
       <c r="A91" s="8" t="s">
-        <v>114</v>
+        <v>74</v>
       </c>
       <c r="B91" s="9" t="s">
-        <v>438</v>
+        <v>291</v>
       </c>
       <c r="C91" s="9" t="s">
-        <v>214</v>
-      </c>
-      <c r="D91" s="9"/>
+        <v>290</v>
+      </c>
+      <c r="D91" s="9" t="s">
+        <v>70</v>
+      </c>
       <c r="E91" s="13" t="s">
-        <v>251</v>
-      </c>
-      <c r="I91" s="12">
-        <v>43400</v>
+        <v>250</v>
+      </c>
+      <c r="F91" s="10">
+        <v>10842499</v>
+      </c>
+      <c r="I91" s="14">
+        <v>43972</v>
       </c>
       <c r="K91" s="11"/>
       <c r="L91" s="11"/>
-      <c r="M91" s="9">
-        <v>1</v>
-      </c>
-      <c r="N91" s="9">
-        <v>3</v>
-      </c>
-      <c r="O91" s="9" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="92" spans="1:20" ht="32" x14ac:dyDescent="0.2">
+      <c r="M91" s="11">
+        <v>0</v>
+      </c>
+      <c r="N91" s="11">
+        <v>0</v>
+      </c>
+      <c r="P91" s="11" t="s">
+        <v>297</v>
+      </c>
+      <c r="Q91" s="14" t="s">
+        <v>582</v>
+      </c>
+      <c r="R91" s="9" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="92" spans="1:20" ht="272" x14ac:dyDescent="0.2">
       <c r="A92" s="8" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="B92" s="9" t="s">
-        <v>222</v>
+        <v>253</v>
       </c>
       <c r="C92" s="9" t="s">
-        <v>221</v>
+        <v>252</v>
       </c>
       <c r="D92" s="9" t="s">
-        <v>70</v>
+        <v>383</v>
       </c>
       <c r="E92" s="9" t="s">
-        <v>242</v>
+        <v>281</v>
       </c>
       <c r="F92" s="10">
-        <v>10870282</v>
+        <v>10870318</v>
       </c>
       <c r="G92" s="11" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="H92" s="12">
         <v>44302</v>
@@ -6935,263 +6798,273 @@
       <c r="N92" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="1:20" ht="48" x14ac:dyDescent="0.2">
+      <c r="O92" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="93" spans="1:20" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A93" s="8" t="s">
-        <v>18</v>
+        <v>172</v>
       </c>
       <c r="B93" s="9" t="s">
-        <v>239</v>
+        <v>436</v>
       </c>
       <c r="C93" s="9" t="s">
-        <v>238</v>
+        <v>435</v>
       </c>
       <c r="D93" s="9" t="s">
         <v>70</v>
       </c>
       <c r="E93" s="9" t="s">
-        <v>237</v>
+        <v>491</v>
       </c>
       <c r="F93" s="10">
-        <v>10870294</v>
+        <v>10415917</v>
       </c>
       <c r="G93" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="H93" s="14">
-        <v>44302</v>
-      </c>
-      <c r="I93" s="14">
-        <v>44302</v>
+        <v>490</v>
+      </c>
+      <c r="H93" s="12">
+        <v>41465</v>
+      </c>
+      <c r="I93" s="12">
+        <v>41465</v>
       </c>
       <c r="K93" s="11"/>
       <c r="L93" s="11"/>
-      <c r="M93" s="9">
-        <v>0</v>
-      </c>
-      <c r="N93" s="9">
-        <v>0</v>
+      <c r="M93" s="11">
+        <v>12</v>
+      </c>
+      <c r="N93" s="11">
+        <v>13</v>
+      </c>
+      <c r="O93" s="9" t="s">
+        <v>492</v>
       </c>
       <c r="P93" s="11" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="94" spans="1:20" ht="335" x14ac:dyDescent="0.2">
+        <v>297</v>
+      </c>
+      <c r="Q93" s="14" t="s">
+        <v>581</v>
+      </c>
+      <c r="R93" s="9" t="s">
+        <v>580</v>
+      </c>
+      <c r="S93" s="9"/>
+      <c r="T93" s="9" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="94" spans="1:20" ht="48" x14ac:dyDescent="0.2">
       <c r="A94" s="8" t="s">
-        <v>118</v>
+        <v>20</v>
       </c>
       <c r="B94" s="9" t="s">
-        <v>338</v>
+        <v>243</v>
       </c>
       <c r="C94" s="9" t="s">
-        <v>270</v>
+        <v>244</v>
       </c>
       <c r="D94" s="9" t="s">
-        <v>379</v>
-      </c>
-      <c r="E94" s="13">
-        <v>43804</v>
+        <v>70</v>
+      </c>
+      <c r="E94" s="9" t="s">
+        <v>227</v>
       </c>
       <c r="F94" s="10">
-        <v>10831303</v>
+        <v>10888642</v>
       </c>
       <c r="G94" s="11" t="s">
-        <v>120</v>
+        <v>21</v>
       </c>
       <c r="H94" s="12">
-        <v>43804</v>
-      </c>
-      <c r="I94" s="12">
-        <v>43804</v>
+        <v>44571</v>
       </c>
       <c r="K94" s="11"/>
       <c r="L94" s="11"/>
-      <c r="M94" s="9">
+      <c r="M94" s="11">
+        <v>1</v>
+      </c>
+      <c r="N94" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:20" ht="48" x14ac:dyDescent="0.2">
+      <c r="A95" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="N94" s="9">
-        <v>2</v>
-      </c>
-      <c r="O94" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="P94" s="11" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="95" spans="1:20" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A95" s="8" t="s">
-        <v>140</v>
-      </c>
       <c r="B95" s="9" t="s">
-        <v>326</v>
+        <v>215</v>
       </c>
       <c r="C95" s="9" t="s">
-        <v>270</v>
+        <v>213</v>
       </c>
       <c r="D95" s="9" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="E95" s="13" t="s">
-        <v>284</v>
+        <v>226</v>
       </c>
       <c r="F95" s="10">
-        <v>10854829</v>
-      </c>
-      <c r="G95" s="11" t="s">
-        <v>371</v>
-      </c>
-      <c r="H95" s="12">
-        <v>44124</v>
-      </c>
-      <c r="I95" s="12">
-        <v>44124</v>
+        <v>10870297</v>
+      </c>
+      <c r="G95" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="H95" s="14">
+        <v>44302</v>
+      </c>
+      <c r="I95" s="14">
+        <v>44302</v>
       </c>
       <c r="K95" s="11"/>
       <c r="L95" s="11"/>
       <c r="M95" s="9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N95" s="9">
+        <v>0</v>
+      </c>
+      <c r="P95" s="11" t="s">
+        <v>297</v>
+      </c>
+      <c r="R95" s="13"/>
+      <c r="S95" s="13"/>
+      <c r="T95" s="13"/>
+    </row>
+    <row r="96" spans="1:20" ht="48" x14ac:dyDescent="0.2">
+      <c r="A96" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B96" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="C96" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="D96" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="E96" s="13" t="s">
+        <v>226</v>
+      </c>
+      <c r="F96" s="10">
+        <v>10870276</v>
+      </c>
+      <c r="G96" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="O95" s="9" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="96" spans="1:20" ht="365" x14ac:dyDescent="0.2">
-      <c r="A96" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="B96" s="9" t="s">
-        <v>336</v>
-      </c>
-      <c r="C96" s="9" t="s">
-        <v>270</v>
-      </c>
-      <c r="D96" s="9" t="s">
-        <v>386</v>
-      </c>
-      <c r="E96" s="13" t="s">
-        <v>284</v>
-      </c>
-      <c r="F96" s="10">
-        <v>10743775</v>
-      </c>
-      <c r="I96" s="12">
-        <v>42977</v>
+      <c r="H96" s="14">
+        <v>44302</v>
+      </c>
+      <c r="I96" s="14">
+        <v>44302</v>
       </c>
       <c r="K96" s="11"/>
       <c r="L96" s="11"/>
       <c r="M96" s="9">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N96" s="9">
-        <v>3</v>
-      </c>
-      <c r="O96" s="9" t="s">
-        <v>397</v>
-      </c>
-      <c r="T96" s="9" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="97" spans="1:20" ht="48" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="P96" s="11" t="s">
+        <v>297</v>
+      </c>
+      <c r="R96" s="13"/>
+      <c r="S96" s="13"/>
+      <c r="T96" s="13"/>
+    </row>
+    <row r="97" spans="1:20" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A97" s="8" t="s">
-        <v>82</v>
+        <v>114</v>
       </c>
       <c r="B97" s="9" t="s">
-        <v>314</v>
+        <v>437</v>
       </c>
       <c r="C97" s="9" t="s">
-        <v>270</v>
-      </c>
-      <c r="D97" s="9" t="s">
-        <v>379</v>
-      </c>
+        <v>213</v>
+      </c>
+      <c r="D97" s="9"/>
       <c r="E97" s="13" t="s">
-        <v>284</v>
-      </c>
-      <c r="F97" s="10">
-        <v>10788394</v>
-      </c>
-      <c r="I97" s="14">
-        <v>43545</v>
+        <v>250</v>
+      </c>
+      <c r="I97" s="12">
+        <v>43400</v>
       </c>
       <c r="K97" s="11"/>
       <c r="L97" s="11"/>
       <c r="M97" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N97" s="9">
-        <v>0</v>
-      </c>
-      <c r="P97" s="11" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="98" spans="1:20" ht="64" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="O97" s="9" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="98" spans="1:20" ht="32" x14ac:dyDescent="0.2">
       <c r="A98" s="8" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="B98" s="9" t="s">
-        <v>269</v>
+        <v>221</v>
       </c>
       <c r="C98" s="9" t="s">
-        <v>270</v>
+        <v>220</v>
       </c>
       <c r="D98" s="9" t="s">
-        <v>379</v>
+        <v>70</v>
       </c>
       <c r="E98" s="9" t="s">
-        <v>284</v>
+        <v>241</v>
       </c>
       <c r="F98" s="10">
-        <v>10885411</v>
-      </c>
-      <c r="H98" s="14"/>
-      <c r="I98" s="14">
-        <v>44512</v>
+        <v>10870282</v>
+      </c>
+      <c r="G98" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H98" s="12">
+        <v>44302</v>
       </c>
       <c r="K98" s="11"/>
       <c r="L98" s="11"/>
-      <c r="M98" s="9">
-        <v>0</v>
-      </c>
-      <c r="N98" s="9">
-        <v>0</v>
-      </c>
-      <c r="T98" s="9" t="s">
-        <v>287</v>
+      <c r="M98" s="11">
+        <v>1</v>
+      </c>
+      <c r="N98" s="11">
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:20" ht="48" x14ac:dyDescent="0.2">
       <c r="A99" s="8" t="s">
-        <v>66</v>
+        <v>18</v>
       </c>
       <c r="B99" s="9" t="s">
-        <v>285</v>
+        <v>238</v>
       </c>
       <c r="C99" s="9" t="s">
-        <v>270</v>
+        <v>237</v>
       </c>
       <c r="D99" s="9" t="s">
-        <v>379</v>
-      </c>
-      <c r="E99" s="13" t="s">
-        <v>284</v>
+        <v>70</v>
+      </c>
+      <c r="E99" s="9" t="s">
+        <v>236</v>
       </c>
       <c r="F99" s="10">
-        <v>10885174</v>
+        <v>10870294</v>
       </c>
       <c r="G99" s="11" t="s">
-        <v>67</v>
+        <v>19</v>
       </c>
       <c r="H99" s="14">
-        <v>44508</v>
+        <v>44302</v>
       </c>
       <c r="I99" s="14">
-        <v>44508</v>
+        <v>44302</v>
       </c>
       <c r="K99" s="11"/>
       <c r="L99" s="11"/>
@@ -7202,190 +7075,185 @@
         <v>0</v>
       </c>
       <c r="P99" s="11" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="100" spans="1:20" ht="48" x14ac:dyDescent="0.2">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="100" spans="1:20" ht="335" x14ac:dyDescent="0.2">
       <c r="A100" s="8" t="s">
-        <v>77</v>
+        <v>118</v>
       </c>
       <c r="B100" s="9" t="s">
-        <v>294</v>
+        <v>337</v>
       </c>
       <c r="C100" s="9" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D100" s="9" t="s">
-        <v>386</v>
-      </c>
-      <c r="E100" s="9" t="s">
-        <v>284</v>
+        <v>378</v>
+      </c>
+      <c r="E100" s="13">
+        <v>43804</v>
       </c>
       <c r="F100" s="10">
-        <v>10904773</v>
-      </c>
-      <c r="I100" s="14">
-        <v>44778</v>
+        <v>10831303</v>
+      </c>
+      <c r="G100" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="H100" s="12">
+        <v>43804</v>
+      </c>
+      <c r="I100" s="12">
+        <v>43804</v>
       </c>
       <c r="K100" s="11"/>
       <c r="L100" s="11"/>
-      <c r="M100" s="11">
-        <v>0</v>
-      </c>
-      <c r="N100" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:20" ht="160" x14ac:dyDescent="0.2">
+      <c r="M100" s="9">
+        <v>2</v>
+      </c>
+      <c r="N100" s="9">
+        <v>2</v>
+      </c>
+      <c r="O100" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="P100" s="11" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="101" spans="1:20" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A101" s="8" t="s">
-        <v>35</v>
+        <v>140</v>
       </c>
       <c r="B101" s="9" t="s">
-        <v>262</v>
+        <v>325</v>
       </c>
       <c r="C101" s="9" t="s">
-        <v>258</v>
+        <v>269</v>
       </c>
       <c r="D101" s="9" t="s">
-        <v>70</v>
+        <v>378</v>
       </c>
       <c r="E101" s="13" t="s">
         <v>283</v>
       </c>
       <c r="F101" s="10">
-        <v>10870306</v>
+        <v>10854829</v>
       </c>
       <c r="G101" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="H101" s="14">
-        <v>44302</v>
-      </c>
-      <c r="I101" s="14">
-        <v>44302</v>
+        <v>370</v>
+      </c>
+      <c r="H101" s="12">
+        <v>44124</v>
+      </c>
+      <c r="I101" s="12">
+        <v>44124</v>
       </c>
       <c r="K101" s="11"/>
       <c r="L101" s="11"/>
       <c r="M101" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N101" s="9">
-        <v>0</v>
-      </c>
-      <c r="P101" s="11" t="s">
-        <v>298</v>
-      </c>
-      <c r="Q101" s="14" t="s">
-        <v>579</v>
-      </c>
-      <c r="R101" s="9" t="s">
-        <v>580</v>
-      </c>
-      <c r="S101" s="9" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="102" spans="1:20" ht="64" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="O101" s="9" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="102" spans="1:20" ht="365" x14ac:dyDescent="0.2">
       <c r="A102" s="8" t="s">
-        <v>29</v>
+        <v>127</v>
       </c>
       <c r="B102" s="9" t="s">
-        <v>259</v>
+        <v>335</v>
       </c>
       <c r="C102" s="9" t="s">
-        <v>258</v>
+        <v>269</v>
       </c>
       <c r="D102" s="9" t="s">
-        <v>70</v>
+        <v>385</v>
       </c>
       <c r="E102" s="13" t="s">
         <v>283</v>
       </c>
       <c r="F102" s="10">
-        <v>10870291</v>
-      </c>
-      <c r="G102" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="H102" s="12">
-        <v>44302</v>
+        <v>10743775</v>
       </c>
       <c r="I102" s="12">
-        <v>44302</v>
+        <v>42977</v>
       </c>
       <c r="K102" s="11"/>
       <c r="L102" s="11"/>
       <c r="M102" s="9">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N102" s="9">
-        <v>0</v>
-      </c>
-      <c r="P102" s="11" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="103" spans="1:20" ht="64" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="O102" s="9" t="s">
+        <v>396</v>
+      </c>
+      <c r="T102" s="9" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="103" spans="1:20" ht="48" x14ac:dyDescent="0.2">
       <c r="A103" s="8" t="s">
-        <v>31</v>
+        <v>82</v>
       </c>
       <c r="B103" s="9" t="s">
-        <v>260</v>
+        <v>313</v>
       </c>
       <c r="C103" s="9" t="s">
-        <v>258</v>
+        <v>269</v>
       </c>
       <c r="D103" s="9" t="s">
-        <v>70</v>
+        <v>378</v>
       </c>
       <c r="E103" s="13" t="s">
         <v>283</v>
       </c>
       <c r="F103" s="10">
-        <v>10870279</v>
-      </c>
-      <c r="G103" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="H103" s="14">
-        <v>44302</v>
+        <v>10788394</v>
       </c>
       <c r="I103" s="14">
-        <v>44302</v>
+        <v>43545</v>
       </c>
       <c r="K103" s="11"/>
       <c r="L103" s="11"/>
       <c r="M103" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N103" s="9">
         <v>0</v>
       </c>
       <c r="P103" s="11" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="104" spans="1:20" ht="64" x14ac:dyDescent="0.2">
       <c r="A104" s="8" t="s">
-        <v>113</v>
+        <v>49</v>
       </c>
       <c r="B104" s="9" t="s">
-        <v>401</v>
+        <v>268</v>
       </c>
       <c r="C104" s="9" t="s">
-        <v>258</v>
+        <v>269</v>
       </c>
       <c r="D104" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="E104" s="13" t="s">
+        <v>378</v>
+      </c>
+      <c r="E104" s="9" t="s">
         <v>283</v>
       </c>
       <c r="F104" s="10">
-        <v>10912858</v>
-      </c>
+        <v>10885411</v>
+      </c>
+      <c r="H104" s="14"/>
       <c r="I104" s="14">
-        <v>44874</v>
+        <v>44512</v>
       </c>
       <c r="K104" s="11"/>
       <c r="L104" s="11"/>
@@ -7395,103 +7263,108 @@
       <c r="N104" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="105" spans="1:20" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="T104" s="9" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="105" spans="1:20" ht="48" x14ac:dyDescent="0.2">
       <c r="A105" s="8" t="s">
-        <v>107</v>
+        <v>66</v>
       </c>
       <c r="B105" s="9" t="s">
-        <v>368</v>
+        <v>284</v>
       </c>
       <c r="C105" s="9" t="s">
-        <v>246</v>
+        <v>269</v>
       </c>
       <c r="D105" s="9" t="s">
-        <v>393</v>
+        <v>378</v>
       </c>
       <c r="E105" s="13" t="s">
-        <v>251</v>
+        <v>283</v>
       </c>
       <c r="F105" s="10">
-        <v>10717795</v>
+        <v>10885174</v>
       </c>
       <c r="G105" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="H105" s="12">
-        <v>42703</v>
-      </c>
-      <c r="I105" s="12">
-        <v>42703</v>
+        <v>67</v>
+      </c>
+      <c r="H105" s="14">
+        <v>44508</v>
+      </c>
+      <c r="I105" s="14">
+        <v>44508</v>
       </c>
       <c r="K105" s="11"/>
       <c r="L105" s="11"/>
       <c r="M105" s="9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N105" s="9">
-        <v>3</v>
-      </c>
-      <c r="O105" s="9" t="s">
-        <v>234</v>
+        <v>0</v>
       </c>
       <c r="P105" s="11" t="s">
-        <v>298</v>
-      </c>
-      <c r="Q105" s="14" t="s">
-        <v>577</v>
-      </c>
-      <c r="R105" s="9" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="106" spans="1:20" ht="64" x14ac:dyDescent="0.2">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="106" spans="1:20" ht="48" x14ac:dyDescent="0.2">
       <c r="A106" s="8" t="s">
-        <v>110</v>
+        <v>77</v>
       </c>
       <c r="B106" s="9" t="s">
-        <v>440</v>
+        <v>293</v>
       </c>
       <c r="C106" s="9" t="s">
-        <v>246</v>
-      </c>
-      <c r="D106" s="9"/>
-      <c r="H106" s="18"/>
-      <c r="I106" s="18"/>
+        <v>269</v>
+      </c>
+      <c r="D106" s="9" t="s">
+        <v>385</v>
+      </c>
+      <c r="E106" s="9" t="s">
+        <v>283</v>
+      </c>
+      <c r="F106" s="10">
+        <v>10904773</v>
+      </c>
+      <c r="I106" s="14">
+        <v>44778</v>
+      </c>
       <c r="K106" s="11"/>
       <c r="L106" s="11"/>
-      <c r="M106" s="9"/>
-      <c r="N106" s="9"/>
-      <c r="Q106" s="17" t="s">
-        <v>111</v>
-      </c>
-      <c r="R106" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="S106" s="9"/>
-      <c r="T106" s="17"/>
-    </row>
-    <row r="107" spans="1:20" ht="365" x14ac:dyDescent="0.2">
+      <c r="M106" s="11">
+        <v>0</v>
+      </c>
+      <c r="N106" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:20" ht="160" x14ac:dyDescent="0.2">
       <c r="A107" s="8" t="s">
-        <v>93</v>
+        <v>35</v>
       </c>
       <c r="B107" s="9" t="s">
-        <v>299</v>
+        <v>261</v>
       </c>
       <c r="C107" s="9" t="s">
-        <v>246</v>
+        <v>257</v>
       </c>
       <c r="D107" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="E107" s="9" t="s">
-        <v>251</v>
+      <c r="E107" s="13" t="s">
+        <v>282</v>
       </c>
       <c r="F107" s="10">
-        <v>10752580</v>
+        <v>10870306</v>
+      </c>
+      <c r="G107" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="H107" s="14">
+        <v>44302</v>
       </c>
       <c r="I107" s="14">
-        <v>43089</v>
+        <v>44302</v>
       </c>
       <c r="K107" s="11"/>
       <c r="L107" s="11"/>
@@ -7499,13 +7372,10 @@
         <v>1</v>
       </c>
       <c r="N107" s="9">
-        <v>2</v>
-      </c>
-      <c r="O107" s="9" t="s">
-        <v>94</v>
+        <v>0</v>
       </c>
       <c r="P107" s="11" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="Q107" s="14" t="s">
         <v>577</v>
@@ -7513,123 +7383,111 @@
       <c r="R107" s="9" t="s">
         <v>578</v>
       </c>
-    </row>
-    <row r="108" spans="1:20" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="S107" s="9" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="108" spans="1:20" ht="64" x14ac:dyDescent="0.2">
       <c r="A108" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="B108" s="11" t="s">
-        <v>205</v>
+        <v>29</v>
+      </c>
+      <c r="B108" s="9" t="s">
+        <v>258</v>
       </c>
       <c r="C108" s="9" t="s">
-        <v>246</v>
-      </c>
-      <c r="D108" s="11" t="s">
-        <v>428</v>
-      </c>
-      <c r="E108" s="9" t="s">
-        <v>251</v>
+        <v>257</v>
+      </c>
+      <c r="D108" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="E108" s="13" t="s">
+        <v>282</v>
       </c>
       <c r="F108" s="10">
-        <v>10094860</v>
+        <v>10870291</v>
+      </c>
+      <c r="G108" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="H108" s="12">
+        <v>44302</v>
       </c>
       <c r="I108" s="12">
-        <v>41465</v>
+        <v>44302</v>
       </c>
       <c r="K108" s="11"/>
       <c r="L108" s="11"/>
-      <c r="M108" s="11">
-        <v>6</v>
-      </c>
-      <c r="N108" s="11">
-        <v>18</v>
-      </c>
-      <c r="O108" s="9" t="s">
-        <v>481</v>
+      <c r="M108" s="9">
+        <v>1</v>
+      </c>
+      <c r="N108" s="9">
+        <v>0</v>
       </c>
       <c r="P108" s="11" t="s">
-        <v>298</v>
-      </c>
-      <c r="Q108" s="14" t="s">
-        <v>575</v>
-      </c>
-      <c r="R108" s="9" t="s">
-        <v>576</v>
-      </c>
-      <c r="T108" s="9" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="109" spans="1:20" ht="144" x14ac:dyDescent="0.2">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="109" spans="1:20" ht="64" x14ac:dyDescent="0.2">
       <c r="A109" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="B109" s="11" t="s">
-        <v>199</v>
-      </c>
-      <c r="C109" s="11" t="s">
-        <v>246</v>
-      </c>
-      <c r="D109" s="11" t="s">
-        <v>428</v>
-      </c>
-      <c r="E109" s="9" t="s">
-        <v>251</v>
+        <v>31</v>
+      </c>
+      <c r="B109" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="C109" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="D109" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="E109" s="13" t="s">
+        <v>282</v>
       </c>
       <c r="F109" s="10">
-        <v>10353535</v>
-      </c>
-      <c r="I109" s="12">
-        <v>41465</v>
+        <v>10870279</v>
+      </c>
+      <c r="G109" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="H109" s="14">
+        <v>44302</v>
+      </c>
+      <c r="I109" s="14">
+        <v>44302</v>
       </c>
       <c r="K109" s="11"/>
       <c r="L109" s="11"/>
-      <c r="M109" s="11">
-        <v>0</v>
-      </c>
-      <c r="N109" s="11">
+      <c r="M109" s="9">
+        <v>1</v>
+      </c>
+      <c r="N109" s="9">
         <v>0</v>
       </c>
       <c r="P109" s="11" t="s">
-        <v>298</v>
-      </c>
-      <c r="Q109" s="14" t="s">
-        <v>574</v>
-      </c>
-      <c r="R109" s="9" t="s">
-        <v>572</v>
-      </c>
-      <c r="S109" s="11" t="s">
-        <v>573</v>
+        <v>297</v>
       </c>
     </row>
     <row r="110" spans="1:20" ht="64" x14ac:dyDescent="0.2">
       <c r="A110" s="8" t="s">
-        <v>16</v>
+        <v>113</v>
       </c>
       <c r="B110" s="9" t="s">
-        <v>247</v>
+        <v>400</v>
       </c>
       <c r="C110" s="9" t="s">
-        <v>246</v>
+        <v>257</v>
       </c>
       <c r="D110" s="9" t="s">
-        <v>70</v>
+        <v>113</v>
       </c>
       <c r="E110" s="13" t="s">
-        <v>251</v>
+        <v>282</v>
       </c>
       <c r="F110" s="10">
-        <v>10870300</v>
-      </c>
-      <c r="G110" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="H110" s="14">
-        <v>44302</v>
+        <v>10912858</v>
       </c>
       <c r="I110" s="14">
-        <v>44302</v>
+        <v>44874</v>
       </c>
       <c r="K110" s="11"/>
       <c r="L110" s="11"/>
@@ -7639,345 +7497,321 @@
       <c r="N110" s="9">
         <v>0</v>
       </c>
-      <c r="P110" s="11" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="111" spans="1:20" ht="80" x14ac:dyDescent="0.2">
+    </row>
+    <row r="111" spans="1:20" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A111" s="8" t="s">
-        <v>11</v>
+        <v>107</v>
       </c>
       <c r="B111" s="9" t="s">
-        <v>224</v>
+        <v>367</v>
       </c>
       <c r="C111" s="9" t="s">
-        <v>223</v>
+        <v>245</v>
       </c>
       <c r="D111" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="E111" s="9" t="s">
-        <v>243</v>
+        <v>392</v>
+      </c>
+      <c r="E111" s="13" t="s">
+        <v>250</v>
       </c>
       <c r="F111" s="10">
-        <v>10870303</v>
+        <v>10717795</v>
       </c>
       <c r="G111" s="11" t="s">
-        <v>12</v>
+        <v>108</v>
       </c>
       <c r="H111" s="12">
-        <v>44302</v>
+        <v>42703</v>
+      </c>
+      <c r="I111" s="12">
+        <v>42703</v>
       </c>
       <c r="K111" s="11"/>
       <c r="L111" s="11"/>
-      <c r="M111" s="11">
-        <v>0</v>
-      </c>
-      <c r="N111" s="11">
-        <v>0</v>
+      <c r="M111" s="9">
+        <v>2</v>
+      </c>
+      <c r="N111" s="9">
+        <v>3</v>
+      </c>
+      <c r="O111" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="P111" s="11" t="s">
+        <v>297</v>
       </c>
       <c r="Q111" s="14" t="s">
-        <v>569</v>
+        <v>575</v>
       </c>
       <c r="R111" s="9" t="s">
-        <v>570</v>
-      </c>
-      <c r="S111" s="11" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="112" spans="1:20" ht="80" x14ac:dyDescent="0.2">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="112" spans="1:20" ht="64" x14ac:dyDescent="0.2">
       <c r="A112" s="8" t="s">
-        <v>7</v>
+        <v>110</v>
       </c>
       <c r="B112" s="9" t="s">
-        <v>220</v>
+        <v>439</v>
       </c>
       <c r="C112" s="9" t="s">
-        <v>219</v>
-      </c>
-      <c r="D112" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="E112" s="9" t="s">
-        <v>236</v>
-      </c>
-      <c r="F112" s="10">
-        <v>10870315</v>
-      </c>
-      <c r="G112" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="H112" s="12">
-        <v>44302</v>
-      </c>
+        <v>245</v>
+      </c>
+      <c r="D112" s="9"/>
+      <c r="H112" s="18"/>
+      <c r="I112" s="18"/>
       <c r="K112" s="11"/>
       <c r="L112" s="11"/>
-      <c r="M112" s="11">
-        <v>0</v>
-      </c>
-      <c r="N112" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q112" s="14" t="s">
-        <v>566</v>
+      <c r="M112" s="9"/>
+      <c r="N112" s="9"/>
+      <c r="Q112" s="17" t="s">
+        <v>111</v>
       </c>
       <c r="R112" s="9" t="s">
-        <v>567</v>
-      </c>
-      <c r="S112" s="11" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="113" spans="1:20" ht="176" x14ac:dyDescent="0.2">
+        <v>112</v>
+      </c>
+      <c r="S112" s="9"/>
+      <c r="T112" s="17"/>
+    </row>
+    <row r="113" spans="1:20" ht="365" x14ac:dyDescent="0.2">
       <c r="A113" s="8" t="s">
-        <v>195</v>
+        <v>93</v>
       </c>
       <c r="B113" s="9" t="s">
-        <v>373</v>
-      </c>
-      <c r="C113" s="11" t="s">
-        <v>257</v>
-      </c>
-      <c r="D113" s="11" t="s">
-        <v>402</v>
+        <v>298</v>
+      </c>
+      <c r="C113" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="D113" s="9" t="s">
+        <v>70</v>
       </c>
       <c r="E113" s="9" t="s">
-        <v>305</v>
+        <v>250</v>
       </c>
       <c r="F113" s="10">
-        <v>10172829</v>
-      </c>
-      <c r="G113" s="11" t="s">
-        <v>374</v>
-      </c>
-      <c r="H113" s="12">
-        <v>41465</v>
-      </c>
-      <c r="I113" s="12">
-        <v>41465</v>
+        <v>10752580</v>
+      </c>
+      <c r="I113" s="14">
+        <v>43089</v>
       </c>
       <c r="K113" s="11"/>
       <c r="L113" s="11"/>
-      <c r="M113" s="11">
-        <v>4</v>
-      </c>
-      <c r="N113" s="11">
+      <c r="M113" s="9">
         <v>1</v>
       </c>
+      <c r="N113" s="9">
+        <v>2</v>
+      </c>
       <c r="O113" s="9" t="s">
-        <v>375</v>
+        <v>94</v>
       </c>
       <c r="P113" s="11" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="Q113" s="14" t="s">
-        <v>564</v>
+        <v>575</v>
       </c>
       <c r="R113" s="9" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="114" spans="1:20" ht="32" x14ac:dyDescent="0.2">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="114" spans="1:20" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A114" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="B114" s="9" t="s">
-        <v>367</v>
+        <v>203</v>
+      </c>
+      <c r="B114" s="11" t="s">
+        <v>204</v>
       </c>
       <c r="C114" s="9" t="s">
-        <v>257</v>
-      </c>
-      <c r="D114" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="E114" s="13" t="s">
-        <v>305</v>
+        <v>245</v>
+      </c>
+      <c r="D114" s="11" t="s">
+        <v>427</v>
+      </c>
+      <c r="E114" s="9" t="s">
+        <v>250</v>
       </c>
       <c r="F114" s="10">
-        <v>10881718</v>
+        <v>10094860</v>
       </c>
       <c r="I114" s="12">
-        <v>44449</v>
+        <v>41465</v>
       </c>
       <c r="K114" s="11"/>
       <c r="L114" s="11"/>
-      <c r="M114" s="9">
-        <v>0</v>
-      </c>
-      <c r="N114" s="9">
-        <v>0</v>
+      <c r="M114" s="11">
+        <v>6</v>
+      </c>
+      <c r="N114" s="11">
+        <v>18</v>
+      </c>
+      <c r="O114" s="9" t="s">
+        <v>479</v>
       </c>
       <c r="P114" s="11" t="s">
-        <v>298</v>
-      </c>
-      <c r="Q114" s="9" t="s">
-        <v>369</v>
-      </c>
-      <c r="S114" s="9"/>
-    </row>
-    <row r="115" spans="1:20" ht="409.6" x14ac:dyDescent="0.2">
+        <v>297</v>
+      </c>
+      <c r="Q114" s="14" t="s">
+        <v>573</v>
+      </c>
+      <c r="R114" s="9" t="s">
+        <v>574</v>
+      </c>
+      <c r="T114" s="9" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="115" spans="1:20" ht="144" x14ac:dyDescent="0.2">
       <c r="A115" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="B115" s="9" t="s">
-        <v>439</v>
-      </c>
-      <c r="C115" s="9" t="s">
-        <v>257</v>
-      </c>
-      <c r="D115" s="9" t="s">
-        <v>70</v>
+        <v>197</v>
+      </c>
+      <c r="B115" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="C115" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="D115" s="11" t="s">
+        <v>427</v>
       </c>
       <c r="E115" s="9" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F115" s="10">
-        <v>10094860</v>
-      </c>
-      <c r="G115" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="H115" s="12">
-        <v>41465</v>
+        <v>10353535</v>
       </c>
       <c r="I115" s="12">
         <v>41465</v>
       </c>
       <c r="K115" s="11"/>
       <c r="L115" s="11"/>
-      <c r="M115" s="9">
-        <v>2</v>
-      </c>
-      <c r="N115" s="9">
-        <v>3</v>
-      </c>
-      <c r="O115" s="9" t="s">
-        <v>230</v>
+      <c r="M115" s="11">
+        <v>0</v>
+      </c>
+      <c r="N115" s="11">
+        <v>0</v>
       </c>
       <c r="P115" s="11" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="Q115" s="14" t="s">
-        <v>562</v>
+        <v>572</v>
       </c>
       <c r="R115" s="9" t="s">
-        <v>535</v>
-      </c>
-      <c r="S115" s="9" t="s">
-        <v>563</v>
-      </c>
-      <c r="T115" s="9" t="s">
-        <v>241</v>
+        <v>570</v>
+      </c>
+      <c r="S115" s="11" t="s">
+        <v>571</v>
       </c>
     </row>
     <row r="116" spans="1:20" ht="64" x14ac:dyDescent="0.2">
       <c r="A116" s="8" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B116" s="9" t="s">
-        <v>261</v>
+        <v>246</v>
       </c>
       <c r="C116" s="9" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="D116" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="E116" s="9" t="s">
-        <v>251</v>
+      <c r="E116" s="13" t="s">
+        <v>250</v>
       </c>
       <c r="F116" s="10">
-        <v>10870285</v>
+        <v>10870300</v>
       </c>
       <c r="G116" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="H116" s="12">
+        <v>17</v>
+      </c>
+      <c r="H116" s="14">
+        <v>44302</v>
+      </c>
+      <c r="I116" s="14">
         <v>44302</v>
       </c>
       <c r="K116" s="11"/>
       <c r="L116" s="11"/>
-      <c r="M116" s="11">
-        <v>0</v>
-      </c>
-      <c r="N116" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:20" ht="380" x14ac:dyDescent="0.2">
+      <c r="M116" s="9">
+        <v>0</v>
+      </c>
+      <c r="N116" s="9">
+        <v>0</v>
+      </c>
+      <c r="P116" s="11" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="117" spans="1:20" ht="80" x14ac:dyDescent="0.2">
       <c r="A117" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="B117" s="11" t="s">
-        <v>412</v>
-      </c>
-      <c r="C117" s="11" t="s">
-        <v>257</v>
-      </c>
-      <c r="D117" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B117" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="C117" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="D117" s="9" t="s">
         <v>70</v>
       </c>
       <c r="E117" s="9" t="s">
-        <v>305</v>
+        <v>242</v>
       </c>
       <c r="F117" s="10">
-        <v>10852057</v>
-      </c>
-      <c r="I117" s="12">
-        <v>44084</v>
+        <v>10870303</v>
+      </c>
+      <c r="G117" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H117" s="12">
+        <v>44302</v>
       </c>
       <c r="K117" s="11"/>
       <c r="L117" s="11"/>
       <c r="M117" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N117" s="11">
-        <v>2</v>
-      </c>
-      <c r="O117" s="9" t="s">
-        <v>413</v>
-      </c>
-      <c r="P117" s="11" t="s">
-        <v>298</v>
+        <v>0</v>
       </c>
       <c r="Q117" s="14" t="s">
-        <v>558</v>
+        <v>567</v>
       </c>
       <c r="R117" s="9" t="s">
-        <v>559</v>
+        <v>568</v>
       </c>
       <c r="S117" s="11" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="118" spans="1:20" ht="160" x14ac:dyDescent="0.2">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="118" spans="1:20" ht="80" x14ac:dyDescent="0.2">
       <c r="A118" s="8" t="s">
-        <v>183</v>
+        <v>7</v>
       </c>
       <c r="B118" s="9" t="s">
-        <v>184</v>
+        <v>219</v>
       </c>
       <c r="C118" s="9" t="s">
-        <v>257</v>
+        <v>218</v>
       </c>
       <c r="D118" s="9" t="s">
-        <v>405</v>
+        <v>70</v>
       </c>
       <c r="E118" s="9" t="s">
-        <v>305</v>
+        <v>235</v>
       </c>
       <c r="F118" s="10">
-        <v>10474153</v>
+        <v>10870315</v>
       </c>
       <c r="G118" s="11" t="s">
-        <v>404</v>
+        <v>8</v>
       </c>
       <c r="H118" s="12">
-        <v>41624</v>
-      </c>
-      <c r="I118" s="12">
-        <v>41624</v>
+        <v>44302</v>
       </c>
       <c r="K118" s="11"/>
       <c r="L118" s="11"/>
@@ -7987,40 +7821,37 @@
       <c r="N118" s="11">
         <v>0</v>
       </c>
-      <c r="P118" s="11" t="s">
-        <v>298</v>
-      </c>
       <c r="Q118" s="14" t="s">
-        <v>558</v>
+        <v>564</v>
       </c>
       <c r="R118" s="9" t="s">
-        <v>559</v>
+        <v>565</v>
       </c>
       <c r="S118" s="11" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="119" spans="1:20" ht="409.6" x14ac:dyDescent="0.2">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="119" spans="1:20" ht="176" x14ac:dyDescent="0.2">
       <c r="A119" s="8" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B119" s="9" t="s">
-        <v>406</v>
+        <v>372</v>
       </c>
       <c r="C119" s="11" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D119" s="11" t="s">
-        <v>393</v>
+        <v>401</v>
       </c>
       <c r="E119" s="9" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F119" s="10">
-        <v>10086997</v>
+        <v>10172829</v>
       </c>
       <c r="G119" s="11" t="s">
-        <v>407</v>
+        <v>373</v>
       </c>
       <c r="H119" s="12">
         <v>41465</v>
@@ -8034,1750 +7865,2021 @@
         <v>4</v>
       </c>
       <c r="N119" s="11">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="O119" s="9" t="s">
-        <v>408</v>
+        <v>374</v>
       </c>
       <c r="P119" s="11" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="Q119" s="14" t="s">
-        <v>558</v>
+        <v>562</v>
       </c>
       <c r="R119" s="9" t="s">
-        <v>559</v>
-      </c>
-      <c r="S119" s="11" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="120" spans="1:20" ht="160" x14ac:dyDescent="0.2">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="120" spans="1:20" ht="32" x14ac:dyDescent="0.2">
       <c r="A120" s="8" t="s">
-        <v>154</v>
+        <v>109</v>
       </c>
       <c r="B120" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="C120" s="11" t="s">
-        <v>257</v>
-      </c>
-      <c r="D120" s="11" t="s">
-        <v>393</v>
-      </c>
-      <c r="E120" s="9" t="s">
-        <v>305</v>
+        <v>366</v>
+      </c>
+      <c r="C120" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="D120" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="E120" s="13" t="s">
+        <v>304</v>
       </c>
       <c r="F120" s="10">
-        <v>10809193</v>
-      </c>
-      <c r="G120" s="11" t="s">
-        <v>482</v>
-      </c>
-      <c r="H120" s="12">
-        <v>43636</v>
+        <v>10881718</v>
       </c>
       <c r="I120" s="12">
-        <v>43636</v>
+        <v>44449</v>
       </c>
       <c r="K120" s="11"/>
       <c r="L120" s="11"/>
-      <c r="M120" s="11">
-        <v>2</v>
-      </c>
-      <c r="N120" s="11">
+      <c r="M120" s="9">
+        <v>0</v>
+      </c>
+      <c r="N120" s="9">
         <v>0</v>
       </c>
       <c r="P120" s="11" t="s">
-        <v>298</v>
-      </c>
-      <c r="Q120" s="14" t="s">
-        <v>558</v>
-      </c>
-      <c r="R120" s="9" t="s">
-        <v>559</v>
-      </c>
-      <c r="S120" s="11" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="121" spans="1:20" ht="144" x14ac:dyDescent="0.2">
+        <v>297</v>
+      </c>
+      <c r="Q120" s="9" t="s">
+        <v>368</v>
+      </c>
+      <c r="S120" s="9"/>
+    </row>
+    <row r="121" spans="1:20" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A121" s="8" t="s">
-        <v>189</v>
+        <v>105</v>
       </c>
       <c r="B121" s="9" t="s">
-        <v>190</v>
+        <v>438</v>
       </c>
       <c r="C121" s="9" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D121" s="9" t="s">
-        <v>417</v>
+        <v>70</v>
       </c>
       <c r="E121" s="9" t="s">
-        <v>305</v>
+        <v>250</v>
       </c>
       <c r="F121" s="10">
-        <v>10782745</v>
+        <v>10094860</v>
       </c>
       <c r="G121" s="11" t="s">
-        <v>416</v>
+        <v>106</v>
       </c>
       <c r="H121" s="12">
-        <v>43504</v>
+        <v>41465</v>
       </c>
       <c r="I121" s="12">
-        <v>43504</v>
+        <v>41465</v>
       </c>
       <c r="K121" s="11"/>
       <c r="L121" s="11"/>
-      <c r="M121" s="11">
-        <v>0</v>
-      </c>
-      <c r="N121" s="11">
-        <v>0</v>
+      <c r="M121" s="9">
+        <v>2</v>
+      </c>
+      <c r="N121" s="9">
+        <v>3</v>
+      </c>
+      <c r="O121" s="9" t="s">
+        <v>229</v>
       </c>
       <c r="P121" s="11" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="Q121" s="14" t="s">
-        <v>543</v>
+        <v>560</v>
       </c>
       <c r="R121" s="9" t="s">
-        <v>525</v>
-      </c>
-      <c r="S121" s="11" t="s">
+        <v>533</v>
+      </c>
+      <c r="S121" s="9" t="s">
         <v>561</v>
       </c>
-    </row>
-    <row r="122" spans="1:20" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="T121" s="9" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="122" spans="1:20" ht="64" x14ac:dyDescent="0.2">
       <c r="A122" s="8" t="s">
-        <v>201</v>
+        <v>33</v>
       </c>
       <c r="B122" s="9" t="s">
-        <v>331</v>
-      </c>
-      <c r="C122" s="15" t="s">
-        <v>257</v>
-      </c>
-      <c r="D122" s="15" t="s">
-        <v>427</v>
+        <v>260</v>
+      </c>
+      <c r="C122" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="D122" s="9" t="s">
+        <v>70</v>
       </c>
       <c r="E122" s="9" t="s">
-        <v>305</v>
+        <v>250</v>
       </c>
       <c r="F122" s="10">
-        <v>10633816</v>
+        <v>10870285</v>
       </c>
       <c r="G122" s="11" t="s">
-        <v>424</v>
+        <v>34</v>
       </c>
       <c r="H122" s="12">
-        <v>42177</v>
-      </c>
-      <c r="I122" s="12">
-        <v>42177</v>
+        <v>44302</v>
       </c>
       <c r="K122" s="11"/>
       <c r="L122" s="11"/>
       <c r="M122" s="11">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="N122" s="11">
-        <v>6</v>
-      </c>
-      <c r="O122" s="9" t="s">
-        <v>426</v>
-      </c>
-      <c r="P122" s="11" t="s">
-        <v>298</v>
-      </c>
-      <c r="Q122" s="14" t="s">
-        <v>550</v>
-      </c>
-      <c r="R122" s="9" t="s">
-        <v>549</v>
-      </c>
-      <c r="S122" s="11" t="s">
-        <v>551</v>
-      </c>
-      <c r="T122" s="9" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="123" spans="1:20" ht="192" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:20" ht="380" x14ac:dyDescent="0.2">
       <c r="A123" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="B123" s="9" t="s">
-        <v>302</v>
-      </c>
-      <c r="C123" s="9" t="s">
-        <v>257</v>
-      </c>
-      <c r="D123" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="B123" s="11" t="s">
+        <v>411</v>
+      </c>
+      <c r="C123" s="11" t="s">
+        <v>256</v>
+      </c>
+      <c r="D123" s="11" t="s">
         <v>70</v>
       </c>
       <c r="E123" s="9" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F123" s="10">
-        <v>10686187</v>
-      </c>
-      <c r="G123" s="9" t="s">
-        <v>304</v>
-      </c>
-      <c r="H123" s="14">
-        <v>42556</v>
-      </c>
-      <c r="I123" s="14">
-        <v>42556</v>
+        <v>10852057</v>
+      </c>
+      <c r="I123" s="12">
+        <v>44084</v>
       </c>
       <c r="K123" s="11"/>
       <c r="L123" s="11"/>
-      <c r="M123" s="9">
-        <v>0</v>
-      </c>
-      <c r="N123" s="9">
-        <v>0</v>
+      <c r="M123" s="11">
+        <v>1</v>
+      </c>
+      <c r="N123" s="11">
+        <v>2</v>
+      </c>
+      <c r="O123" s="9" t="s">
+        <v>412</v>
       </c>
       <c r="P123" s="11" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="Q123" s="14" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="R123" s="9" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="S123" s="11" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="124" spans="1:20" ht="335" x14ac:dyDescent="0.2">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="124" spans="1:20" ht="160" x14ac:dyDescent="0.2">
       <c r="A124" s="8" t="s">
-        <v>151</v>
+        <v>182</v>
       </c>
       <c r="B124" s="9" t="s">
-        <v>152</v>
+        <v>183</v>
       </c>
       <c r="C124" s="9" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D124" s="9" t="s">
-        <v>430</v>
+        <v>404</v>
       </c>
       <c r="E124" s="9" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F124" s="10">
-        <v>10665838</v>
+        <v>10474153</v>
       </c>
       <c r="G124" s="11" t="s">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="H124" s="12">
-        <v>42457</v>
+        <v>41624</v>
       </c>
       <c r="I124" s="12">
-        <v>42457</v>
+        <v>41624</v>
       </c>
       <c r="K124" s="11"/>
       <c r="L124" s="11"/>
       <c r="M124" s="11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N124" s="11">
         <v>0</v>
       </c>
       <c r="P124" s="11" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="Q124" s="14" t="s">
-        <v>552</v>
+        <v>556</v>
       </c>
       <c r="R124" s="9" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="125" spans="1:20" ht="48" x14ac:dyDescent="0.2">
+        <v>557</v>
+      </c>
+      <c r="S124" s="11" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="125" spans="1:20" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A125" s="8" t="s">
-        <v>145</v>
+        <v>192</v>
       </c>
       <c r="B125" s="9" t="s">
-        <v>339</v>
-      </c>
-      <c r="C125" s="9" t="s">
-        <v>257</v>
-      </c>
-      <c r="D125" s="9" t="s">
-        <v>431</v>
-      </c>
-      <c r="E125" s="13" t="s">
-        <v>305</v>
+        <v>405</v>
+      </c>
+      <c r="C125" s="11" t="s">
+        <v>256</v>
+      </c>
+      <c r="D125" s="11" t="s">
+        <v>392</v>
+      </c>
+      <c r="E125" s="9" t="s">
+        <v>304</v>
       </c>
       <c r="F125" s="10">
-        <v>10485316</v>
+        <v>10086997</v>
+      </c>
+      <c r="G125" s="11" t="s">
+        <v>406</v>
+      </c>
+      <c r="H125" s="12">
+        <v>41465</v>
       </c>
       <c r="I125" s="12">
-        <v>41703</v>
-      </c>
-      <c r="J125" s="9" t="s">
-        <v>662</v>
+        <v>41465</v>
       </c>
       <c r="K125" s="11"/>
       <c r="L125" s="11"/>
       <c r="M125" s="11">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N125" s="11">
-        <v>0</v>
+        <v>6</v>
+      </c>
+      <c r="O125" s="9" t="s">
+        <v>407</v>
       </c>
       <c r="P125" s="11" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="126" spans="1:20" ht="409.6" x14ac:dyDescent="0.2">
+        <v>297</v>
+      </c>
+      <c r="Q125" s="14" t="s">
+        <v>556</v>
+      </c>
+      <c r="R125" s="9" t="s">
+        <v>557</v>
+      </c>
+      <c r="S125" s="11" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="126" spans="1:20" ht="160" x14ac:dyDescent="0.2">
       <c r="A126" s="8" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="B126" s="9" t="s">
-        <v>325</v>
-      </c>
-      <c r="C126" s="9" t="s">
-        <v>257</v>
-      </c>
-      <c r="D126" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="E126" s="13" t="s">
-        <v>305</v>
+        <v>154</v>
+      </c>
+      <c r="C126" s="11" t="s">
+        <v>256</v>
+      </c>
+      <c r="D126" s="11" t="s">
+        <v>392</v>
+      </c>
+      <c r="E126" s="9" t="s">
+        <v>304</v>
       </c>
       <c r="F126" s="10">
-        <v>10085398</v>
+        <v>10809193</v>
       </c>
       <c r="G126" s="11" t="s">
-        <v>139</v>
+        <v>480</v>
       </c>
       <c r="H126" s="12">
-        <v>41465</v>
+        <v>43636</v>
       </c>
       <c r="I126" s="12">
-        <v>41465</v>
+        <v>43636</v>
       </c>
       <c r="K126" s="11"/>
       <c r="L126" s="11"/>
       <c r="M126" s="11">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="N126" s="11">
-        <v>10</v>
-      </c>
-      <c r="O126" s="9" t="s">
-        <v>372</v>
+        <v>0</v>
+      </c>
+      <c r="P126" s="11" t="s">
+        <v>297</v>
       </c>
       <c r="Q126" s="14" t="s">
-        <v>552</v>
+        <v>556</v>
       </c>
       <c r="R126" s="9" t="s">
-        <v>553</v>
-      </c>
-      <c r="S126" s="9"/>
-      <c r="T126" s="9" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="127" spans="1:20" ht="288" x14ac:dyDescent="0.2">
+        <v>557</v>
+      </c>
+      <c r="S126" s="11" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="127" spans="1:20" ht="144" x14ac:dyDescent="0.2">
       <c r="A127" s="8" t="s">
-        <v>102</v>
+        <v>188</v>
       </c>
       <c r="B127" s="9" t="s">
-        <v>365</v>
+        <v>189</v>
       </c>
       <c r="C127" s="9" t="s">
-        <v>305</v>
+        <v>256</v>
       </c>
       <c r="D127" s="9" t="s">
-        <v>393</v>
-      </c>
-      <c r="E127" s="13">
-        <v>43900</v>
+        <v>416</v>
+      </c>
+      <c r="E127" s="9" t="s">
+        <v>304</v>
       </c>
       <c r="F127" s="10">
-        <v>10839175</v>
+        <v>10782745</v>
       </c>
       <c r="G127" s="11" t="s">
-        <v>103</v>
+        <v>415</v>
       </c>
       <c r="H127" s="12">
-        <v>43900</v>
+        <v>43504</v>
       </c>
       <c r="I127" s="12">
-        <v>43900</v>
+        <v>43504</v>
       </c>
       <c r="K127" s="11"/>
       <c r="L127" s="11"/>
-      <c r="M127" s="9">
-        <v>2</v>
-      </c>
-      <c r="N127" s="9">
+      <c r="M127" s="11">
+        <v>0</v>
+      </c>
+      <c r="N127" s="11">
         <v>0</v>
       </c>
       <c r="P127" s="11" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="Q127" s="14" t="s">
-        <v>550</v>
+        <v>541</v>
       </c>
       <c r="R127" s="9" t="s">
-        <v>549</v>
+        <v>523</v>
       </c>
       <c r="S127" s="11" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="128" spans="1:20" ht="176" x14ac:dyDescent="0.2">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="128" spans="1:20" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A128" s="8" t="s">
-        <v>63</v>
+        <v>200</v>
       </c>
       <c r="B128" s="9" t="s">
-        <v>277</v>
-      </c>
-      <c r="C128" s="9" t="s">
-        <v>276</v>
-      </c>
-      <c r="D128" s="9" t="s">
-        <v>70</v>
+        <v>330</v>
+      </c>
+      <c r="C128" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="D128" s="15" t="s">
+        <v>426</v>
       </c>
       <c r="E128" s="9" t="s">
-        <v>288</v>
+        <v>304</v>
       </c>
       <c r="F128" s="10">
-        <v>10889491</v>
+        <v>10633816</v>
       </c>
       <c r="G128" s="11" t="s">
-        <v>64</v>
+        <v>423</v>
       </c>
       <c r="H128" s="12">
-        <v>44586</v>
+        <v>42177</v>
+      </c>
+      <c r="I128" s="12">
+        <v>42177</v>
       </c>
       <c r="K128" s="11"/>
       <c r="L128" s="11"/>
       <c r="M128" s="11">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="N128" s="11">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="O128" s="9" t="s">
-        <v>65</v>
+        <v>425</v>
+      </c>
+      <c r="P128" s="11" t="s">
+        <v>297</v>
       </c>
       <c r="Q128" s="14" t="s">
+        <v>548</v>
+      </c>
+      <c r="R128" s="9" t="s">
         <v>547</v>
       </c>
-      <c r="R128" s="9" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="129" spans="1:20" ht="80" x14ac:dyDescent="0.2">
+      <c r="S128" s="11" t="s">
+        <v>549</v>
+      </c>
+      <c r="T128" s="9" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="129" spans="1:20" ht="192" x14ac:dyDescent="0.2">
       <c r="A129" s="8" t="s">
-        <v>68</v>
+        <v>95</v>
       </c>
       <c r="B129" s="9" t="s">
-        <v>290</v>
+        <v>301</v>
       </c>
       <c r="C129" s="9" t="s">
-        <v>289</v>
+        <v>256</v>
       </c>
       <c r="D129" s="9" t="s">
         <v>70</v>
       </c>
       <c r="E129" s="9" t="s">
-        <v>228</v>
+        <v>304</v>
       </c>
       <c r="F129" s="10">
-        <v>10889497</v>
-      </c>
-      <c r="G129" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="H129" s="12">
-        <v>44586</v>
-      </c>
-      <c r="K129" s="9" t="s">
-        <v>676</v>
-      </c>
+        <v>10686187</v>
+      </c>
+      <c r="G129" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="H129" s="14">
+        <v>42556</v>
+      </c>
+      <c r="I129" s="14">
+        <v>42556</v>
+      </c>
+      <c r="K129" s="11"/>
       <c r="L129" s="11"/>
-      <c r="M129" s="11">
-        <v>1</v>
-      </c>
-      <c r="N129" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="1:20" ht="128" x14ac:dyDescent="0.2">
+      <c r="M129" s="9">
+        <v>0</v>
+      </c>
+      <c r="N129" s="9">
+        <v>0</v>
+      </c>
+      <c r="P129" s="11" t="s">
+        <v>297</v>
+      </c>
+      <c r="Q129" s="14" t="s">
+        <v>552</v>
+      </c>
+      <c r="R129" s="9" t="s">
+        <v>554</v>
+      </c>
+      <c r="S129" s="11" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="130" spans="1:20" ht="335" x14ac:dyDescent="0.2">
       <c r="A130" s="8" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="B130" s="9" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="C130" s="9" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
       <c r="D130" s="9" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="E130" s="9" t="s">
-        <v>286</v>
+        <v>304</v>
       </c>
       <c r="F130" s="10">
-        <v>10489762</v>
+        <v>10665838</v>
+      </c>
+      <c r="G130" s="11" t="s">
+        <v>428</v>
+      </c>
+      <c r="H130" s="12">
+        <v>42457</v>
       </c>
       <c r="I130" s="12">
-        <v>41729</v>
+        <v>42457</v>
       </c>
       <c r="K130" s="11"/>
       <c r="L130" s="11"/>
       <c r="M130" s="11">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="N130" s="11">
         <v>0</v>
       </c>
       <c r="P130" s="11" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="Q130" s="14" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
       <c r="R130" s="9" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="131" spans="1:20" ht="357" customHeight="1" x14ac:dyDescent="0.2">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="131" spans="1:20" ht="48" x14ac:dyDescent="0.2">
       <c r="A131" s="8" t="s">
-        <v>180</v>
+        <v>144</v>
       </c>
       <c r="B131" s="9" t="s">
-        <v>181</v>
+        <v>338</v>
       </c>
       <c r="C131" s="9" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
       <c r="D131" s="9" t="s">
-        <v>414</v>
-      </c>
-      <c r="E131" s="9" t="s">
-        <v>286</v>
+        <v>430</v>
+      </c>
+      <c r="E131" s="13" t="s">
+        <v>304</v>
       </c>
       <c r="F131" s="10">
-        <v>10648177</v>
-      </c>
-      <c r="G131" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="H131" s="12">
-        <v>42303</v>
+        <v>10485316</v>
       </c>
       <c r="I131" s="12">
-        <v>42303</v>
+        <v>41703</v>
+      </c>
+      <c r="J131" s="9" t="s">
+        <v>660</v>
       </c>
       <c r="K131" s="11"/>
       <c r="L131" s="11"/>
       <c r="M131" s="11">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="N131" s="11">
-        <v>2</v>
-      </c>
-      <c r="O131" s="9" t="s">
-        <v>415</v>
+        <v>0</v>
       </c>
       <c r="P131" s="11" t="s">
-        <v>298</v>
-      </c>
-      <c r="Q131" s="14" t="s">
-        <v>544</v>
-      </c>
-      <c r="R131" s="9" t="s">
-        <v>537</v>
-      </c>
-      <c r="S131" s="11" t="s">
-        <v>536</v>
+        <v>297</v>
       </c>
     </row>
     <row r="132" spans="1:20" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A132" s="8" t="s">
-        <v>203</v>
-      </c>
-      <c r="B132" s="11" t="s">
-        <v>419</v>
-      </c>
-      <c r="C132" s="11" t="s">
-        <v>271</v>
-      </c>
-      <c r="D132" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="B132" s="9" t="s">
+        <v>324</v>
+      </c>
+      <c r="C132" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="D132" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="E132" s="9" t="s">
-        <v>286</v>
+      <c r="E132" s="13" t="s">
+        <v>304</v>
       </c>
       <c r="F132" s="10">
-        <v>10467289</v>
+        <v>10085398</v>
       </c>
       <c r="G132" s="11" t="s">
-        <v>420</v>
+        <v>139</v>
       </c>
       <c r="H132" s="12">
-        <v>41576</v>
+        <v>41465</v>
       </c>
       <c r="I132" s="12">
-        <v>41576</v>
+        <v>41465</v>
       </c>
       <c r="K132" s="11"/>
       <c r="L132" s="11"/>
       <c r="M132" s="11">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N132" s="11">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="O132" s="9" t="s">
-        <v>421</v>
-      </c>
-      <c r="P132" s="11" t="s">
-        <v>298</v>
+        <v>371</v>
       </c>
       <c r="Q132" s="14" t="s">
-        <v>543</v>
+        <v>550</v>
       </c>
       <c r="R132" s="9" t="s">
-        <v>525</v>
-      </c>
+        <v>551</v>
+      </c>
+      <c r="S132" s="9"/>
       <c r="T132" s="9" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="133" spans="1:20" ht="409.6" x14ac:dyDescent="0.2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="133" spans="1:20" ht="288" x14ac:dyDescent="0.2">
       <c r="A133" s="8" t="s">
-        <v>50</v>
+        <v>102</v>
       </c>
       <c r="B133" s="9" t="s">
-        <v>272</v>
+        <v>364</v>
       </c>
       <c r="C133" s="9" t="s">
-        <v>271</v>
+        <v>304</v>
       </c>
       <c r="D133" s="9" t="s">
-        <v>380</v>
-      </c>
-      <c r="E133" s="9" t="s">
-        <v>286</v>
+        <v>392</v>
+      </c>
+      <c r="E133" s="13">
+        <v>43900</v>
       </c>
       <c r="F133" s="10">
-        <v>10663855</v>
+        <v>10839175</v>
       </c>
       <c r="G133" s="11" t="s">
-        <v>51</v>
+        <v>103</v>
       </c>
       <c r="H133" s="12">
-        <v>42439</v>
-      </c>
-      <c r="K133" s="9" t="s">
-        <v>597</v>
-      </c>
+        <v>43900</v>
+      </c>
+      <c r="I133" s="12">
+        <v>43900</v>
+      </c>
+      <c r="K133" s="11"/>
       <c r="L133" s="11"/>
       <c r="M133" s="9">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="N133" s="9">
-        <v>1</v>
-      </c>
-      <c r="O133" s="9" t="s">
-        <v>232</v>
+        <v>0</v>
+      </c>
+      <c r="P133" s="11" t="s">
+        <v>297</v>
       </c>
       <c r="Q133" s="14" t="s">
-        <v>540</v>
+        <v>548</v>
       </c>
       <c r="R133" s="9" t="s">
-        <v>541</v>
-      </c>
-      <c r="S133" s="9" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="134" spans="1:20" ht="272" x14ac:dyDescent="0.2">
+        <v>547</v>
+      </c>
+      <c r="S133" s="11" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="134" spans="1:20" ht="176" x14ac:dyDescent="0.2">
       <c r="A134" s="8" t="s">
-        <v>166</v>
+        <v>63</v>
       </c>
       <c r="B134" s="9" t="s">
-        <v>169</v>
+        <v>276</v>
       </c>
       <c r="C134" s="9" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="D134" s="9" t="s">
-        <v>443</v>
+        <v>70</v>
       </c>
       <c r="E134" s="9" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="F134" s="10">
-        <v>10420216</v>
+        <v>10889491</v>
       </c>
       <c r="G134" s="11" t="s">
-        <v>442</v>
+        <v>64</v>
       </c>
       <c r="H134" s="12">
-        <v>41465</v>
-      </c>
-      <c r="I134" s="12">
-        <v>41465</v>
+        <v>44586</v>
       </c>
       <c r="K134" s="11"/>
       <c r="L134" s="11"/>
       <c r="M134" s="11">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="N134" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O134" s="9" t="s">
-        <v>444</v>
-      </c>
-      <c r="P134" s="11" t="s">
-        <v>298</v>
+        <v>65</v>
       </c>
       <c r="Q134" s="14" t="s">
-        <v>538</v>
+        <v>545</v>
       </c>
       <c r="R134" s="9" t="s">
-        <v>539</v>
-      </c>
-      <c r="T134" s="9" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="135" spans="1:20" ht="409.6" x14ac:dyDescent="0.2">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="135" spans="1:20" ht="80" x14ac:dyDescent="0.2">
       <c r="A135" s="8" t="s">
-        <v>158</v>
+        <v>68</v>
       </c>
       <c r="B135" s="9" t="s">
-        <v>159</v>
+        <v>289</v>
       </c>
       <c r="C135" s="9" t="s">
-        <v>271</v>
+        <v>288</v>
       </c>
       <c r="D135" s="9" t="s">
-        <v>443</v>
+        <v>70</v>
       </c>
       <c r="E135" s="9" t="s">
-        <v>286</v>
+        <v>227</v>
       </c>
       <c r="F135" s="10">
-        <v>10420222</v>
+        <v>10889497</v>
       </c>
       <c r="G135" s="11" t="s">
-        <v>442</v>
+        <v>69</v>
       </c>
       <c r="H135" s="12">
-        <v>41465</v>
-      </c>
-      <c r="I135" s="12">
-        <v>41465</v>
+        <v>44586</v>
       </c>
       <c r="K135" s="9" t="s">
-        <v>654</v>
-      </c>
-      <c r="L135" s="9" t="s">
         <v>674</v>
       </c>
+      <c r="L135" s="11"/>
       <c r="M135" s="11">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="N135" s="11">
-        <v>2</v>
-      </c>
-      <c r="O135" s="9" t="s">
-        <v>445</v>
-      </c>
-      <c r="P135" s="11" t="s">
-        <v>298</v>
-      </c>
-      <c r="Q135" s="14" t="s">
-        <v>538</v>
-      </c>
-      <c r="R135" s="9" t="s">
-        <v>539</v>
-      </c>
-      <c r="T135" s="9" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="136" spans="1:20" ht="350" customHeight="1" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:20" ht="128" x14ac:dyDescent="0.2">
       <c r="A136" s="8" t="s">
-        <v>200</v>
+        <v>161</v>
       </c>
       <c r="B136" s="9" t="s">
-        <v>422</v>
-      </c>
-      <c r="C136" s="11" t="s">
-        <v>271</v>
-      </c>
-      <c r="D136" s="11" t="s">
-        <v>70</v>
+        <v>162</v>
+      </c>
+      <c r="C136" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="D136" s="9" t="s">
+        <v>440</v>
       </c>
       <c r="E136" s="9" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F136" s="10">
-        <v>10665475</v>
-      </c>
-      <c r="G136" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="H136" s="12">
-        <v>42453</v>
+        <v>10489762</v>
       </c>
       <c r="I136" s="12">
-        <v>42453</v>
+        <v>41729</v>
       </c>
       <c r="K136" s="11"/>
       <c r="L136" s="11"/>
       <c r="M136" s="11">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="N136" s="11">
-        <v>2</v>
-      </c>
-      <c r="O136" s="9" t="s">
-        <v>423</v>
+        <v>0</v>
       </c>
       <c r="P136" s="11" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="Q136" s="14" t="s">
         <v>544</v>
       </c>
       <c r="R136" s="9" t="s">
-        <v>537</v>
-      </c>
-      <c r="S136" s="11" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="137" spans="1:20" ht="351" customHeight="1" x14ac:dyDescent="0.2">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="137" spans="1:20" ht="357" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="8" t="s">
-        <v>128</v>
+        <v>179</v>
       </c>
       <c r="B137" s="9" t="s">
-        <v>319</v>
+        <v>180</v>
       </c>
       <c r="C137" s="9" t="s">
-        <v>271</v>
-      </c>
-      <c r="D137" s="11" t="s">
-        <v>70</v>
+        <v>270</v>
+      </c>
+      <c r="D137" s="9" t="s">
+        <v>413</v>
       </c>
       <c r="E137" s="9" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F137" s="10">
-        <v>10632550</v>
+        <v>10648177</v>
       </c>
       <c r="G137" s="11" t="s">
         <v>129</v>
       </c>
       <c r="H137" s="12">
-        <v>42173</v>
+        <v>42303</v>
       </c>
       <c r="I137" s="12">
-        <v>42173</v>
+        <v>42303</v>
       </c>
       <c r="K137" s="11"/>
       <c r="L137" s="11"/>
       <c r="M137" s="11">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="N137" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O137" s="9" t="s">
-        <v>483</v>
+        <v>414</v>
       </c>
       <c r="P137" s="11" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="Q137" s="14" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="R137" s="9" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="S137" s="11" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="138" spans="1:20" ht="272" x14ac:dyDescent="0.2">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="138" spans="1:20" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A138" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="B138" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="C138" s="9" t="s">
-        <v>271</v>
-      </c>
-      <c r="D138" s="9" t="s">
-        <v>399</v>
+        <v>202</v>
+      </c>
+      <c r="B138" s="11" t="s">
+        <v>418</v>
+      </c>
+      <c r="C138" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="D138" s="11" t="s">
+        <v>70</v>
       </c>
       <c r="E138" s="9" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F138" s="10">
-        <v>10745812</v>
+        <v>10467289</v>
       </c>
       <c r="G138" s="11" t="s">
-        <v>76</v>
+        <v>419</v>
       </c>
       <c r="H138" s="12">
-        <v>43005</v>
+        <v>41576</v>
       </c>
       <c r="I138" s="12">
-        <v>43005</v>
+        <v>41576</v>
       </c>
       <c r="K138" s="11"/>
       <c r="L138" s="11"/>
       <c r="M138" s="11">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N138" s="11">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O138" s="9" t="s">
-        <v>484</v>
+        <v>420</v>
       </c>
       <c r="P138" s="11" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="Q138" s="14" t="s">
-        <v>531</v>
+        <v>541</v>
       </c>
       <c r="R138" s="9" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="139" spans="1:20" ht="80" x14ac:dyDescent="0.2">
+        <v>523</v>
+      </c>
+      <c r="T138" s="9" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="139" spans="1:20" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A139" s="8" t="s">
-        <v>124</v>
+        <v>50</v>
       </c>
       <c r="B139" s="9" t="s">
-        <v>332</v>
+        <v>271</v>
       </c>
       <c r="C139" s="9" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D139" s="9" t="s">
-        <v>399</v>
+        <v>379</v>
       </c>
       <c r="E139" s="9" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F139" s="10">
-        <v>10745809</v>
+        <v>10663855</v>
       </c>
       <c r="G139" s="11" t="s">
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="H139" s="12">
-        <v>43005</v>
-      </c>
-      <c r="I139" s="12">
-        <v>43005</v>
-      </c>
-      <c r="K139" s="11"/>
+        <v>42439</v>
+      </c>
+      <c r="K139" s="9" t="s">
+        <v>595</v>
+      </c>
       <c r="L139" s="11"/>
-      <c r="M139" s="11">
-        <v>12</v>
-      </c>
-      <c r="N139" s="11">
-        <v>0</v>
-      </c>
-      <c r="P139" s="11" t="s">
-        <v>298</v>
+      <c r="M139" s="9">
+        <v>7</v>
+      </c>
+      <c r="N139" s="9">
+        <v>1</v>
+      </c>
+      <c r="O139" s="9" t="s">
+        <v>231</v>
       </c>
       <c r="Q139" s="14" t="s">
-        <v>531</v>
+        <v>538</v>
       </c>
       <c r="R139" s="9" t="s">
-        <v>532</v>
-      </c>
-      <c r="T139" s="9" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="140" spans="1:20" ht="192" x14ac:dyDescent="0.2">
+        <v>539</v>
+      </c>
+      <c r="S139" s="9" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="140" spans="1:20" ht="272" x14ac:dyDescent="0.2">
       <c r="A140" s="8" t="s">
-        <v>134</v>
+        <v>165</v>
       </c>
       <c r="B140" s="9" t="s">
-        <v>322</v>
+        <v>168</v>
       </c>
       <c r="C140" s="9" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D140" s="9" t="s">
-        <v>388</v>
+        <v>442</v>
       </c>
       <c r="E140" s="9" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F140" s="10">
-        <v>10689787</v>
+        <v>10420216</v>
+      </c>
+      <c r="G140" s="11" t="s">
+        <v>441</v>
+      </c>
+      <c r="H140" s="12">
+        <v>41465</v>
       </c>
       <c r="I140" s="12">
-        <v>42600</v>
+        <v>41465</v>
       </c>
       <c r="K140" s="11"/>
       <c r="L140" s="11"/>
       <c r="M140" s="11">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="N140" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O140" s="9" t="s">
-        <v>377</v>
+        <v>443</v>
       </c>
       <c r="P140" s="11" t="s">
-        <v>298</v>
-      </c>
-      <c r="Q140" s="20" t="s">
-        <v>534</v>
-      </c>
-      <c r="R140" s="21" t="s">
-        <v>535</v>
+        <v>297</v>
+      </c>
+      <c r="Q140" s="14" t="s">
+        <v>536</v>
+      </c>
+      <c r="R140" s="9" t="s">
+        <v>537</v>
       </c>
       <c r="T140" s="9" t="s">
-        <v>387</v>
+        <v>240</v>
       </c>
     </row>
     <row r="141" spans="1:20" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A141" s="8" t="s">
-        <v>135</v>
+        <v>157</v>
       </c>
       <c r="B141" s="9" t="s">
-        <v>323</v>
+        <v>158</v>
       </c>
       <c r="C141" s="9" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D141" s="9" t="s">
-        <v>388</v>
+        <v>442</v>
       </c>
       <c r="E141" s="9" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F141" s="10">
-        <v>10688821</v>
+        <v>10420222</v>
       </c>
       <c r="G141" s="11" t="s">
-        <v>136</v>
+        <v>441</v>
       </c>
       <c r="H141" s="12">
-        <v>42590</v>
+        <v>41465</v>
       </c>
       <c r="I141" s="12">
-        <v>42590</v>
-      </c>
-      <c r="K141" s="11"/>
-      <c r="L141" s="11"/>
+        <v>41465</v>
+      </c>
+      <c r="K141" s="9" t="s">
+        <v>652</v>
+      </c>
+      <c r="L141" s="9" t="s">
+        <v>672</v>
+      </c>
       <c r="M141" s="11">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="N141" s="11">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O141" s="9" t="s">
-        <v>390</v>
-      </c>
-      <c r="Q141" s="20" t="s">
-        <v>534</v>
-      </c>
-      <c r="R141" s="21" t="s">
-        <v>535</v>
+        <v>444</v>
+      </c>
+      <c r="P141" s="11" t="s">
+        <v>297</v>
+      </c>
+      <c r="Q141" s="14" t="s">
+        <v>536</v>
+      </c>
+      <c r="R141" s="9" t="s">
+        <v>537</v>
       </c>
       <c r="T141" s="9" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="142" spans="1:20" ht="32" x14ac:dyDescent="0.2">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="142" spans="1:20" ht="350" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="B142" s="11" t="s">
-        <v>593</v>
+        <v>199</v>
+      </c>
+      <c r="B142" s="9" t="s">
+        <v>421</v>
       </c>
       <c r="C142" s="11" t="s">
-        <v>271</v>
-      </c>
-      <c r="D142" s="9"/>
-      <c r="E142" s="10"/>
+        <v>270</v>
+      </c>
+      <c r="D142" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="E142" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="F142" s="10">
+        <v>10665475</v>
+      </c>
+      <c r="G142" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="H142" s="12">
+        <v>42453</v>
+      </c>
+      <c r="I142" s="12">
+        <v>42453</v>
+      </c>
       <c r="K142" s="11"/>
       <c r="L142" s="11"/>
-      <c r="O142" s="9"/>
-      <c r="Q142" s="19" t="s">
-        <v>533</v>
-      </c>
-      <c r="R142" s="26" t="s">
+      <c r="M142" s="11">
+        <v>10</v>
+      </c>
+      <c r="N142" s="11">
+        <v>2</v>
+      </c>
+      <c r="O142" s="9" t="s">
+        <v>422</v>
+      </c>
+      <c r="P142" s="11" t="s">
+        <v>297</v>
+      </c>
+      <c r="Q142" s="14" t="s">
+        <v>542</v>
+      </c>
+      <c r="R142" s="9" t="s">
         <v>535</v>
       </c>
-    </row>
-    <row r="143" spans="1:20" ht="311" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S142" s="11" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="143" spans="1:20" ht="351" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="8" t="s">
-        <v>194</v>
+        <v>128</v>
       </c>
       <c r="B143" s="9" t="s">
-        <v>409</v>
-      </c>
-      <c r="C143" s="11" t="s">
-        <v>271</v>
+        <v>318</v>
+      </c>
+      <c r="C143" s="9" t="s">
+        <v>270</v>
       </c>
       <c r="D143" s="11" t="s">
-        <v>410</v>
+        <v>70</v>
       </c>
       <c r="E143" s="9" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F143" s="10">
-        <v>10420192</v>
+        <v>10632550</v>
+      </c>
+      <c r="G143" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="H143" s="12">
+        <v>42173</v>
       </c>
       <c r="I143" s="12">
-        <v>41465</v>
+        <v>42173</v>
       </c>
       <c r="K143" s="11"/>
       <c r="L143" s="11"/>
       <c r="M143" s="11">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="N143" s="11">
         <v>1</v>
       </c>
       <c r="O143" s="9" t="s">
-        <v>411</v>
+        <v>481</v>
       </c>
       <c r="P143" s="11" t="s">
-        <v>298</v>
-      </c>
-      <c r="Q143" s="20" t="s">
+        <v>297</v>
+      </c>
+      <c r="Q143" s="14" t="s">
+        <v>542</v>
+      </c>
+      <c r="R143" s="9" t="s">
+        <v>535</v>
+      </c>
+      <c r="S143" s="11" t="s">
         <v>534</v>
       </c>
-      <c r="R143" s="21" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="144" spans="1:20" ht="320" x14ac:dyDescent="0.2">
+    </row>
+    <row r="144" spans="1:20" ht="272" x14ac:dyDescent="0.2">
       <c r="A144" s="8" t="s">
-        <v>122</v>
+        <v>173</v>
       </c>
       <c r="B144" s="9" t="s">
-        <v>333</v>
+        <v>174</v>
       </c>
       <c r="C144" s="9" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D144" s="9" t="s">
-        <v>388</v>
-      </c>
-      <c r="E144" s="13" t="s">
-        <v>286</v>
+        <v>398</v>
+      </c>
+      <c r="E144" s="9" t="s">
+        <v>285</v>
       </c>
       <c r="F144" s="10">
-        <v>10730890</v>
+        <v>10745812</v>
+      </c>
+      <c r="G144" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="H144" s="12">
+        <v>43005</v>
       </c>
       <c r="I144" s="12">
-        <v>42815</v>
+        <v>43005</v>
       </c>
       <c r="K144" s="11"/>
       <c r="L144" s="11"/>
-      <c r="M144" s="9">
-        <v>4</v>
-      </c>
-      <c r="N144" s="9">
+      <c r="M144" s="11">
+        <v>12</v>
+      </c>
+      <c r="N144" s="11">
         <v>2</v>
       </c>
       <c r="O144" s="9" t="s">
-        <v>123</v>
+        <v>482</v>
       </c>
       <c r="P144" s="11" t="s">
-        <v>298</v>
-      </c>
-      <c r="Q144" s="25" t="s">
-        <v>534</v>
-      </c>
-      <c r="R144" s="25" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="145" spans="1:20" ht="192" x14ac:dyDescent="0.2">
+        <v>297</v>
+      </c>
+      <c r="Q144" s="14" t="s">
+        <v>529</v>
+      </c>
+      <c r="R144" s="9" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="145" spans="1:20" ht="80" x14ac:dyDescent="0.2">
       <c r="A145" s="8" t="s">
-        <v>196</v>
+        <v>124</v>
       </c>
       <c r="B145" s="9" t="s">
-        <v>376</v>
-      </c>
-      <c r="C145" s="11" t="s">
-        <v>271</v>
+        <v>331</v>
+      </c>
+      <c r="C145" s="9" t="s">
+        <v>270</v>
       </c>
       <c r="D145" s="9" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="E145" s="9" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F145" s="10">
-        <v>10688590</v>
+        <v>10745809</v>
+      </c>
+      <c r="G145" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="H145" s="12">
+        <v>43005</v>
       </c>
       <c r="I145" s="12">
-        <v>42585</v>
+        <v>43005</v>
       </c>
       <c r="K145" s="11"/>
       <c r="L145" s="11"/>
       <c r="M145" s="11">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="N145" s="11">
+        <v>0</v>
+      </c>
+      <c r="P145" s="11" t="s">
+        <v>297</v>
+      </c>
+      <c r="Q145" s="14" t="s">
+        <v>529</v>
+      </c>
+      <c r="R145" s="9" t="s">
+        <v>530</v>
+      </c>
+      <c r="T145" s="9" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="146" spans="1:20" ht="192" x14ac:dyDescent="0.2">
+      <c r="A146" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="B146" s="9" t="s">
+        <v>321</v>
+      </c>
+      <c r="C146" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="D146" s="9" t="s">
+        <v>387</v>
+      </c>
+      <c r="E146" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="F146" s="10">
+        <v>10689787</v>
+      </c>
+      <c r="I146" s="12">
+        <v>42600</v>
+      </c>
+      <c r="K146" s="11"/>
+      <c r="L146" s="11"/>
+      <c r="M146" s="11">
+        <v>9</v>
+      </c>
+      <c r="N146" s="11">
         <v>1</v>
       </c>
-      <c r="O145" s="9" t="s">
-        <v>377</v>
-      </c>
-      <c r="P145" s="11" t="s">
-        <v>298</v>
-      </c>
-      <c r="Q145" s="14" t="s">
-        <v>534</v>
-      </c>
-      <c r="R145" s="14" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="146" spans="1:20" ht="160" x14ac:dyDescent="0.2">
-      <c r="A146" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="B146" s="9" t="s">
-        <v>296</v>
-      </c>
-      <c r="C146" s="9" t="s">
-        <v>271</v>
-      </c>
-      <c r="D146" s="9" t="s">
-        <v>388</v>
-      </c>
-      <c r="E146" s="13" t="s">
-        <v>286</v>
-      </c>
-      <c r="F146" s="10">
-        <v>10866193</v>
-      </c>
-      <c r="I146" s="14">
-        <v>44252</v>
-      </c>
-      <c r="J146" s="9" t="s">
-        <v>637</v>
-      </c>
-      <c r="K146" s="11"/>
-      <c r="L146" s="11" t="s">
-        <v>595</v>
-      </c>
-      <c r="M146" s="9">
-        <v>2</v>
-      </c>
-      <c r="N146" s="9">
-        <v>1</v>
-      </c>
       <c r="O146" s="9" t="s">
-        <v>98</v>
+        <v>376</v>
       </c>
       <c r="P146" s="11" t="s">
-        <v>298</v>
-      </c>
-      <c r="Q146" s="14" t="s">
-        <v>534</v>
-      </c>
-      <c r="R146" s="14" t="s">
-        <v>535</v>
+        <v>297</v>
+      </c>
+      <c r="Q146" s="20" t="s">
+        <v>532</v>
+      </c>
+      <c r="R146" s="21" t="s">
+        <v>533</v>
+      </c>
+      <c r="T146" s="9" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="147" spans="1:20" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A147" s="8" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="B147" s="9" t="s">
-        <v>489</v>
+        <v>322</v>
       </c>
       <c r="C147" s="9" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D147" s="9" t="s">
-        <v>490</v>
-      </c>
-      <c r="E147" s="13" t="s">
-        <v>286</v>
+        <v>387</v>
+      </c>
+      <c r="E147" s="9" t="s">
+        <v>285</v>
       </c>
       <c r="F147" s="10">
-        <v>10636990</v>
+        <v>10688821</v>
+      </c>
+      <c r="G147" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="H147" s="12">
+        <v>42590</v>
       </c>
       <c r="I147" s="12">
-        <v>42201</v>
+        <v>42590</v>
       </c>
       <c r="K147" s="11"/>
       <c r="L147" s="11"/>
       <c r="M147" s="11">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="N147" s="11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O147" s="9" t="s">
-        <v>491</v>
-      </c>
-      <c r="P147" s="11" t="s">
-        <v>298</v>
-      </c>
-      <c r="Q147" s="14" t="s">
-        <v>534</v>
-      </c>
-      <c r="R147" s="14" t="s">
-        <v>535</v>
+        <v>389</v>
+      </c>
+      <c r="Q147" s="20" t="s">
+        <v>532</v>
+      </c>
+      <c r="R147" s="21" t="s">
+        <v>533</v>
       </c>
       <c r="T147" s="9" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="148" spans="1:20" ht="64" x14ac:dyDescent="0.2">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="148" spans="1:20" ht="32" x14ac:dyDescent="0.2">
       <c r="A148" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="B148" s="9" t="s">
-        <v>306</v>
-      </c>
-      <c r="C148" s="9" t="s">
-        <v>271</v>
-      </c>
-      <c r="D148" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="E148" s="9" t="s">
-        <v>286</v>
-      </c>
-      <c r="F148" s="10">
-        <v>10420228</v>
-      </c>
-      <c r="I148" s="14">
-        <v>41465</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="B148" s="11" t="s">
+        <v>591</v>
+      </c>
+      <c r="C148" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="D148" s="9"/>
+      <c r="E148" s="10"/>
       <c r="K148" s="11"/>
       <c r="L148" s="11"/>
-      <c r="M148" s="9">
-        <v>1</v>
-      </c>
-      <c r="N148" s="9">
-        <v>0</v>
-      </c>
-      <c r="P148" s="11" t="s">
-        <v>298</v>
-      </c>
-      <c r="Q148" s="14" t="s">
-        <v>534</v>
-      </c>
-      <c r="R148" s="14" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="149" spans="1:20" ht="64" x14ac:dyDescent="0.2">
+      <c r="O148" s="9"/>
+      <c r="Q148" s="19" t="s">
+        <v>531</v>
+      </c>
+      <c r="R148" s="26" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="149" spans="1:20" ht="311" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="8" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="B149" s="9" t="s">
-        <v>188</v>
-      </c>
-      <c r="C149" s="9" t="s">
-        <v>271</v>
-      </c>
-      <c r="D149" s="9" t="s">
-        <v>418</v>
+        <v>408</v>
+      </c>
+      <c r="C149" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="D149" s="11" t="s">
+        <v>409</v>
       </c>
       <c r="E149" s="9" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F149" s="10">
-        <v>10783150</v>
+        <v>10420192</v>
       </c>
       <c r="I149" s="12">
-        <v>43509</v>
+        <v>41465</v>
       </c>
       <c r="K149" s="11"/>
       <c r="L149" s="11"/>
       <c r="M149" s="11">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="N149" s="11">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="O149" s="9" t="s">
+        <v>410</v>
       </c>
       <c r="P149" s="11" t="s">
-        <v>298</v>
-      </c>
-      <c r="Q149" s="14" t="s">
-        <v>534</v>
-      </c>
-      <c r="R149" s="14" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="150" spans="1:20" ht="112" x14ac:dyDescent="0.2">
+        <v>297</v>
+      </c>
+      <c r="Q149" s="20" t="s">
+        <v>532</v>
+      </c>
+      <c r="R149" s="21" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="150" spans="1:20" ht="320" x14ac:dyDescent="0.2">
       <c r="A150" s="8" t="s">
-        <v>160</v>
+        <v>122</v>
       </c>
       <c r="B150" s="9" t="s">
-        <v>161</v>
+        <v>332</v>
       </c>
       <c r="C150" s="9" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D150" s="9" t="s">
-        <v>487</v>
-      </c>
-      <c r="E150" s="9" t="s">
-        <v>286</v>
+        <v>387</v>
+      </c>
+      <c r="E150" s="13" t="s">
+        <v>285</v>
       </c>
       <c r="F150" s="10">
-        <v>10687162</v>
-      </c>
-      <c r="G150" s="11" t="s">
-        <v>486</v>
-      </c>
-      <c r="H150" s="12">
-        <v>42564</v>
+        <v>10730890</v>
       </c>
       <c r="I150" s="12">
-        <v>42564</v>
+        <v>42815</v>
       </c>
       <c r="K150" s="11"/>
       <c r="L150" s="11"/>
-      <c r="M150" s="11">
-        <v>5</v>
-      </c>
-      <c r="N150" s="11">
-        <v>1</v>
+      <c r="M150" s="9">
+        <v>4</v>
+      </c>
+      <c r="N150" s="9">
+        <v>2</v>
       </c>
       <c r="O150" s="9" t="s">
-        <v>488</v>
+        <v>123</v>
       </c>
       <c r="P150" s="11" t="s">
-        <v>298</v>
-      </c>
-      <c r="Q150" s="14" t="s">
+        <v>297</v>
+      </c>
+      <c r="Q150" s="25" t="s">
+        <v>532</v>
+      </c>
+      <c r="R150" s="25" t="s">
         <v>533</v>
       </c>
-      <c r="R150" s="14" t="s">
-        <v>535</v>
-      </c>
-      <c r="S150" s="11" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="151" spans="1:20" ht="314" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="151" spans="1:20" ht="192" x14ac:dyDescent="0.2">
       <c r="A151" s="8" t="s">
-        <v>171</v>
+        <v>195</v>
       </c>
       <c r="B151" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="C151" s="9" t="s">
-        <v>271</v>
+        <v>375</v>
+      </c>
+      <c r="C151" s="11" t="s">
+        <v>270</v>
       </c>
       <c r="D151" s="9" t="s">
-        <v>399</v>
+        <v>402</v>
+      </c>
+      <c r="E151" s="9" t="s">
+        <v>285</v>
       </c>
       <c r="F151" s="10">
-        <v>10745815</v>
+        <v>10688590</v>
       </c>
       <c r="I151" s="12">
-        <v>43005</v>
+        <v>42585</v>
       </c>
       <c r="K151" s="11"/>
       <c r="L151" s="11"/>
       <c r="M151" s="11">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="N151" s="11">
         <v>1</v>
       </c>
       <c r="O151" s="9" t="s">
-        <v>485</v>
+        <v>376</v>
       </c>
       <c r="P151" s="11" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="Q151" s="14" t="s">
-        <v>531</v>
-      </c>
-      <c r="R151" s="9" t="s">
         <v>532</v>
       </c>
-      <c r="T151" s="9" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="152" spans="1:20" ht="80" x14ac:dyDescent="0.2">
+      <c r="R151" s="14" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="152" spans="1:20" ht="160" x14ac:dyDescent="0.2">
       <c r="A152" s="8" t="s">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="B152" s="9" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="C152" s="9" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D152" s="9" t="s">
-        <v>399</v>
-      </c>
-      <c r="E152" s="9" t="s">
-        <v>286</v>
+        <v>387</v>
+      </c>
+      <c r="E152" s="13" t="s">
+        <v>285</v>
       </c>
       <c r="F152" s="10">
-        <v>10776547</v>
-      </c>
-      <c r="G152" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="H152" s="14">
-        <v>43416</v>
+        <v>10866193</v>
       </c>
       <c r="I152" s="14">
-        <v>43416</v>
+        <v>44252</v>
+      </c>
+      <c r="J152" s="9" t="s">
+        <v>635</v>
       </c>
       <c r="K152" s="11"/>
-      <c r="L152" s="11"/>
+      <c r="L152" s="11" t="s">
+        <v>593</v>
+      </c>
       <c r="M152" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N152" s="9">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="O152" s="9" t="s">
+        <v>98</v>
       </c>
       <c r="P152" s="11" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="Q152" s="14" t="s">
-        <v>531</v>
-      </c>
-      <c r="R152" s="9" t="s">
         <v>532</v>
       </c>
-    </row>
-    <row r="153" spans="1:20" ht="225" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R152" s="14" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="153" spans="1:20" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A153" s="8" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="B153" s="9" t="s">
-        <v>157</v>
+        <v>487</v>
       </c>
       <c r="C153" s="9" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D153" s="9" t="s">
-        <v>399</v>
-      </c>
-      <c r="E153" s="9" t="s">
-        <v>286</v>
+        <v>488</v>
+      </c>
+      <c r="E153" s="13" t="s">
+        <v>285</v>
       </c>
       <c r="F153" s="10">
-        <v>10745818</v>
-      </c>
-      <c r="G153" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="H153" s="12">
-        <v>43005</v>
+        <v>10636990</v>
       </c>
       <c r="I153" s="12">
-        <v>43005</v>
+        <v>42201</v>
       </c>
       <c r="K153" s="11"/>
       <c r="L153" s="11"/>
       <c r="M153" s="11">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="N153" s="11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O153" s="9" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="P153" s="11" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="Q153" s="14" t="s">
-        <v>531</v>
-      </c>
-      <c r="R153" s="9" t="s">
         <v>532</v>
       </c>
+      <c r="R153" s="14" t="s">
+        <v>533</v>
+      </c>
       <c r="T153" s="9" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="154" spans="1:20" ht="217" customHeight="1" x14ac:dyDescent="0.2">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="154" spans="1:20" ht="64" x14ac:dyDescent="0.2">
       <c r="A154" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B154" s="9" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="C154" s="9" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D154" s="9" t="s">
         <v>70</v>
       </c>
       <c r="E154" s="9" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F154" s="10">
-        <v>10838449</v>
+        <v>10420228</v>
       </c>
       <c r="I154" s="14">
-        <v>43893</v>
-      </c>
-      <c r="K154" s="11" t="s">
-        <v>655</v>
-      </c>
+        <v>41465</v>
+      </c>
+      <c r="K154" s="11"/>
       <c r="L154" s="11"/>
-      <c r="M154" s="11">
-        <v>2</v>
-      </c>
-      <c r="N154" s="11">
+      <c r="M154" s="9">
         <v>1</v>
       </c>
-      <c r="O154" s="9" t="s">
-        <v>89</v>
+      <c r="N154" s="9">
+        <v>0</v>
       </c>
       <c r="P154" s="11" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="Q154" s="14" t="s">
-        <v>529</v>
-      </c>
-      <c r="R154" s="9" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="155" spans="1:20" ht="409.6" x14ac:dyDescent="0.2">
+        <v>532</v>
+      </c>
+      <c r="R154" s="14" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="155" spans="1:20" ht="64" x14ac:dyDescent="0.2">
       <c r="A155" s="8" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="B155" s="9" t="s">
-        <v>168</v>
+        <v>187</v>
       </c>
       <c r="C155" s="9" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D155" s="9" t="s">
-        <v>434</v>
+        <v>417</v>
       </c>
       <c r="E155" s="9" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F155" s="10">
-        <v>10457005</v>
-      </c>
-      <c r="G155" s="11" t="s">
-        <v>433</v>
-      </c>
-      <c r="H155" s="12">
-        <v>41523</v>
+        <v>10783150</v>
       </c>
       <c r="I155" s="12">
-        <v>41523</v>
+        <v>43509</v>
       </c>
       <c r="K155" s="11"/>
       <c r="L155" s="11"/>
       <c r="M155" s="11">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="N155" s="11">
-        <v>7</v>
-      </c>
-      <c r="O155" s="9" t="s">
-        <v>435</v>
-      </c>
-      <c r="Q155" s="9" t="s">
-        <v>527</v>
-      </c>
-      <c r="R155" s="9" t="s">
-        <v>528</v>
-      </c>
-      <c r="S155" s="9"/>
-      <c r="T155" s="9" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="156" spans="1:20" ht="192" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="P155" s="11" t="s">
+        <v>297</v>
+      </c>
+      <c r="Q155" s="14" t="s">
+        <v>532</v>
+      </c>
+      <c r="R155" s="14" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="156" spans="1:20" ht="112" x14ac:dyDescent="0.2">
       <c r="A156" s="8" t="s">
-        <v>57</v>
+        <v>159</v>
       </c>
       <c r="B156" s="9" t="s">
-        <v>281</v>
+        <v>160</v>
       </c>
       <c r="C156" s="9" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="D156" s="9" t="s">
-        <v>70</v>
+        <v>485</v>
       </c>
       <c r="E156" s="9" t="s">
-        <v>242</v>
+        <v>285</v>
       </c>
       <c r="F156" s="10">
-        <v>10889632</v>
+        <v>10687162</v>
       </c>
       <c r="G156" s="11" t="s">
-        <v>58</v>
+        <v>484</v>
       </c>
       <c r="H156" s="12">
-        <v>44586</v>
+        <v>42564</v>
+      </c>
+      <c r="I156" s="12">
+        <v>42564</v>
       </c>
       <c r="K156" s="11"/>
       <c r="L156" s="11"/>
       <c r="M156" s="11">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N156" s="11">
         <v>1</v>
       </c>
       <c r="O156" s="9" t="s">
+        <v>486</v>
+      </c>
+      <c r="P156" s="11" t="s">
+        <v>297</v>
+      </c>
+      <c r="Q156" s="14" t="s">
+        <v>531</v>
+      </c>
+      <c r="R156" s="14" t="s">
+        <v>533</v>
+      </c>
+      <c r="S156" s="11" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="157" spans="1:20" ht="314" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A157" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="B157" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="C157" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="D157" s="9" t="s">
+        <v>398</v>
+      </c>
+      <c r="F157" s="10">
+        <v>10745815</v>
+      </c>
+      <c r="I157" s="12">
+        <v>43005</v>
+      </c>
+      <c r="K157" s="11"/>
+      <c r="L157" s="11"/>
+      <c r="M157" s="11">
+        <v>11</v>
+      </c>
+      <c r="N157" s="11">
+        <v>1</v>
+      </c>
+      <c r="O157" s="9" t="s">
+        <v>483</v>
+      </c>
+      <c r="P157" s="11" t="s">
+        <v>297</v>
+      </c>
+      <c r="Q157" s="14" t="s">
+        <v>529</v>
+      </c>
+      <c r="R157" s="9" t="s">
+        <v>530</v>
+      </c>
+      <c r="T157" s="9" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="158" spans="1:20" ht="80" x14ac:dyDescent="0.2">
+      <c r="A158" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="B158" s="9" t="s">
+        <v>292</v>
+      </c>
+      <c r="C158" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="D158" s="9" t="s">
+        <v>398</v>
+      </c>
+      <c r="E158" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="F158" s="10">
+        <v>10776547</v>
+      </c>
+      <c r="G158" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="H158" s="14">
+        <v>43416</v>
+      </c>
+      <c r="I158" s="14">
+        <v>43416</v>
+      </c>
+      <c r="K158" s="11"/>
+      <c r="L158" s="11"/>
+      <c r="M158" s="9">
+        <v>0</v>
+      </c>
+      <c r="N158" s="9">
+        <v>0</v>
+      </c>
+      <c r="P158" s="11" t="s">
+        <v>297</v>
+      </c>
+      <c r="Q158" s="14" t="s">
+        <v>529</v>
+      </c>
+      <c r="R158" s="9" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="159" spans="1:20" ht="225" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A159" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="B159" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="C159" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="D159" s="9" t="s">
+        <v>398</v>
+      </c>
+      <c r="E159" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="F159" s="10">
+        <v>10745818</v>
+      </c>
+      <c r="G159" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="H159" s="12">
+        <v>43005</v>
+      </c>
+      <c r="I159" s="12">
+        <v>43005</v>
+      </c>
+      <c r="K159" s="11"/>
+      <c r="L159" s="11"/>
+      <c r="M159" s="11">
+        <v>11</v>
+      </c>
+      <c r="N159" s="11">
+        <v>1</v>
+      </c>
+      <c r="O159" s="9" t="s">
+        <v>483</v>
+      </c>
+      <c r="P159" s="11" t="s">
+        <v>297</v>
+      </c>
+      <c r="Q159" s="14" t="s">
+        <v>529</v>
+      </c>
+      <c r="R159" s="9" t="s">
+        <v>530</v>
+      </c>
+      <c r="T159" s="9" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="160" spans="1:20" ht="217" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A160" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="B160" s="9" t="s">
+        <v>311</v>
+      </c>
+      <c r="C160" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="D160" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="E160" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="F160" s="10">
+        <v>10838449</v>
+      </c>
+      <c r="I160" s="14">
+        <v>43893</v>
+      </c>
+      <c r="K160" s="11" t="s">
+        <v>653</v>
+      </c>
+      <c r="L160" s="11"/>
+      <c r="M160" s="11">
+        <v>2</v>
+      </c>
+      <c r="N160" s="11">
+        <v>1</v>
+      </c>
+      <c r="O160" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="P160" s="11" t="s">
+        <v>297</v>
+      </c>
+      <c r="Q160" s="14" t="s">
+        <v>527</v>
+      </c>
+      <c r="R160" s="9" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="161" spans="1:20" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A161" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="B161" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="C161" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="D161" s="9" t="s">
+        <v>433</v>
+      </c>
+      <c r="E161" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="F161" s="10">
+        <v>10457005</v>
+      </c>
+      <c r="G161" s="11" t="s">
+        <v>432</v>
+      </c>
+      <c r="H161" s="12">
+        <v>41523</v>
+      </c>
+      <c r="I161" s="12">
+        <v>41523</v>
+      </c>
+      <c r="K161" s="11"/>
+      <c r="L161" s="11"/>
+      <c r="M161" s="11">
+        <v>23</v>
+      </c>
+      <c r="N161" s="11">
+        <v>7</v>
+      </c>
+      <c r="O161" s="9" t="s">
+        <v>434</v>
+      </c>
+      <c r="Q161" s="9" t="s">
+        <v>525</v>
+      </c>
+      <c r="R161" s="9" t="s">
+        <v>526</v>
+      </c>
+      <c r="S161" s="9"/>
+      <c r="T161" s="9" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="162" spans="1:20" ht="192" x14ac:dyDescent="0.2">
+      <c r="A162" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B162" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="C162" s="9" t="s">
+        <v>279</v>
+      </c>
+      <c r="D162" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="E162" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="F162" s="10">
+        <v>10889632</v>
+      </c>
+      <c r="G162" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="H162" s="12">
+        <v>44586</v>
+      </c>
+      <c r="K162" s="11"/>
+      <c r="L162" s="11"/>
+      <c r="M162" s="11">
+        <v>2</v>
+      </c>
+      <c r="N162" s="11">
+        <v>1</v>
+      </c>
+      <c r="O162" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="Q156" s="14" t="s">
-        <v>523</v>
-      </c>
-      <c r="R156" s="9" t="s">
-        <v>524</v>
+      <c r="Q162" s="14" t="s">
+        <v>521</v>
+      </c>
+      <c r="R162" s="9" t="s">
+        <v>522</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:P155" xr:uid="{FCA3BC1E-98BA-4EBC-B487-BB5A1B32BC1F}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:U156">
-    <sortCondition ref="C2:C156"/>
-    <sortCondition ref="B2:B156"/>
+  <autoFilter ref="A1:P161" xr:uid="{FCA3BC1E-98BA-4EBC-B487-BB5A1B32BC1F}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:U163">
+    <sortCondition ref="C2:C163"/>
+    <sortCondition ref="B2:B163"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="Q106" r:id="rId1" xr:uid="{FC63631D-77E4-4A15-B985-BDBD16CA8C9F}"/>
-    <hyperlink ref="Q26" r:id="rId2" display="http://geotracker.waterboards.ca.gov/profile_report.asp?global_id=T0608500147" xr:uid="{EAAD11AC-0609-8B43-A9F0-B29471909E0E}"/>
-    <hyperlink ref="R42" r:id="rId3" xr:uid="{15CB8FB9-F1ED-604B-94FC-BBE82AA42BAC}"/>
+    <hyperlink ref="Q112" r:id="rId1" xr:uid="{FC63631D-77E4-4A15-B985-BDBD16CA8C9F}"/>
+    <hyperlink ref="Q30" r:id="rId2" display="http://geotracker.waterboards.ca.gov/profile_report.asp?global_id=T0608500147" xr:uid="{EAAD11AC-0609-8B43-A9F0-B29471909E0E}"/>
+    <hyperlink ref="R48" r:id="rId3" xr:uid="{15CB8FB9-F1ED-604B-94FC-BBE82AA42BAC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId4"/>
@@ -9800,47 +9902,47 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>355</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>356</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>357</v>
       </c>
     </row>
   </sheetData>

--- a/Apple Offices - OSHA EPA Tracker v1.xlsx
+++ b/Apple Offices - OSHA EPA Tracker v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashleygjovik/Desktop/Apple mega-spreadsheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BDCB8B4-027B-1D43-AF74-F5949D697512}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BBC2CEB-91F8-DA44-9B0E-1C698C732C59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14240" yWindow="4880" windowWidth="21100" windowHeight="18280" xr2:uid="{F0C7B789-DDD9-4896-9B82-39835285C9CF}"/>
+    <workbookView xWindow="940" yWindow="1560" windowWidth="31120" windowHeight="18280" xr2:uid="{F0C7B789-DDD9-4896-9B82-39835285C9CF}"/>
   </bookViews>
   <sheets>
     <sheet name="Apple Buildings" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1221" uniqueCount="683">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1224" uniqueCount="686">
   <si>
     <t>Address</t>
   </si>
@@ -2612,9 +2612,6 @@
     <t>CAL000416631</t>
   </si>
   <si>
-    <t>GI DC Sunnyvale LLC</t>
-  </si>
-  <si>
     <t>04/26/2018
 HW - Hazardous Waste Generator
 NOTES
@@ -3431,6 +3428,29 @@
   </si>
   <si>
     <t>10400 Ridgeview Ct</t>
+  </si>
+  <si>
+    <t>2021 - complaints to OSHA &amp; US EPA
+Aug 19 2021 - EPA inspection
+Sept 9 2021 - city inspection</t>
+  </si>
+  <si>
+    <t>2019 - workers comp for fainting spell</t>
+  </si>
+  <si>
+    <t>GI DC Sunnyvale LLC (CalSTRS)</t>
+  </si>
+  <si>
+    <t>City, Sept 2021
+- #36 CFC 315.3.3 combustible material in mechanical &amp; electrical rooms
+City, July 2020:
+- #36 CFC 315.3.3 combustible material in mechanical &amp; electrical rooms
+- #86 CA NFPA 25 Tbl 1.1.2 overdue for annual sprinkler inspection
+- “Discussed fume hood maintenance”
+City, May 2019:
+- #36 CFC 315.3.3 combustible material in mechanical &amp; electrical rooms
+City, April 2018
+- 22 CCR 23 66273.35 waste batteries on site longer than 1 year</t>
   </si>
 </sst>
 </file>
@@ -3550,7 +3570,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -3615,10 +3635,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -3939,9 +3956,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCA3BC1E-98BA-4EBC-B487-BB5A1B32BC1F}">
   <dimension ref="A1:U162"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="95" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="95" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A154" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="W157" sqref="W157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3998,13 +4015,13 @@
         <v>211</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="M1" s="4" t="s">
         <v>357</v>
@@ -4019,19 +4036,19 @@
         <v>296</v>
       </c>
       <c r="Q1" s="6" t="s">
+        <v>492</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="S1" s="4" t="s">
         <v>493</v>
       </c>
-      <c r="R1" s="4" t="s">
-        <v>497</v>
-      </c>
-      <c r="S1" s="4" t="s">
-        <v>494</v>
-      </c>
       <c r="T1" s="4" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="U1" s="3" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="80" x14ac:dyDescent="0.2">
@@ -4066,13 +4083,13 @@
         <v>0</v>
       </c>
       <c r="Q2" s="9" t="s">
+        <v>498</v>
+      </c>
+      <c r="R2" s="9" t="s">
         <v>499</v>
       </c>
-      <c r="R2" s="9" t="s">
+      <c r="S2" s="9" t="s">
         <v>500</v>
-      </c>
-      <c r="S2" s="9" t="s">
-        <v>501</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="176" x14ac:dyDescent="0.2">
@@ -4110,13 +4127,13 @@
         <v>56</v>
       </c>
       <c r="Q3" s="14" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="R3" s="9" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="S3" s="11" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="116.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4151,10 +4168,10 @@
         <v>0</v>
       </c>
       <c r="Q4" s="14" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="R4" s="14" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="96" x14ac:dyDescent="0.2">
@@ -4195,13 +4212,13 @@
         <v>297</v>
       </c>
       <c r="Q5" s="14" t="s">
+        <v>501</v>
+      </c>
+      <c r="R5" s="9" t="s">
         <v>502</v>
       </c>
-      <c r="R5" s="9" t="s">
+      <c r="S5" s="11" t="s">
         <v>503</v>
-      </c>
-      <c r="S5" s="11" t="s">
-        <v>504</v>
       </c>
     </row>
     <row r="6" spans="1:21" ht="96" x14ac:dyDescent="0.2">
@@ -4236,13 +4253,13 @@
         <v>0</v>
       </c>
       <c r="Q6" s="14" t="s">
+        <v>501</v>
+      </c>
+      <c r="R6" s="9" t="s">
         <v>502</v>
       </c>
-      <c r="R6" s="9" t="s">
+      <c r="S6" s="11" t="s">
         <v>503</v>
-      </c>
-      <c r="S6" s="11" t="s">
-        <v>504</v>
       </c>
     </row>
     <row r="7" spans="1:21" ht="409.6" x14ac:dyDescent="0.2">
@@ -4272,7 +4289,7 @@
         <v>43621</v>
       </c>
       <c r="K7" s="22" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="M7" s="9">
         <v>5</v>
@@ -4287,13 +4304,13 @@
         <v>297</v>
       </c>
       <c r="Q7" s="14" t="s">
+        <v>505</v>
+      </c>
+      <c r="R7" s="9" t="s">
         <v>506</v>
       </c>
-      <c r="R7" s="9" t="s">
+      <c r="S7" s="9" t="s">
         <v>507</v>
-      </c>
-      <c r="S7" s="9" t="s">
-        <v>508</v>
       </c>
       <c r="T7" s="9" t="s">
         <v>239</v>
@@ -4304,7 +4321,7 @@
         <v>203</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="C8" s="9" t="s">
         <v>254</v>
@@ -4326,10 +4343,10 @@
         <v>41465</v>
       </c>
       <c r="J8" s="9" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="K8" s="22" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="M8" s="9">
         <v>13</v>
@@ -4379,7 +4396,7 @@
         <v>0</v>
       </c>
       <c r="Q9" s="14" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="10" spans="1:21" ht="216" customHeight="1" x14ac:dyDescent="0.2">
@@ -4415,15 +4432,15 @@
         <v>0</v>
       </c>
       <c r="Q10" s="14" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="11" spans="1:21" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C11" s="9" t="s">
         <v>254</v>
@@ -4437,10 +4454,10 @@
     </row>
     <row r="12" spans="1:21" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="C12" s="9" t="s">
         <v>254</v>
@@ -4495,7 +4512,7 @@
     </row>
     <row r="14" spans="1:21" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B14" s="9" t="s">
         <v>350</v>
@@ -4507,10 +4524,10 @@
       <c r="M14" s="9"/>
       <c r="N14" s="9"/>
       <c r="Q14" s="14" t="s">
+        <v>509</v>
+      </c>
+      <c r="R14" s="9" t="s">
         <v>510</v>
-      </c>
-      <c r="R14" s="9" t="s">
-        <v>511</v>
       </c>
       <c r="S14" s="9"/>
     </row>
@@ -4673,10 +4690,10 @@
         <v>297</v>
       </c>
       <c r="Q18" s="14" t="s">
+        <v>511</v>
+      </c>
+      <c r="R18" s="9" t="s">
         <v>512</v>
-      </c>
-      <c r="R18" s="9" t="s">
-        <v>513</v>
       </c>
     </row>
     <row r="19" spans="1:21" ht="97" customHeight="1" x14ac:dyDescent="0.2">
@@ -4708,7 +4725,7 @@
         <v>43634</v>
       </c>
       <c r="K19" s="22" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="M19" s="9">
         <v>0</v>
@@ -4722,10 +4739,10 @@
     </row>
     <row r="20" spans="1:21" ht="97" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="8" t="s">
+        <v>661</v>
+      </c>
+      <c r="B20" s="9" t="s">
         <v>662</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>663</v>
       </c>
       <c r="C20" s="9" t="s">
         <v>254</v>
@@ -4736,7 +4753,7 @@
       <c r="M20" s="9"/>
       <c r="N20" s="9"/>
       <c r="U20" s="9" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="21" spans="1:21" ht="97" customHeight="1" x14ac:dyDescent="0.2">
@@ -4784,8 +4801,8 @@
       <c r="A22" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="B22" s="29" t="s">
-        <v>682</v>
+      <c r="B22" s="11" t="s">
+        <v>681</v>
       </c>
       <c r="C22" s="9" t="s">
         <v>254</v>
@@ -4834,13 +4851,13 @@
         <v>297</v>
       </c>
       <c r="Q23" s="14" t="s">
+        <v>515</v>
+      </c>
+      <c r="R23" s="9" t="s">
         <v>516</v>
       </c>
-      <c r="R23" s="9" t="s">
+      <c r="S23" s="11" t="s">
         <v>517</v>
-      </c>
-      <c r="S23" s="11" t="s">
-        <v>518</v>
       </c>
     </row>
     <row r="24" spans="1:21" ht="97" customHeight="1" x14ac:dyDescent="0.2">
@@ -4848,7 +4865,7 @@
         <v>105</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="C24" s="9" t="s">
         <v>254</v>
@@ -4870,10 +4887,10 @@
       </c>
       <c r="D25" s="9"/>
       <c r="Q25" s="14" t="s">
+        <v>511</v>
+      </c>
+      <c r="R25" s="9" t="s">
         <v>512</v>
-      </c>
-      <c r="R25" s="9" t="s">
-        <v>513</v>
       </c>
       <c r="S25" s="9"/>
     </row>
@@ -4913,8 +4930,8 @@
       <c r="A27" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="B27" s="29" t="s">
-        <v>681</v>
+      <c r="B27" s="11" t="s">
+        <v>680</v>
       </c>
       <c r="C27" s="9" t="s">
         <v>254</v>
@@ -4927,7 +4944,7 @@
         <v>169</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C28" s="9" t="s">
         <v>254</v>
@@ -4951,7 +4968,7 @@
         <v>41465</v>
       </c>
       <c r="J28" s="9" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="M28" s="11">
         <v>10</v>
@@ -4968,7 +4985,7 @@
         <v>105</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C29" s="9" t="s">
         <v>254</v>
@@ -4977,7 +4994,7 @@
       <c r="J29" s="9"/>
     </row>
     <row r="30" spans="1:21" ht="97" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="28" t="s">
+      <c r="A30" s="1" t="s">
         <v>184</v>
       </c>
       <c r="B30" s="9" t="s">
@@ -4991,18 +5008,18 @@
         <v>250</v>
       </c>
       <c r="K30" s="22" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="Q30" s="17" t="s">
+        <v>513</v>
+      </c>
+      <c r="R30" s="11" t="s">
         <v>514</v>
       </c>
-      <c r="R30" s="11" t="s">
-        <v>515</v>
-      </c>
       <c r="S30" s="17"/>
     </row>
     <row r="31" spans="1:21" ht="97" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="28" t="s">
+      <c r="A31" s="1" t="s">
         <v>90</v>
       </c>
       <c r="B31" s="9" t="s">
@@ -5044,14 +5061,13 @@
         <v>254</v>
       </c>
       <c r="D32" s="9"/>
-      <c r="K32" s="30"/>
       <c r="M32" s="9"/>
       <c r="N32" s="9"/>
       <c r="Q32" s="14" t="s">
+        <v>511</v>
+      </c>
+      <c r="R32" s="9" t="s">
         <v>512</v>
-      </c>
-      <c r="R32" s="9" t="s">
-        <v>513</v>
       </c>
     </row>
     <row r="33" spans="1:21" ht="409.6" x14ac:dyDescent="0.2">
@@ -5074,10 +5090,10 @@
         <v>43298</v>
       </c>
       <c r="J33" s="9" t="s">
-        <v>634</v>
-      </c>
-      <c r="L33" s="31" t="s">
-        <v>672</v>
+        <v>633</v>
+      </c>
+      <c r="L33" s="28" t="s">
+        <v>671</v>
       </c>
       <c r="M33" s="11">
         <v>3</v>
@@ -5086,16 +5102,16 @@
         <v>0</v>
       </c>
       <c r="O33" s="9" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="Q33" s="14" t="s">
+        <v>505</v>
+      </c>
+      <c r="R33" s="9" t="s">
         <v>506</v>
       </c>
-      <c r="R33" s="9" t="s">
+      <c r="S33" s="9" t="s">
         <v>507</v>
-      </c>
-      <c r="S33" s="9" t="s">
-        <v>508</v>
       </c>
     </row>
     <row r="34" spans="1:21" ht="96" x14ac:dyDescent="0.2">
@@ -5120,9 +5136,9 @@
       <c r="I34" s="14">
         <v>41465</v>
       </c>
-      <c r="J34" s="30"/>
+      <c r="J34"/>
       <c r="K34" s="9" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="M34" s="9">
         <v>0</v>
@@ -5159,7 +5175,7 @@
       <c r="H35" s="12">
         <v>44302</v>
       </c>
-      <c r="L35" s="32"/>
+      <c r="L35" s="29"/>
       <c r="M35" s="11">
         <v>0</v>
       </c>
@@ -5172,7 +5188,7 @@
         <v>105</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="C36" s="9" t="s">
         <v>254</v>
@@ -5202,8 +5218,8 @@
       <c r="A38" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="B38" s="29" t="s">
-        <v>680</v>
+      <c r="B38" s="11" t="s">
+        <v>679</v>
       </c>
       <c r="C38" s="9" t="s">
         <v>254</v>
@@ -5213,10 +5229,10 @@
     </row>
     <row r="39" spans="1:21" ht="48" x14ac:dyDescent="0.2">
       <c r="A39" s="8" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="C39" s="9" t="s">
         <v>254</v>
@@ -5225,17 +5241,17 @@
         <v>203</v>
       </c>
       <c r="J39" s="9" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="M39" s="9"/>
       <c r="N39" s="9"/>
     </row>
     <row r="40" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" s="8" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="C40" s="9" t="s">
         <v>254</v>
@@ -5249,10 +5265,10 @@
     </row>
     <row r="41" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" s="8" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C41" s="9" t="s">
         <v>254</v>
@@ -5266,10 +5282,10 @@
     </row>
     <row r="42" spans="1:21" ht="48" x14ac:dyDescent="0.2">
       <c r="A42" s="23" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="C42" s="9" t="s">
         <v>254</v>
@@ -5278,17 +5294,17 @@
         <v>203</v>
       </c>
       <c r="K42" s="22" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="M42" s="9"/>
       <c r="N42" s="9"/>
     </row>
     <row r="43" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" s="8" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C43" s="9" t="s">
         <v>254</v>
@@ -5332,16 +5348,16 @@
         <v>0</v>
       </c>
       <c r="O44" s="9" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="P44" s="11" t="s">
         <v>297</v>
       </c>
       <c r="Q44" s="14" t="s">
+        <v>518</v>
+      </c>
+      <c r="R44" s="9" t="s">
         <v>519</v>
-      </c>
-      <c r="R44" s="9" t="s">
-        <v>520</v>
       </c>
     </row>
     <row r="45" spans="1:21" ht="48" x14ac:dyDescent="0.2">
@@ -5349,16 +5365,16 @@
         <v>105</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="C45" s="11" t="s">
         <v>254</v>
       </c>
       <c r="J45" s="9" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="K45" s="22" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="46" spans="1:21" ht="64" x14ac:dyDescent="0.2">
@@ -5366,7 +5382,7 @@
         <v>460</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="C46" s="9" t="s">
         <v>254</v>
@@ -5387,7 +5403,7 @@
         <v>41465</v>
       </c>
       <c r="K46" s="22" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="M46" s="11">
         <v>10</v>
@@ -5460,7 +5476,7 @@
         <v>41465</v>
       </c>
       <c r="K48" s="22" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="M48" s="11">
         <v>12</v>
@@ -5482,7 +5498,7 @@
         <v>424</v>
       </c>
       <c r="U48" s="9" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="49" spans="1:21" ht="64" x14ac:dyDescent="0.2">
@@ -5565,7 +5581,7 @@
       </c>
       <c r="D51" s="9"/>
       <c r="K51" s="22" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="M51" s="9"/>
       <c r="N51" s="9"/>
@@ -5576,10 +5592,10 @@
     </row>
     <row r="52" spans="1:21" ht="64" x14ac:dyDescent="0.2">
       <c r="A52" s="8" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C52" s="9" t="s">
         <v>254</v>
@@ -5597,7 +5613,7 @@
         <v>41465</v>
       </c>
       <c r="K52" s="22" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="M52" s="9">
         <v>0</v>
@@ -5705,7 +5721,7 @@
         <v>297</v>
       </c>
       <c r="U55" s="11" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="56" spans="1:21" ht="64" x14ac:dyDescent="0.2">
@@ -5734,7 +5750,7 @@
         <v>41465</v>
       </c>
       <c r="K56" s="22" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="M56" s="11">
         <v>2</v>
@@ -5982,7 +5998,7 @@
         <v>203</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="C64" s="9" t="s">
         <v>254</v>
@@ -5994,10 +6010,10 @@
     </row>
     <row r="65" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A65" s="8" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C65" s="9" t="s">
         <v>254</v>
@@ -6055,7 +6071,7 @@
         <v>203</v>
       </c>
       <c r="B67" s="15" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="C67" s="9" t="s">
         <v>254</v>
@@ -6067,10 +6083,10 @@
     </row>
     <row r="68" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A68" s="8" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C68" s="9" t="s">
         <v>254</v>
@@ -6087,14 +6103,14 @@
         <v>203</v>
       </c>
       <c r="B69" s="15" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="C69" s="9" t="s">
         <v>254</v>
       </c>
       <c r="D69" s="9"/>
       <c r="K69" s="22" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="M69" s="9"/>
       <c r="N69" s="9"/>
@@ -6102,10 +6118,10 @@
     </row>
     <row r="70" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A70" s="8" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C70" s="9" t="s">
         <v>254</v>
@@ -6119,10 +6135,10 @@
     </row>
     <row r="71" spans="1:20" ht="152" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="16" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="C71" s="9" t="s">
         <v>254</v>
@@ -6138,7 +6154,7 @@
         <v>203</v>
       </c>
       <c r="B72" s="15" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="C72" s="9" t="s">
         <v>254</v>
@@ -6150,10 +6166,10 @@
     </row>
     <row r="73" spans="1:20" ht="32" x14ac:dyDescent="0.2">
       <c r="A73" s="8" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="C73" s="9" t="s">
         <v>254</v>
@@ -6162,7 +6178,7 @@
         <v>203</v>
       </c>
       <c r="K73" s="22" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="M73" s="9"/>
       <c r="N73" s="9"/>
@@ -6172,7 +6188,7 @@
         <v>203</v>
       </c>
       <c r="B74" s="15" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="C74" s="9" t="s">
         <v>254</v>
@@ -6184,10 +6200,10 @@
     </row>
     <row r="75" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A75" s="8" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="C75" s="9" t="s">
         <v>254</v>
@@ -6201,10 +6217,10 @@
     </row>
     <row r="76" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A76" s="8" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="C76" s="9" t="s">
         <v>254</v>
@@ -6218,10 +6234,10 @@
     </row>
     <row r="77" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A77" s="8" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="C77" s="9" t="s">
         <v>254</v>
@@ -6236,10 +6252,10 @@
     </row>
     <row r="78" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A78" s="8" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B78" s="9" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C78" s="9" t="s">
         <v>254</v>
@@ -6369,10 +6385,10 @@
         <v>92</v>
       </c>
       <c r="Q81" s="14" t="s">
+        <v>588</v>
+      </c>
+      <c r="R81" s="9" t="s">
         <v>589</v>
-      </c>
-      <c r="R81" s="9" t="s">
-        <v>590</v>
       </c>
     </row>
     <row r="82" spans="1:20" ht="304" x14ac:dyDescent="0.2">
@@ -6412,10 +6428,10 @@
         <v>297</v>
       </c>
       <c r="Q82" s="14" t="s">
+        <v>588</v>
+      </c>
+      <c r="R82" s="9" t="s">
         <v>589</v>
-      </c>
-      <c r="R82" s="9" t="s">
-        <v>590</v>
       </c>
     </row>
     <row r="83" spans="1:20" ht="144" x14ac:dyDescent="0.2">
@@ -6558,7 +6574,7 @@
         <v>44585</v>
       </c>
       <c r="K86" s="9" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="L86" s="11"/>
       <c r="M86" s="11">
@@ -6568,10 +6584,10 @@
         <v>0</v>
       </c>
       <c r="Q86" s="14" t="s">
+        <v>586</v>
+      </c>
+      <c r="R86" s="9" t="s">
         <v>587</v>
-      </c>
-      <c r="R86" s="9" t="s">
-        <v>588</v>
       </c>
     </row>
     <row r="87" spans="1:20" ht="208" x14ac:dyDescent="0.2">
@@ -6716,13 +6732,13 @@
         <v>62</v>
       </c>
       <c r="Q90" s="14" t="s">
+        <v>584</v>
+      </c>
+      <c r="R90" s="9" t="s">
         <v>585</v>
       </c>
-      <c r="R90" s="9" t="s">
-        <v>586</v>
-      </c>
       <c r="S90" s="11" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="91" spans="1:20" ht="80" x14ac:dyDescent="0.2">
@@ -6759,10 +6775,10 @@
         <v>297</v>
       </c>
       <c r="Q91" s="14" t="s">
+        <v>581</v>
+      </c>
+      <c r="R91" s="9" t="s">
         <v>582</v>
-      </c>
-      <c r="R91" s="9" t="s">
-        <v>583</v>
       </c>
     </row>
     <row r="92" spans="1:20" ht="272" x14ac:dyDescent="0.2">
@@ -6816,13 +6832,13 @@
         <v>70</v>
       </c>
       <c r="E93" s="9" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="F93" s="10">
         <v>10415917</v>
       </c>
       <c r="G93" s="11" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H93" s="12">
         <v>41465</v>
@@ -6839,16 +6855,16 @@
         <v>13</v>
       </c>
       <c r="O93" s="9" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="P93" s="11" t="s">
         <v>297</v>
       </c>
       <c r="Q93" s="14" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="R93" s="9" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="S93" s="9"/>
       <c r="T93" s="9" t="s">
@@ -7378,13 +7394,13 @@
         <v>297</v>
       </c>
       <c r="Q107" s="14" t="s">
+        <v>576</v>
+      </c>
+      <c r="R107" s="9" t="s">
         <v>577</v>
       </c>
-      <c r="R107" s="9" t="s">
+      <c r="S107" s="9" t="s">
         <v>578</v>
-      </c>
-      <c r="S107" s="9" t="s">
-        <v>579</v>
       </c>
     </row>
     <row r="108" spans="1:20" ht="64" x14ac:dyDescent="0.2">
@@ -7541,10 +7557,10 @@
         <v>297</v>
       </c>
       <c r="Q111" s="14" t="s">
+        <v>574</v>
+      </c>
+      <c r="R111" s="9" t="s">
         <v>575</v>
-      </c>
-      <c r="R111" s="9" t="s">
-        <v>576</v>
       </c>
     </row>
     <row r="112" spans="1:20" ht="64" x14ac:dyDescent="0.2">
@@ -7610,10 +7626,10 @@
         <v>297</v>
       </c>
       <c r="Q113" s="14" t="s">
+        <v>574</v>
+      </c>
+      <c r="R113" s="9" t="s">
         <v>575</v>
-      </c>
-      <c r="R113" s="9" t="s">
-        <v>576</v>
       </c>
     </row>
     <row r="114" spans="1:20" ht="409.6" x14ac:dyDescent="0.2">
@@ -7653,10 +7669,10 @@
         <v>297</v>
       </c>
       <c r="Q114" s="14" t="s">
+        <v>572</v>
+      </c>
+      <c r="R114" s="9" t="s">
         <v>573</v>
-      </c>
-      <c r="R114" s="9" t="s">
-        <v>574</v>
       </c>
       <c r="T114" s="9" t="s">
         <v>478</v>
@@ -7696,13 +7712,13 @@
         <v>297</v>
       </c>
       <c r="Q115" s="14" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="R115" s="9" t="s">
+        <v>569</v>
+      </c>
+      <c r="S115" s="11" t="s">
         <v>570</v>
-      </c>
-      <c r="S115" s="11" t="s">
-        <v>571</v>
       </c>
     </row>
     <row r="116" spans="1:20" ht="64" x14ac:dyDescent="0.2">
@@ -7779,13 +7795,13 @@
         <v>0</v>
       </c>
       <c r="Q117" s="14" t="s">
+        <v>566</v>
+      </c>
+      <c r="R117" s="9" t="s">
         <v>567</v>
       </c>
-      <c r="R117" s="9" t="s">
+      <c r="S117" s="11" t="s">
         <v>568</v>
-      </c>
-      <c r="S117" s="11" t="s">
-        <v>569</v>
       </c>
     </row>
     <row r="118" spans="1:20" ht="80" x14ac:dyDescent="0.2">
@@ -7822,13 +7838,13 @@
         <v>0</v>
       </c>
       <c r="Q118" s="14" t="s">
+        <v>563</v>
+      </c>
+      <c r="R118" s="9" t="s">
         <v>564</v>
       </c>
-      <c r="R118" s="9" t="s">
+      <c r="S118" s="11" t="s">
         <v>565</v>
-      </c>
-      <c r="S118" s="11" t="s">
-        <v>566</v>
       </c>
     </row>
     <row r="119" spans="1:20" ht="176" x14ac:dyDescent="0.2">
@@ -7874,10 +7890,10 @@
         <v>297</v>
       </c>
       <c r="Q119" s="14" t="s">
+        <v>561</v>
+      </c>
+      <c r="R119" s="9" t="s">
         <v>562</v>
-      </c>
-      <c r="R119" s="9" t="s">
-        <v>563</v>
       </c>
     </row>
     <row r="120" spans="1:20" ht="32" x14ac:dyDescent="0.2">
@@ -7961,13 +7977,13 @@
         <v>297</v>
       </c>
       <c r="Q121" s="14" t="s">
+        <v>559</v>
+      </c>
+      <c r="R121" s="9" t="s">
+        <v>532</v>
+      </c>
+      <c r="S121" s="9" t="s">
         <v>560</v>
-      </c>
-      <c r="R121" s="9" t="s">
-        <v>533</v>
-      </c>
-      <c r="S121" s="9" t="s">
-        <v>561</v>
       </c>
       <c r="T121" s="9" t="s">
         <v>240</v>
@@ -8044,13 +8060,13 @@
         <v>297</v>
       </c>
       <c r="Q123" s="14" t="s">
+        <v>555</v>
+      </c>
+      <c r="R123" s="9" t="s">
         <v>556</v>
       </c>
-      <c r="R123" s="9" t="s">
+      <c r="S123" s="11" t="s">
         <v>557</v>
-      </c>
-      <c r="S123" s="11" t="s">
-        <v>558</v>
       </c>
     </row>
     <row r="124" spans="1:20" ht="160" x14ac:dyDescent="0.2">
@@ -8093,13 +8109,13 @@
         <v>297</v>
       </c>
       <c r="Q124" s="14" t="s">
+        <v>555</v>
+      </c>
+      <c r="R124" s="9" t="s">
         <v>556</v>
       </c>
-      <c r="R124" s="9" t="s">
+      <c r="S124" s="11" t="s">
         <v>557</v>
-      </c>
-      <c r="S124" s="11" t="s">
-        <v>558</v>
       </c>
     </row>
     <row r="125" spans="1:20" ht="409.6" x14ac:dyDescent="0.2">
@@ -8145,13 +8161,13 @@
         <v>297</v>
       </c>
       <c r="Q125" s="14" t="s">
+        <v>555</v>
+      </c>
+      <c r="R125" s="9" t="s">
         <v>556</v>
       </c>
-      <c r="R125" s="9" t="s">
+      <c r="S125" s="11" t="s">
         <v>557</v>
-      </c>
-      <c r="S125" s="11" t="s">
-        <v>558</v>
       </c>
     </row>
     <row r="126" spans="1:20" ht="160" x14ac:dyDescent="0.2">
@@ -8194,13 +8210,13 @@
         <v>297</v>
       </c>
       <c r="Q126" s="14" t="s">
+        <v>555</v>
+      </c>
+      <c r="R126" s="9" t="s">
         <v>556</v>
       </c>
-      <c r="R126" s="9" t="s">
+      <c r="S126" s="11" t="s">
         <v>557</v>
-      </c>
-      <c r="S126" s="11" t="s">
-        <v>558</v>
       </c>
     </row>
     <row r="127" spans="1:20" ht="144" x14ac:dyDescent="0.2">
@@ -8243,13 +8259,13 @@
         <v>297</v>
       </c>
       <c r="Q127" s="14" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="R127" s="9" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="S127" s="11" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="128" spans="1:20" ht="409.6" x14ac:dyDescent="0.2">
@@ -8295,16 +8311,16 @@
         <v>297</v>
       </c>
       <c r="Q128" s="14" t="s">
+        <v>547</v>
+      </c>
+      <c r="R128" s="9" t="s">
+        <v>546</v>
+      </c>
+      <c r="S128" s="11" t="s">
         <v>548</v>
       </c>
-      <c r="R128" s="9" t="s">
-        <v>547</v>
-      </c>
-      <c r="S128" s="11" t="s">
-        <v>549</v>
-      </c>
       <c r="T128" s="9" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="129" spans="1:20" ht="192" x14ac:dyDescent="0.2">
@@ -8347,13 +8363,13 @@
         <v>297</v>
       </c>
       <c r="Q129" s="14" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R129" s="9" t="s">
+        <v>553</v>
+      </c>
+      <c r="S129" s="11" t="s">
         <v>554</v>
-      </c>
-      <c r="S129" s="11" t="s">
-        <v>555</v>
       </c>
     </row>
     <row r="130" spans="1:20" ht="335" x14ac:dyDescent="0.2">
@@ -8396,10 +8412,10 @@
         <v>297</v>
       </c>
       <c r="Q130" s="14" t="s">
+        <v>549</v>
+      </c>
+      <c r="R130" s="9" t="s">
         <v>550</v>
-      </c>
-      <c r="R130" s="9" t="s">
-        <v>551</v>
       </c>
     </row>
     <row r="131" spans="1:20" ht="48" x14ac:dyDescent="0.2">
@@ -8425,7 +8441,7 @@
         <v>41703</v>
       </c>
       <c r="J131" s="9" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="K131" s="11"/>
       <c r="L131" s="11"/>
@@ -8479,10 +8495,10 @@
         <v>371</v>
       </c>
       <c r="Q132" s="14" t="s">
+        <v>549</v>
+      </c>
+      <c r="R132" s="9" t="s">
         <v>550</v>
-      </c>
-      <c r="R132" s="9" t="s">
-        <v>551</v>
       </c>
       <c r="S132" s="9"/>
       <c r="T132" s="9" t="s">
@@ -8529,13 +8545,13 @@
         <v>297</v>
       </c>
       <c r="Q133" s="14" t="s">
+        <v>547</v>
+      </c>
+      <c r="R133" s="9" t="s">
+        <v>546</v>
+      </c>
+      <c r="S133" s="11" t="s">
         <v>548</v>
-      </c>
-      <c r="R133" s="9" t="s">
-        <v>547</v>
-      </c>
-      <c r="S133" s="11" t="s">
-        <v>549</v>
       </c>
     </row>
     <row r="134" spans="1:20" ht="176" x14ac:dyDescent="0.2">
@@ -8575,10 +8591,10 @@
         <v>65</v>
       </c>
       <c r="Q134" s="14" t="s">
+        <v>544</v>
+      </c>
+      <c r="R134" s="9" t="s">
         <v>545</v>
-      </c>
-      <c r="R134" s="9" t="s">
-        <v>546</v>
       </c>
     </row>
     <row r="135" spans="1:20" ht="80" x14ac:dyDescent="0.2">
@@ -8607,7 +8623,7 @@
         <v>44586</v>
       </c>
       <c r="K135" s="9" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="L135" s="11"/>
       <c r="M135" s="11">
@@ -8651,10 +8667,10 @@
         <v>297</v>
       </c>
       <c r="Q136" s="14" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="R136" s="9" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="137" spans="1:20" ht="357" customHeight="1" x14ac:dyDescent="0.2">
@@ -8700,13 +8716,13 @@
         <v>297</v>
       </c>
       <c r="Q137" s="14" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="R137" s="9" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="S137" s="11" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="138" spans="1:20" ht="409.6" x14ac:dyDescent="0.2">
@@ -8752,10 +8768,10 @@
         <v>297</v>
       </c>
       <c r="Q138" s="14" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="R138" s="9" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="T138" s="9" t="s">
         <v>240</v>
@@ -8787,7 +8803,7 @@
         <v>42439</v>
       </c>
       <c r="K139" s="9" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="L139" s="11"/>
       <c r="M139" s="9">
@@ -8800,13 +8816,13 @@
         <v>231</v>
       </c>
       <c r="Q139" s="14" t="s">
+        <v>537</v>
+      </c>
+      <c r="R139" s="9" t="s">
         <v>538</v>
       </c>
-      <c r="R139" s="9" t="s">
+      <c r="S139" s="9" t="s">
         <v>539</v>
-      </c>
-      <c r="S139" s="9" t="s">
-        <v>540</v>
       </c>
     </row>
     <row r="140" spans="1:20" ht="272" x14ac:dyDescent="0.2">
@@ -8852,10 +8868,10 @@
         <v>297</v>
       </c>
       <c r="Q140" s="14" t="s">
+        <v>535</v>
+      </c>
+      <c r="R140" s="9" t="s">
         <v>536</v>
-      </c>
-      <c r="R140" s="9" t="s">
-        <v>537</v>
       </c>
       <c r="T140" s="9" t="s">
         <v>240</v>
@@ -8890,10 +8906,10 @@
         <v>41465</v>
       </c>
       <c r="K141" s="9" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="L141" s="9" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="M141" s="11">
         <v>16</v>
@@ -8908,10 +8924,10 @@
         <v>297</v>
       </c>
       <c r="Q141" s="14" t="s">
+        <v>535</v>
+      </c>
+      <c r="R141" s="9" t="s">
         <v>536</v>
-      </c>
-      <c r="R141" s="9" t="s">
-        <v>537</v>
       </c>
       <c r="T141" s="9" t="s">
         <v>240</v>
@@ -8960,13 +8976,13 @@
         <v>297</v>
       </c>
       <c r="Q142" s="14" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="R142" s="9" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="S142" s="11" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="143" spans="1:20" ht="351" customHeight="1" x14ac:dyDescent="0.2">
@@ -9012,13 +9028,13 @@
         <v>297</v>
       </c>
       <c r="Q143" s="14" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="R143" s="9" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="S143" s="11" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="144" spans="1:20" ht="272" x14ac:dyDescent="0.2">
@@ -9064,13 +9080,13 @@
         <v>297</v>
       </c>
       <c r="Q144" s="14" t="s">
+        <v>528</v>
+      </c>
+      <c r="R144" s="9" t="s">
         <v>529</v>
       </c>
-      <c r="R144" s="9" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="145" spans="1:20" ht="80" x14ac:dyDescent="0.2">
+    </row>
+    <row r="145" spans="1:21" ht="80" x14ac:dyDescent="0.2">
       <c r="A145" s="8" t="s">
         <v>124</v>
       </c>
@@ -9110,16 +9126,16 @@
         <v>297</v>
       </c>
       <c r="Q145" s="14" t="s">
+        <v>528</v>
+      </c>
+      <c r="R145" s="9" t="s">
         <v>529</v>
-      </c>
-      <c r="R145" s="9" t="s">
-        <v>530</v>
       </c>
       <c r="T145" s="9" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="146" spans="1:20" ht="192" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:21" ht="192" x14ac:dyDescent="0.2">
       <c r="A146" s="8" t="s">
         <v>134</v>
       </c>
@@ -9156,16 +9172,16 @@
         <v>297</v>
       </c>
       <c r="Q146" s="20" t="s">
+        <v>531</v>
+      </c>
+      <c r="R146" s="21" t="s">
         <v>532</v>
-      </c>
-      <c r="R146" s="21" t="s">
-        <v>533</v>
       </c>
       <c r="T146" s="9" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="147" spans="1:20" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:21" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A147" s="8" t="s">
         <v>135</v>
       </c>
@@ -9205,21 +9221,21 @@
         <v>389</v>
       </c>
       <c r="Q147" s="20" t="s">
+        <v>531</v>
+      </c>
+      <c r="R147" s="21" t="s">
         <v>532</v>
-      </c>
-      <c r="R147" s="21" t="s">
-        <v>533</v>
       </c>
       <c r="T147" s="9" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="148" spans="1:20" ht="32" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:21" ht="32" x14ac:dyDescent="0.2">
       <c r="A148" s="8" t="s">
         <v>105</v>
       </c>
       <c r="B148" s="11" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C148" s="11" t="s">
         <v>270</v>
@@ -9230,13 +9246,13 @@
       <c r="L148" s="11"/>
       <c r="O148" s="9"/>
       <c r="Q148" s="19" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="R148" s="26" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="149" spans="1:20" ht="311" customHeight="1" x14ac:dyDescent="0.2">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="149" spans="1:21" ht="311" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="8" t="s">
         <v>193</v>
       </c>
@@ -9273,13 +9289,13 @@
         <v>297</v>
       </c>
       <c r="Q149" s="20" t="s">
+        <v>531</v>
+      </c>
+      <c r="R149" s="21" t="s">
         <v>532</v>
       </c>
-      <c r="R149" s="21" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="150" spans="1:20" ht="320" x14ac:dyDescent="0.2">
+    </row>
+    <row r="150" spans="1:21" ht="320" x14ac:dyDescent="0.2">
       <c r="A150" s="8" t="s">
         <v>122</v>
       </c>
@@ -9316,13 +9332,13 @@
         <v>297</v>
       </c>
       <c r="Q150" s="25" t="s">
+        <v>531</v>
+      </c>
+      <c r="R150" s="25" t="s">
         <v>532</v>
       </c>
-      <c r="R150" s="25" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="151" spans="1:20" ht="192" x14ac:dyDescent="0.2">
+    </row>
+    <row r="151" spans="1:21" ht="192" x14ac:dyDescent="0.2">
       <c r="A151" s="8" t="s">
         <v>195</v>
       </c>
@@ -9359,13 +9375,13 @@
         <v>297</v>
       </c>
       <c r="Q151" s="14" t="s">
+        <v>531</v>
+      </c>
+      <c r="R151" s="14" t="s">
         <v>532</v>
       </c>
-      <c r="R151" s="14" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="152" spans="1:20" ht="160" x14ac:dyDescent="0.2">
+    </row>
+    <row r="152" spans="1:21" ht="160" x14ac:dyDescent="0.2">
       <c r="A152" s="8" t="s">
         <v>97</v>
       </c>
@@ -9388,11 +9404,11 @@
         <v>44252</v>
       </c>
       <c r="J152" s="9" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="K152" s="11"/>
       <c r="L152" s="11" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="M152" s="9">
         <v>2</v>
@@ -9407,24 +9423,24 @@
         <v>297</v>
       </c>
       <c r="Q152" s="14" t="s">
+        <v>531</v>
+      </c>
+      <c r="R152" s="14" t="s">
         <v>532</v>
       </c>
-      <c r="R152" s="14" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="153" spans="1:20" ht="409.6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="153" spans="1:21" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A153" s="8" t="s">
         <v>143</v>
       </c>
       <c r="B153" s="9" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C153" s="9" t="s">
         <v>270</v>
       </c>
       <c r="D153" s="9" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="E153" s="13" t="s">
         <v>285</v>
@@ -9444,22 +9460,22 @@
         <v>3</v>
       </c>
       <c r="O153" s="9" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="P153" s="11" t="s">
         <v>297</v>
       </c>
       <c r="Q153" s="14" t="s">
+        <v>531</v>
+      </c>
+      <c r="R153" s="14" t="s">
         <v>532</v>
-      </c>
-      <c r="R153" s="14" t="s">
-        <v>533</v>
       </c>
       <c r="T153" s="9" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="154" spans="1:20" ht="64" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:21" ht="64" x14ac:dyDescent="0.2">
       <c r="A154" s="8" t="s">
         <v>87</v>
       </c>
@@ -9493,13 +9509,13 @@
         <v>297</v>
       </c>
       <c r="Q154" s="14" t="s">
+        <v>531</v>
+      </c>
+      <c r="R154" s="14" t="s">
         <v>532</v>
       </c>
-      <c r="R154" s="14" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="155" spans="1:20" ht="64" x14ac:dyDescent="0.2">
+    </row>
+    <row r="155" spans="1:21" ht="64" x14ac:dyDescent="0.2">
       <c r="A155" s="8" t="s">
         <v>186</v>
       </c>
@@ -9533,13 +9549,13 @@
         <v>297</v>
       </c>
       <c r="Q155" s="14" t="s">
+        <v>531</v>
+      </c>
+      <c r="R155" s="14" t="s">
         <v>532</v>
       </c>
-      <c r="R155" s="14" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="156" spans="1:20" ht="112" x14ac:dyDescent="0.2">
+    </row>
+    <row r="156" spans="1:21" ht="208" x14ac:dyDescent="0.2">
       <c r="A156" s="8" t="s">
         <v>159</v>
       </c>
@@ -9550,7 +9566,7 @@
         <v>270</v>
       </c>
       <c r="D156" s="9" t="s">
-        <v>485</v>
+        <v>684</v>
       </c>
       <c r="E156" s="9" t="s">
         <v>285</v>
@@ -9567,8 +9583,12 @@
       <c r="I156" s="12">
         <v>42564</v>
       </c>
-      <c r="K156" s="11"/>
-      <c r="L156" s="11"/>
+      <c r="J156" s="9" t="s">
+        <v>683</v>
+      </c>
+      <c r="K156" s="9" t="s">
+        <v>682</v>
+      </c>
       <c r="M156" s="11">
         <v>5</v>
       </c>
@@ -9576,22 +9596,25 @@
         <v>1</v>
       </c>
       <c r="O156" s="9" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="P156" s="11" t="s">
         <v>297</v>
       </c>
       <c r="Q156" s="14" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="R156" s="14" t="s">
+        <v>532</v>
+      </c>
+      <c r="S156" s="11" t="s">
         <v>533</v>
       </c>
-      <c r="S156" s="11" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="157" spans="1:20" ht="314" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U156" s="9" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="157" spans="1:21" ht="314" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="8" t="s">
         <v>170</v>
       </c>
@@ -9625,16 +9648,16 @@
         <v>297</v>
       </c>
       <c r="Q157" s="14" t="s">
+        <v>528</v>
+      </c>
+      <c r="R157" s="9" t="s">
         <v>529</v>
-      </c>
-      <c r="R157" s="9" t="s">
-        <v>530</v>
       </c>
       <c r="T157" s="9" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="158" spans="1:20" ht="80" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:21" ht="80" x14ac:dyDescent="0.2">
       <c r="A158" s="8" t="s">
         <v>75</v>
       </c>
@@ -9674,13 +9697,13 @@
         <v>297</v>
       </c>
       <c r="Q158" s="14" t="s">
+        <v>528</v>
+      </c>
+      <c r="R158" s="9" t="s">
         <v>529</v>
       </c>
-      <c r="R158" s="9" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="159" spans="1:20" ht="225" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="159" spans="1:21" ht="225" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="8" t="s">
         <v>155</v>
       </c>
@@ -9723,16 +9746,16 @@
         <v>297</v>
       </c>
       <c r="Q159" s="14" t="s">
+        <v>528</v>
+      </c>
+      <c r="R159" s="9" t="s">
         <v>529</v>
-      </c>
-      <c r="R159" s="9" t="s">
-        <v>530</v>
       </c>
       <c r="T159" s="9" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="160" spans="1:20" ht="217" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:21" ht="217" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="8" t="s">
         <v>88</v>
       </c>
@@ -9755,7 +9778,7 @@
         <v>43893</v>
       </c>
       <c r="K160" s="11" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="L160" s="11"/>
       <c r="M160" s="11">
@@ -9771,10 +9794,10 @@
         <v>297</v>
       </c>
       <c r="Q160" s="14" t="s">
+        <v>526</v>
+      </c>
+      <c r="R160" s="9" t="s">
         <v>527</v>
-      </c>
-      <c r="R160" s="9" t="s">
-        <v>528</v>
       </c>
     </row>
     <row r="161" spans="1:20" ht="409.6" x14ac:dyDescent="0.2">
@@ -9817,10 +9840,10 @@
         <v>434</v>
       </c>
       <c r="Q161" s="9" t="s">
+        <v>524</v>
+      </c>
+      <c r="R161" s="9" t="s">
         <v>525</v>
-      </c>
-      <c r="R161" s="9" t="s">
-        <v>526</v>
       </c>
       <c r="S161" s="9"/>
       <c r="T161" s="9" t="s">
@@ -9864,10 +9887,10 @@
         <v>59</v>
       </c>
       <c r="Q162" s="14" t="s">
+        <v>520</v>
+      </c>
+      <c r="R162" s="9" t="s">
         <v>521</v>
-      </c>
-      <c r="R162" s="9" t="s">
-        <v>522</v>
       </c>
     </row>
   </sheetData>
@@ -9921,7 +9944,7 @@
         <v>206</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -9929,7 +9952,7 @@
         <v>207</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
